--- a/04_设计文档/all_field_new.xlsx
+++ b/04_设计文档/all_field_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="319">
   <si>
     <t>hplydb</t>
   </si>
@@ -979,6 +979,10 @@
   </si>
   <si>
     <t>CHAR(36) NOT NULL</t>
+  </si>
+  <si>
+    <t>t_contract_supplemental_agreement</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1982,7 +1986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -8213,7 +8217,7 @@
         <v>11</v>
       </c>
       <c r="G195" s="8" t="str">
-        <f t="shared" ref="G195:G209" si="9">IF(D195="ID","",I195)</f>
+        <f t="shared" ref="G195:G207" si="9">IF(D195="ID","",I195)</f>
         <v>ALTER TABLE `t_sys_user` ADD COLUMN `RealName` VARCHAR(50);</v>
       </c>
       <c r="H195" t="str">
@@ -8683,8 +8687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8726,7 +8730,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>318</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>

--- a/04_设计文档/all_field_new.xlsx
+++ b/04_设计文档/all_field_new.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table1!$A$1:$F$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table1!$A$1:$F$211</definedName>
     <definedName name="a00">#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="389">
   <si>
     <t>hplydb</t>
   </si>
@@ -364,9 +364,6 @@
   </si>
   <si>
     <t>收款时间</t>
-  </si>
-  <si>
-    <t>t_contract_supplemental_agreement</t>
   </si>
   <si>
     <t>csa_code</t>
@@ -983,13 +980,291 @@
   <si>
     <t>t_contract_supplemental_agreement</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_project_summary</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>trice</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在部门</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_id</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_code</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_name</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同金额</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract_amount</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同调增额</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_amount</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同结算额</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>settlement_amount</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>比率</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>management_rate</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收管理费</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>management_plan_amount</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>实收管理费</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>management_real_amount</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计收管理费</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>management_total_amount</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚欠管理费</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>management_owe_amount</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票金额</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>party_billing_amount</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计开票</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>party_billing_total_amount</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款金额</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>collections_amount</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计收款</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>collections_total_amount</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收率</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>collections_rate</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_billing_amount</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_billing_total_amount</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付金额</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_amount</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment_total_amount</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_rate</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>应缴税金</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_plan_amount</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>已缴税金</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_real_amount</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计已缴税金</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_total_amount</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚欠税金</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_owe_amount</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrears_amount</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计用量</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected_value</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>型材点</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile_point</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_project_summary</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_contract_change</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息额</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest_amount</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest_rate</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>PROJECT_CODE</t>
+  </si>
+  <si>
+    <t>PROJECT_NAME</t>
+  </si>
+  <si>
+    <t>CONTRACT_AMOUNT</t>
+  </si>
+  <si>
+    <t>CHANGE_AMOUNT</t>
+  </si>
+  <si>
+    <t>SETTLEMENT_AMOUNT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1155,8 +1430,31 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1354,8 +1652,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1483,6 +1787,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1614,7 +1929,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1640,6 +1955,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1984,44 +2326,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I209"/>
+  <dimension ref="A1:K243"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2038,7 +2381,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G2" s="8" t="str">
         <f>IF(D2="ID","",I2)</f>
@@ -2053,7 +2396,7 @@
         <v>ALTER TABLE `t_arrears` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2073,19 +2416,19 @@
         <v>4</v>
       </c>
       <c r="G3" s="8" t="str">
-        <f t="shared" ref="G3:G66" si="0">IF(D3="ID","",I3)</f>
+        <f>IF(D3="ID","",I3)</f>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `ProjectID` CHAR(36);</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H66" si="1">"ALTER TABLE `"&amp;B3&amp;"` CHANGE COLUMN `"&amp;D3&amp;"` `"&amp;D3&amp;"` "&amp;F3&amp;" COMMENT '"&amp;E3&amp;"' ;"</f>
+        <f>"ALTER TABLE `"&amp;B3&amp;"` CHANGE COLUMN `"&amp;D3&amp;"` `"&amp;D3&amp;"` "&amp;F3&amp;" COMMENT '"&amp;E3&amp;"' ;"</f>
         <v>ALTER TABLE `t_arrears` CHANGE COLUMN `ProjectID` `ProjectID` CHAR(36) COMMENT '项目ID' ;</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I66" si="2">"ALTER TABLE `"&amp;B3&amp;"` ADD COLUMN `"&amp;D3&amp;"` "&amp;F3&amp;";"</f>
+        <f>"ALTER TABLE `"&amp;B3&amp;"` ADD COLUMN `"&amp;D3&amp;"` "&amp;F3&amp;";"</f>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `ProjectID` CHAR(36);</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2105,19 +2448,19 @@
         <v>11</v>
       </c>
       <c r="G4" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D4="ID","",I4)</f>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `ArrearsType` VARCHAR(50);</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="1"/>
+        <f>"ALTER TABLE `"&amp;B4&amp;"` CHANGE COLUMN `"&amp;D4&amp;"` `"&amp;D4&amp;"` "&amp;F4&amp;" COMMENT '"&amp;E4&amp;"' ;"</f>
         <v>ALTER TABLE `t_arrears` CHANGE COLUMN `ArrearsType` `ArrearsType` VARCHAR(50) COMMENT '欠款分类' ;</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="2"/>
+        <f>"ALTER TABLE `"&amp;B4&amp;"` ADD COLUMN `"&amp;D4&amp;"` "&amp;F4&amp;";"</f>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `ArrearsType` VARCHAR(50);</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2137,19 +2480,19 @@
         <v>11</v>
       </c>
       <c r="G5" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D5="ID","",I5)</f>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `PayType` VARCHAR(50);</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="1"/>
+        <f>"ALTER TABLE `"&amp;B5&amp;"` CHANGE COLUMN `"&amp;D5&amp;"` `"&amp;D5&amp;"` "&amp;F5&amp;" COMMENT '"&amp;E5&amp;"' ;"</f>
         <v>ALTER TABLE `t_arrears` CHANGE COLUMN `PayType` `PayType` VARCHAR(50) COMMENT '支付方式' ;</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="2"/>
+        <f>"ALTER TABLE `"&amp;B5&amp;"` ADD COLUMN `"&amp;D5&amp;"` "&amp;F5&amp;";"</f>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `PayType` VARCHAR(50);</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2169,83 +2512,59 @@
         <v>18</v>
       </c>
       <c r="G6" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D6="ID","",I6)</f>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `Amount` DECIMAL(20,4);</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="1"/>
+        <f>"ALTER TABLE `"&amp;B6&amp;"` CHANGE COLUMN `"&amp;D6&amp;"` `"&amp;D6&amp;"` "&amp;F6&amp;" COMMENT '"&amp;E6&amp;"' ;"</f>
         <v>ALTER TABLE `t_arrears` CHANGE COLUMN `Amount` `Amount` DECIMAL(20,4) COMMENT '金额' ;</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="2"/>
+        <f>"ALTER TABLE `"&amp;B6&amp;"` ADD COLUMN `"&amp;D6&amp;"` "&amp;F6&amp;";"</f>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `Amount` DECIMAL(20,4);</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_arrears` ADD COLUMN `BankAccount` VARCHAR(50);</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_arrears` CHANGE COLUMN `BankAccount` `BankAccount` VARCHAR(50) COMMENT '银行账号' ;</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_arrears` ADD COLUMN `BankAccount` VARCHAR(50);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="16"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_arrears` ADD COLUMN `BankName` VARCHAR(200);</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_arrears` CHANGE COLUMN `BankName` `BankName` VARCHAR(200) COMMENT '开户行名称' ;</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_arrears` ADD COLUMN `BankName` VARCHAR(200);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="16"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2253,31 +2572,31 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_arrears` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D9="ID","",I9)</f>
+        <v>ALTER TABLE `t_arrears` ADD COLUMN `BankAccount` VARCHAR(50);</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_arrears` CHANGE COLUMN `Trice` `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '登记时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B9&amp;"` CHANGE COLUMN `"&amp;D9&amp;"` `"&amp;D9&amp;"` "&amp;F9&amp;" COMMENT '"&amp;E9&amp;"' ;"</f>
+        <v>ALTER TABLE `t_arrears` CHANGE COLUMN `BankAccount` `BankAccount` VARCHAR(50) COMMENT '银行账号' ;</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_arrears` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f>"ALTER TABLE `"&amp;B9&amp;"` ADD COLUMN `"&amp;D9&amp;"` "&amp;F9&amp;";"</f>
+        <v>ALTER TABLE `t_arrears` ADD COLUMN `BankAccount` VARCHAR(50);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2285,31 +2604,31 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_arrears` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D10="ID","",I10)</f>
+        <v>ALTER TABLE `t_arrears` ADD COLUMN `BankName` VARCHAR(200);</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_arrears` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B10&amp;"` CHANGE COLUMN `"&amp;D10&amp;"` `"&amp;D10&amp;"` "&amp;F10&amp;" COMMENT '"&amp;E10&amp;"' ;"</f>
+        <v>ALTER TABLE `t_arrears` CHANGE COLUMN `BankName` `BankName` VARCHAR(200) COMMENT '开户行名称' ;</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_arrears` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f>"ALTER TABLE `"&amp;B10&amp;"` ADD COLUMN `"&amp;D10&amp;"` "&amp;F10&amp;";"</f>
+        <v>ALTER TABLE `t_arrears` ADD COLUMN `BankName` VARCHAR(200);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2317,31 +2636,31 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_arrears` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>IF(D11="ID","",I11)</f>
+        <v>ALTER TABLE `t_arrears` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_arrears` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B11&amp;"` CHANGE COLUMN `"&amp;D11&amp;"` `"&amp;D11&amp;"` "&amp;F11&amp;" COMMENT '"&amp;E11&amp;"' ;"</f>
+        <v>ALTER TABLE `t_arrears` CHANGE COLUMN `Trice` `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '登记时间' ;</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_arrears` ADD COLUMN `CreateUser` CHAR(36);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f>"ALTER TABLE `"&amp;B11&amp;"` ADD COLUMN `"&amp;D11&amp;"` "&amp;F11&amp;";"</f>
+        <v>ALTER TABLE `t_arrears` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -2349,31 +2668,31 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_arrears` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D12="ID","",I12)</f>
+        <v>ALTER TABLE `t_arrears` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_arrears` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B12&amp;"` CHANGE COLUMN `"&amp;D12&amp;"` `"&amp;D12&amp;"` "&amp;F12&amp;" COMMENT '"&amp;E12&amp;"' ;"</f>
+        <v>ALTER TABLE `t_arrears` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_arrears` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f>"ALTER TABLE `"&amp;B12&amp;"` ADD COLUMN `"&amp;D12&amp;"` "&amp;F12&amp;";"</f>
+        <v>ALTER TABLE `t_arrears` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2381,31 +2700,31 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_arrears` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f>IF(D13="ID","",I13)</f>
+        <v>ALTER TABLE `t_arrears` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_arrears` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B13&amp;"` CHANGE COLUMN `"&amp;D13&amp;"` `"&amp;D13&amp;"` "&amp;F13&amp;" COMMENT '"&amp;E13&amp;"' ;"</f>
+        <v>ALTER TABLE `t_arrears` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_arrears` ADD COLUMN `UpdateUser` CHAR(36);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f>"ALTER TABLE `"&amp;B13&amp;"` ADD COLUMN `"&amp;D13&amp;"` "&amp;F13&amp;";"</f>
+        <v>ALTER TABLE `t_arrears` ADD COLUMN `CreateUser` CHAR(36);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2413,92 +2732,92 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="8" t="str">
+        <f>IF(D14="ID","",I14)</f>
+        <v>ALTER TABLE `t_arrears` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+      <c r="H14" t="str">
+        <f>"ALTER TABLE `"&amp;B14&amp;"` CHANGE COLUMN `"&amp;D14&amp;"` `"&amp;D14&amp;"` "&amp;F14&amp;" COMMENT '"&amp;E14&amp;"' ;"</f>
+        <v>ALTER TABLE `t_arrears` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
+      </c>
+      <c r="I14" t="str">
+        <f>"ALTER TABLE `"&amp;B14&amp;"` ADD COLUMN `"&amp;D14&amp;"` "&amp;F14&amp;";"</f>
+        <v>ALTER TABLE `t_arrears` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="8" t="str">
+        <f>IF(D15="ID","",I15)</f>
+        <v>ALTER TABLE `t_arrears` ADD COLUMN `UpdateUser` CHAR(36);</v>
+      </c>
+      <c r="H15" t="str">
+        <f>"ALTER TABLE `"&amp;B15&amp;"` CHANGE COLUMN `"&amp;D15&amp;"` `"&amp;D15&amp;"` "&amp;F15&amp;" COMMENT '"&amp;E15&amp;"' ;"</f>
+        <v>ALTER TABLE `t_arrears` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
+      </c>
+      <c r="I15" t="str">
+        <f>"ALTER TABLE `"&amp;B15&amp;"` ADD COLUMN `"&amp;D15&amp;"` "&amp;F15&amp;";"</f>
+        <v>ALTER TABLE `t_arrears` ADD COLUMN `UpdateUser` CHAR(36);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="G16" s="8" t="str">
+        <f>IF(D16="ID","",I16)</f>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
-      <c r="H14" t="str">
-        <f t="shared" si="1"/>
+      <c r="H16" t="str">
+        <f>"ALTER TABLE `"&amp;B16&amp;"` CHANGE COLUMN `"&amp;D16&amp;"` `"&amp;D16&amp;"` "&amp;F16&amp;" COMMENT '"&amp;E16&amp;"' ;"</f>
         <v>ALTER TABLE `t_arrears` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
-      <c r="I14" t="str">
-        <f t="shared" si="2"/>
+      <c r="I16" t="str">
+        <f>"ALTER TABLE `"&amp;B16&amp;"` ADD COLUMN `"&amp;D16&amp;"` "&amp;F16&amp;";"</f>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `Description` VARCHAR(500);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="G15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_chop` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `ChopCode` VARCHAR(50);</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_chop` CHANGE COLUMN `ChopCode` `ChopCode` VARCHAR(50) COMMENT '编号' ;</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `ChopCode` VARCHAR(50);</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2509,28 +2828,28 @@
         <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>4</v>
+        <v>316</v>
       </c>
       <c r="G17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `ProjectID` CHAR(36);</v>
+        <f>IF(D17="ID","",I17)</f>
+        <v/>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_chop` CHANGE COLUMN `ProjectID` `ProjectID` CHAR(36) COMMENT '项目ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B17&amp;"` CHANGE COLUMN `"&amp;D17&amp;"` `"&amp;D17&amp;"` "&amp;F17&amp;" COMMENT '"&amp;E17&amp;"' ;"</f>
+        <v>ALTER TABLE `t_chop` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `ProjectID` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B17&amp;"` ADD COLUMN `"&amp;D17&amp;"` "&amp;F17&amp;";"</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2541,28 +2860,28 @@
         <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `ProjectCode` VARCHAR(50);</v>
+        <f>IF(D18="ID","",I18)</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `ChopCode` VARCHAR(50);</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_chop` CHANGE COLUMN `ProjectCode` `ProjectCode` VARCHAR(50) COMMENT '项目编号' ;</v>
+        <f>"ALTER TABLE `"&amp;B18&amp;"` CHANGE COLUMN `"&amp;D18&amp;"` `"&amp;D18&amp;"` "&amp;F18&amp;" COMMENT '"&amp;E18&amp;"' ;"</f>
+        <v>ALTER TABLE `t_chop` CHANGE COLUMN `ChopCode` `ChopCode` VARCHAR(50) COMMENT '编号' ;</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `ProjectCode` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B18&amp;"` ADD COLUMN `"&amp;D18&amp;"` "&amp;F18&amp;";"</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `ChopCode` VARCHAR(50);</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2573,28 +2892,28 @@
         <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `ProjectName` VARCHAR(200);</v>
+        <f>IF(D19="ID","",I19)</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `ProjectID` CHAR(36);</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_chop` CHANGE COLUMN `ProjectName` `ProjectName` VARCHAR(200) COMMENT '项目名称' ;</v>
+        <f>"ALTER TABLE `"&amp;B19&amp;"` CHANGE COLUMN `"&amp;D19&amp;"` `"&amp;D19&amp;"` "&amp;F19&amp;" COMMENT '"&amp;E19&amp;"' ;"</f>
+        <v>ALTER TABLE `t_chop` CHANGE COLUMN `ProjectID` `ProjectID` CHAR(36) COMMENT '项目ID' ;</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `ProjectName` VARCHAR(200);</v>
+        <f>"ALTER TABLE `"&amp;B19&amp;"` ADD COLUMN `"&amp;D19&amp;"` "&amp;F19&amp;";"</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `ProjectID` CHAR(36);</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2605,28 +2924,28 @@
         <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Manager` VARCHAR(20);</v>
+        <f>IF(D20="ID","",I20)</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `ProjectCode` VARCHAR(50);</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Manager` `Manager` VARCHAR(20) COMMENT '项目经理' ;</v>
+        <f>"ALTER TABLE `"&amp;B20&amp;"` CHANGE COLUMN `"&amp;D20&amp;"` `"&amp;D20&amp;"` "&amp;F20&amp;" COMMENT '"&amp;E20&amp;"' ;"</f>
+        <v>ALTER TABLE `t_chop` CHANGE COLUMN `ProjectCode` `ProjectCode` VARCHAR(50) COMMENT '项目编号' ;</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Manager` VARCHAR(20);</v>
+        <f>"ALTER TABLE `"&amp;B20&amp;"` ADD COLUMN `"&amp;D20&amp;"` "&amp;F20&amp;";"</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `ProjectCode` VARCHAR(50);</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2637,28 +2956,28 @@
         <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Content` VARCHAR(500);</v>
+        <f>IF(D21="ID","",I21)</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `ProjectName` VARCHAR(200);</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Content` `Content` VARCHAR(500) COMMENT '主要内容' ;</v>
+        <f>"ALTER TABLE `"&amp;B21&amp;"` CHANGE COLUMN `"&amp;D21&amp;"` `"&amp;D21&amp;"` "&amp;F21&amp;" COMMENT '"&amp;E21&amp;"' ;"</f>
+        <v>ALTER TABLE `t_chop` CHANGE COLUMN `ProjectName` `ProjectName` VARCHAR(200) COMMENT '项目名称' ;</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Content` VARCHAR(500);</v>
+        <f>"ALTER TABLE `"&amp;B21&amp;"` ADD COLUMN `"&amp;D21&amp;"` "&amp;F21&amp;";"</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `ProjectName` VARCHAR(200);</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2669,28 +2988,28 @@
         <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="G22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `ApplyUser` CHAR(36);</v>
+        <f>IF(D22="ID","",I22)</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Manager` VARCHAR(20);</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_chop` CHANGE COLUMN `ApplyUser` `ApplyUser` CHAR(36) COMMENT '申请人' ;</v>
+        <f>"ALTER TABLE `"&amp;B22&amp;"` CHANGE COLUMN `"&amp;D22&amp;"` `"&amp;D22&amp;"` "&amp;F22&amp;" COMMENT '"&amp;E22&amp;"' ;"</f>
+        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Manager` `Manager` VARCHAR(20) COMMENT '项目经理' ;</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `ApplyUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B22&amp;"` ADD COLUMN `"&amp;D22&amp;"` "&amp;F22&amp;";"</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Manager` VARCHAR(20);</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2701,28 +3020,28 @@
         <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="G23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `ApplyTime` DATETIME(0);</v>
+        <f>IF(D23="ID","",I23)</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Content` VARCHAR(500);</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_chop` CHANGE COLUMN `ApplyTime` `ApplyTime` DATETIME(0) COMMENT '申请时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B23&amp;"` CHANGE COLUMN `"&amp;D23&amp;"` `"&amp;D23&amp;"` "&amp;F23&amp;" COMMENT '"&amp;E23&amp;"' ;"</f>
+        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Content` `Content` VARCHAR(500) COMMENT '主要内容' ;</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `ApplyTime` DATETIME(0);</v>
+        <f>"ALTER TABLE `"&amp;B23&amp;"` ADD COLUMN `"&amp;D23&amp;"` "&amp;F23&amp;";"</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Content` VARCHAR(500);</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2733,28 +3052,28 @@
         <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `OrganizationID` CHAR(36);</v>
+        <f>IF(D24="ID","",I24)</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `ApplyUser` CHAR(36);</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_chop` CHANGE COLUMN `OrganizationID` `OrganizationID` CHAR(36) COMMENT '所在部门' ;</v>
+        <f>"ALTER TABLE `"&amp;B24&amp;"` CHANGE COLUMN `"&amp;D24&amp;"` `"&amp;D24&amp;"` "&amp;F24&amp;" COMMENT '"&amp;E24&amp;"' ;"</f>
+        <v>ALTER TABLE `t_chop` CHANGE COLUMN `ApplyUser` `ApplyUser` CHAR(36) COMMENT '申请人' ;</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `OrganizationID` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B24&amp;"` ADD COLUMN `"&amp;D24&amp;"` "&amp;F24&amp;";"</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `ApplyUser` CHAR(36);</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2765,28 +3084,28 @@
         <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="G25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Step1Idea` VARCHAR(200);</v>
+        <f>IF(D25="ID","",I25)</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `ApplyTime` DATETIME(0);</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Step1Idea` `Step1Idea` VARCHAR(200) COMMENT '事业部/项目部审核意见' ;</v>
+        <f>"ALTER TABLE `"&amp;B25&amp;"` CHANGE COLUMN `"&amp;D25&amp;"` `"&amp;D25&amp;"` "&amp;F25&amp;" COMMENT '"&amp;E25&amp;"' ;"</f>
+        <v>ALTER TABLE `t_chop` CHANGE COLUMN `ApplyTime` `ApplyTime` DATETIME(0) COMMENT '申请时间' ;</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Step1Idea` VARCHAR(200);</v>
+        <f>"ALTER TABLE `"&amp;B25&amp;"` ADD COLUMN `"&amp;D25&amp;"` "&amp;F25&amp;";"</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `ApplyTime` DATETIME(0);</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2797,28 +3116,28 @@
         <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G26" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Step1User` CHAR(36);</v>
+        <f>IF(D26="ID","",I26)</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `OrganizationID` CHAR(36);</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Step1User` `Step1User` CHAR(36) COMMENT '事业部/项目部审核人' ;</v>
+        <f>"ALTER TABLE `"&amp;B26&amp;"` CHANGE COLUMN `"&amp;D26&amp;"` `"&amp;D26&amp;"` "&amp;F26&amp;" COMMENT '"&amp;E26&amp;"' ;"</f>
+        <v>ALTER TABLE `t_chop` CHANGE COLUMN `OrganizationID` `OrganizationID` CHAR(36) COMMENT '所在部门' ;</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Step1User` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B26&amp;"` ADD COLUMN `"&amp;D26&amp;"` "&amp;F26&amp;";"</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `OrganizationID` CHAR(36);</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2829,28 +3148,28 @@
         <v>46</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="G27" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Step1Time` DATETIME(0);</v>
+        <f>IF(D27="ID","",I27)</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Step1Idea` VARCHAR(200);</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Step1Time` `Step1Time` DATETIME(0) COMMENT '事业部/项目部审核时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B27&amp;"` CHANGE COLUMN `"&amp;D27&amp;"` `"&amp;D27&amp;"` "&amp;F27&amp;" COMMENT '"&amp;E27&amp;"' ;"</f>
+        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Step1Idea` `Step1Idea` VARCHAR(200) COMMENT '事业部/项目部审核意见' ;</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Step1Time` DATETIME(0);</v>
+        <f>"ALTER TABLE `"&amp;B27&amp;"` ADD COLUMN `"&amp;D27&amp;"` "&amp;F27&amp;";"</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Step1Idea` VARCHAR(200);</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2861,28 +3180,28 @@
         <v>46</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G28" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Step2Idea` VARCHAR(200);</v>
+        <f>IF(D28="ID","",I28)</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Step1User` CHAR(36);</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Step2Idea` `Step2Idea` VARCHAR(200) COMMENT '财务部审核意见' ;</v>
+        <f>"ALTER TABLE `"&amp;B28&amp;"` CHANGE COLUMN `"&amp;D28&amp;"` `"&amp;D28&amp;"` "&amp;F28&amp;" COMMENT '"&amp;E28&amp;"' ;"</f>
+        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Step1User` `Step1User` CHAR(36) COMMENT '事业部/项目部审核人' ;</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Step2Idea` VARCHAR(200);</v>
+        <f>"ALTER TABLE `"&amp;B28&amp;"` ADD COLUMN `"&amp;D28&amp;"` "&amp;F28&amp;";"</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Step1User` CHAR(36);</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2893,28 +3212,28 @@
         <v>46</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="G29" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Step2User` CHAR(36);</v>
+        <f>IF(D29="ID","",I29)</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Step1Time` DATETIME(0);</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Step2User` `Step2User` CHAR(36) COMMENT '财务部审核人' ;</v>
+        <f>"ALTER TABLE `"&amp;B29&amp;"` CHANGE COLUMN `"&amp;D29&amp;"` `"&amp;D29&amp;"` "&amp;F29&amp;" COMMENT '"&amp;E29&amp;"' ;"</f>
+        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Step1Time` `Step1Time` DATETIME(0) COMMENT '事业部/项目部审核时间' ;</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Step2User` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B29&amp;"` ADD COLUMN `"&amp;D29&amp;"` "&amp;F29&amp;";"</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Step1Time` DATETIME(0);</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2925,28 +3244,28 @@
         <v>46</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="G30" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Step2Time` DATETIME(0);</v>
+        <f>IF(D30="ID","",I30)</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Step2Idea` VARCHAR(200);</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Step2Time` `Step2Time` DATETIME(0) COMMENT '财务部审核时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B30&amp;"` CHANGE COLUMN `"&amp;D30&amp;"` `"&amp;D30&amp;"` "&amp;F30&amp;" COMMENT '"&amp;E30&amp;"' ;"</f>
+        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Step2Idea` `Step2Idea` VARCHAR(200) COMMENT '财务部审核意见' ;</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Step2Time` DATETIME(0);</v>
+        <f>"ALTER TABLE `"&amp;B30&amp;"` ADD COLUMN `"&amp;D30&amp;"` "&amp;F30&amp;";"</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Step2Idea` VARCHAR(200);</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2957,28 +3276,28 @@
         <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G31" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Step3Idea` VARCHAR(200);</v>
+        <f>IF(D31="ID","",I31)</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Step2User` CHAR(36);</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Step3Idea` `Step3Idea` VARCHAR(200) COMMENT '经办人办理结果' ;</v>
+        <f>"ALTER TABLE `"&amp;B31&amp;"` CHANGE COLUMN `"&amp;D31&amp;"` `"&amp;D31&amp;"` "&amp;F31&amp;" COMMENT '"&amp;E31&amp;"' ;"</f>
+        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Step2User` `Step2User` CHAR(36) COMMENT '财务部审核人' ;</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Step3Idea` VARCHAR(200);</v>
+        <f>"ALTER TABLE `"&amp;B31&amp;"` ADD COLUMN `"&amp;D31&amp;"` "&amp;F31&amp;";"</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Step2User` CHAR(36);</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2989,28 +3308,28 @@
         <v>46</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="G32" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Step3User` CHAR(36);</v>
+        <f>IF(D32="ID","",I32)</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Step2Time` DATETIME(0);</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Step3User` `Step3User` CHAR(36) COMMENT '经办人' ;</v>
+        <f>"ALTER TABLE `"&amp;B32&amp;"` CHANGE COLUMN `"&amp;D32&amp;"` `"&amp;D32&amp;"` "&amp;F32&amp;" COMMENT '"&amp;E32&amp;"' ;"</f>
+        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Step2Time` `Step2Time` DATETIME(0) COMMENT '财务部审核时间' ;</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Step3User` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B32&amp;"` ADD COLUMN `"&amp;D32&amp;"` "&amp;F32&amp;";"</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Step2Time` DATETIME(0);</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3021,28 +3340,28 @@
         <v>46</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="G33" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Step3Time` DATETIME(0);</v>
+        <f>IF(D33="ID","",I33)</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Step3Idea` VARCHAR(200);</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Step3Time` `Step3Time` DATETIME(0) COMMENT '经办时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B33&amp;"` CHANGE COLUMN `"&amp;D33&amp;"` `"&amp;D33&amp;"` "&amp;F33&amp;" COMMENT '"&amp;E33&amp;"' ;"</f>
+        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Step3Idea` `Step3Idea` VARCHAR(200) COMMENT '经办人办理结果' ;</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `Step3Time` DATETIME(0);</v>
+        <f>"ALTER TABLE `"&amp;B33&amp;"` ADD COLUMN `"&amp;D33&amp;"` "&amp;F33&amp;";"</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Step3Idea` VARCHAR(200);</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3053,28 +3372,28 @@
         <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="G34" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `StepStatus` VARCHAR(20);</v>
+        <f>IF(D34="ID","",I34)</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Step3User` CHAR(36);</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_chop` CHANGE COLUMN `StepStatus` `StepStatus` VARCHAR(20) COMMENT '流程状态' ;</v>
+        <f>"ALTER TABLE `"&amp;B34&amp;"` CHANGE COLUMN `"&amp;D34&amp;"` `"&amp;D34&amp;"` "&amp;F34&amp;" COMMENT '"&amp;E34&amp;"' ;"</f>
+        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Step3User` `Step3User` CHAR(36) COMMENT '经办人' ;</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_chop` ADD COLUMN `StepStatus` VARCHAR(20);</v>
+        <f>"ALTER TABLE `"&amp;B34&amp;"` ADD COLUMN `"&amp;D34&amp;"` "&amp;F34&amp;";"</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Step3User` CHAR(36);</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3082,31 +3401,31 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>317</v>
+        <v>69</v>
       </c>
       <c r="G35" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(D35="ID","",I35)</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Step3Time` DATETIME(0);</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_collections` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B35&amp;"` CHANGE COLUMN `"&amp;D35&amp;"` `"&amp;D35&amp;"` "&amp;F35&amp;" COMMENT '"&amp;E35&amp;"' ;"</f>
+        <v>ALTER TABLE `t_chop` CHANGE COLUMN `Step3Time` `Step3Time` DATETIME(0) COMMENT '经办时间' ;</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
+        <f>"ALTER TABLE `"&amp;B35&amp;"` ADD COLUMN `"&amp;D35&amp;"` "&amp;F35&amp;";"</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `Step3Time` DATETIME(0);</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3114,31 +3433,31 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="G36" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `ProjectID` CHAR(36);</v>
+        <f>IF(D36="ID","",I36)</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `StepStatus` VARCHAR(20);</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_collections` CHANGE COLUMN `ProjectID` `ProjectID` CHAR(36) COMMENT '项目ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B36&amp;"` CHANGE COLUMN `"&amp;D36&amp;"` `"&amp;D36&amp;"` "&amp;F36&amp;" COMMENT '"&amp;E36&amp;"' ;"</f>
+        <v>ALTER TABLE `t_chop` CHANGE COLUMN `StepStatus` `StepStatus` VARCHAR(20) COMMENT '流程状态' ;</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `ProjectID` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B36&amp;"` ADD COLUMN `"&amp;D36&amp;"` "&amp;F36&amp;";"</f>
+        <v>ALTER TABLE `t_chop` ADD COLUMN `StepStatus` VARCHAR(20);</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3149,28 +3468,28 @@
         <v>103</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>11</v>
+        <v>316</v>
       </c>
       <c r="G37" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `TicketCode` VARCHAR(50);</v>
+        <f>IF(D37="ID","",I37)</f>
+        <v/>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_collections` CHANGE COLUMN `TicketCode` `TicketCode` VARCHAR(50) COMMENT '凭证号' ;</v>
+        <f>"ALTER TABLE `"&amp;B37&amp;"` CHANGE COLUMN `"&amp;D37&amp;"` `"&amp;D37&amp;"` "&amp;F37&amp;" COMMENT '"&amp;E37&amp;"' ;"</f>
+        <v>ALTER TABLE `t_collections` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `TicketCode` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B37&amp;"` ADD COLUMN `"&amp;D37&amp;"` "&amp;F37&amp;";"</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3181,28 +3500,28 @@
         <v>103</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>109</v>
+        <v>6</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G38" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `SourceOF` VARCHAR(50);</v>
+        <f>IF(D38="ID","",I38)</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `ProjectID` CHAR(36);</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_collections` CHANGE COLUMN `SourceOF` `SourceOF` VARCHAR(50) COMMENT '款项来源' ;</v>
+        <f>"ALTER TABLE `"&amp;B38&amp;"` CHANGE COLUMN `"&amp;D38&amp;"` `"&amp;D38&amp;"` "&amp;F38&amp;" COMMENT '"&amp;E38&amp;"' ;"</f>
+        <v>ALTER TABLE `t_collections` CHANGE COLUMN `ProjectID` `ProjectID` CHAR(36) COMMENT '项目ID' ;</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `SourceOF` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B38&amp;"` ADD COLUMN `"&amp;D38&amp;"` "&amp;F38&amp;";"</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `ProjectID` CHAR(36);</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3213,28 +3532,28 @@
         <v>103</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `PaymentType` VARCHAR(50);</v>
+        <f>IF(D39="ID","",I39)</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `TicketCode` VARCHAR(50);</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_collections` CHANGE COLUMN `PaymentType` `PaymentType` VARCHAR(50) COMMENT '收款方式' ;</v>
+        <f>"ALTER TABLE `"&amp;B39&amp;"` CHANGE COLUMN `"&amp;D39&amp;"` `"&amp;D39&amp;"` "&amp;F39&amp;" COMMENT '"&amp;E39&amp;"' ;"</f>
+        <v>ALTER TABLE `t_collections` CHANGE COLUMN `TicketCode` `TicketCode` VARCHAR(50) COMMENT '凭证号' ;</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `PaymentType` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B39&amp;"` ADD COLUMN `"&amp;D39&amp;"` "&amp;F39&amp;";"</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `TicketCode` VARCHAR(50);</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3245,28 +3564,28 @@
         <v>103</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G40" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `Amount` DECIMAL(20,4);</v>
+        <f>IF(D40="ID","",I40)</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `SourceOF` VARCHAR(50);</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_collections` CHANGE COLUMN `Amount` `Amount` DECIMAL(20,4) COMMENT '收款金额' ;</v>
+        <f>"ALTER TABLE `"&amp;B40&amp;"` CHANGE COLUMN `"&amp;D40&amp;"` `"&amp;D40&amp;"` "&amp;F40&amp;" COMMENT '"&amp;E40&amp;"' ;"</f>
+        <v>ALTER TABLE `t_collections` CHANGE COLUMN `SourceOF` `SourceOF` VARCHAR(50) COMMENT '款项来源' ;</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `Amount` DECIMAL(20,4);</v>
+        <f>"ALTER TABLE `"&amp;B40&amp;"` ADD COLUMN `"&amp;D40&amp;"` "&amp;F40&amp;";"</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `SourceOF` VARCHAR(50);</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3277,28 +3596,28 @@
         <v>103</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `BankAccount` VARCHAR(50);</v>
+        <f>IF(D41="ID","",I41)</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `PaymentType` VARCHAR(50);</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_collections` CHANGE COLUMN `BankAccount` `BankAccount` VARCHAR(50) COMMENT '银行账号' ;</v>
+        <f>"ALTER TABLE `"&amp;B41&amp;"` CHANGE COLUMN `"&amp;D41&amp;"` `"&amp;D41&amp;"` "&amp;F41&amp;" COMMENT '"&amp;E41&amp;"' ;"</f>
+        <v>ALTER TABLE `t_collections` CHANGE COLUMN `PaymentType` `PaymentType` VARCHAR(50) COMMENT '收款方式' ;</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `BankAccount` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B41&amp;"` ADD COLUMN `"&amp;D41&amp;"` "&amp;F41&amp;";"</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `PaymentType` VARCHAR(50);</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3309,28 +3628,28 @@
         <v>103</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G42" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `BankName` VARCHAR(200);</v>
+        <f>IF(D42="ID","",I42)</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `Amount` DECIMAL(20,4);</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_collections` CHANGE COLUMN `BankName` `BankName` VARCHAR(200) COMMENT '开户行名称' ;</v>
+        <f>"ALTER TABLE `"&amp;B42&amp;"` CHANGE COLUMN `"&amp;D42&amp;"` `"&amp;D42&amp;"` "&amp;F42&amp;" COMMENT '"&amp;E42&amp;"' ;"</f>
+        <v>ALTER TABLE `t_collections` CHANGE COLUMN `Amount` `Amount` DECIMAL(20,4) COMMENT '收款金额' ;</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `BankName` VARCHAR(200);</v>
+        <f>"ALTER TABLE `"&amp;B42&amp;"` ADD COLUMN `"&amp;D42&amp;"` "&amp;F42&amp;";"</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `Amount` DECIMAL(20,4);</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3341,28 +3660,28 @@
         <v>103</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G43" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D43="ID","",I43)</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `BankAccount` VARCHAR(50);</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_collections` CHANGE COLUMN `Trice` `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '收款时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B43&amp;"` CHANGE COLUMN `"&amp;D43&amp;"` `"&amp;D43&amp;"` "&amp;F43&amp;" COMMENT '"&amp;E43&amp;"' ;"</f>
+        <v>ALTER TABLE `t_collections` CHANGE COLUMN `BankAccount` `BankAccount` VARCHAR(50) COMMENT '银行账号' ;</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B43&amp;"` ADD COLUMN `"&amp;D43&amp;"` "&amp;F43&amp;";"</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `BankAccount` VARCHAR(50);</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3373,28 +3692,28 @@
         <v>103</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G44" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D44="ID","",I44)</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `BankName` VARCHAR(200);</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_collections` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B44&amp;"` CHANGE COLUMN `"&amp;D44&amp;"` `"&amp;D44&amp;"` "&amp;F44&amp;" COMMENT '"&amp;E44&amp;"' ;"</f>
+        <v>ALTER TABLE `t_collections` CHANGE COLUMN `BankName` `BankName` VARCHAR(200) COMMENT '开户行名称' ;</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B44&amp;"` ADD COLUMN `"&amp;D44&amp;"` "&amp;F44&amp;";"</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `BankName` VARCHAR(200);</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3405,28 +3724,28 @@
         <v>103</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G45" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>IF(D45="ID","",I45)</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_collections` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B45&amp;"` CHANGE COLUMN `"&amp;D45&amp;"` `"&amp;D45&amp;"` "&amp;F45&amp;" COMMENT '"&amp;E45&amp;"' ;"</f>
+        <v>ALTER TABLE `t_collections` CHANGE COLUMN `Trice` `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '收款时间' ;</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B45&amp;"` ADD COLUMN `"&amp;D45&amp;"` "&amp;F45&amp;";"</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3437,28 +3756,28 @@
         <v>103</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G46" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D46="ID","",I46)</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_collections` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B46&amp;"` CHANGE COLUMN `"&amp;D46&amp;"` `"&amp;D46&amp;"` "&amp;F46&amp;" COMMENT '"&amp;E46&amp;"' ;"</f>
+        <v>ALTER TABLE `t_collections` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B46&amp;"` ADD COLUMN `"&amp;D46&amp;"` "&amp;F46&amp;";"</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3469,28 +3788,28 @@
         <v>103</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G47" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f>IF(D47="ID","",I47)</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_collections` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B47&amp;"` CHANGE COLUMN `"&amp;D47&amp;"` `"&amp;D47&amp;"` "&amp;F47&amp;" COMMENT '"&amp;E47&amp;"' ;"</f>
+        <v>ALTER TABLE `t_collections` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B47&amp;"` ADD COLUMN `"&amp;D47&amp;"` "&amp;F47&amp;";"</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3501,28 +3820,28 @@
         <v>103</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G48" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>IF(D48="ID","",I48)</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_collections` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
+        <f>"ALTER TABLE `"&amp;B48&amp;"` CHANGE COLUMN `"&amp;D48&amp;"` `"&amp;D48&amp;"` "&amp;F48&amp;" COMMENT '"&amp;E48&amp;"' ;"</f>
+        <v>ALTER TABLE `t_collections` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_collections` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>"ALTER TABLE `"&amp;B48&amp;"` ADD COLUMN `"&amp;D48&amp;"` "&amp;F48&amp;";"</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3530,31 +3849,31 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>317</v>
+        <v>41</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(D49="ID","",I49)</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `UpdateUser` CHAR(36);</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B49&amp;"` CHANGE COLUMN `"&amp;D49&amp;"` `"&amp;D49&amp;"` "&amp;F49&amp;" COMMENT '"&amp;E49&amp;"' ;"</f>
+        <v>ALTER TABLE `t_collections` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
+        <f>"ALTER TABLE `"&amp;B49&amp;"` ADD COLUMN `"&amp;D49&amp;"` "&amp;F49&amp;";"</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `UpdateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3562,383 +3881,383 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="G50" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` ADD COLUMN `ProjectID` CHAR(36);</v>
+        <f>IF(D50="ID","",I50)</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` CHANGE COLUMN `ProjectID` `ProjectID` CHAR(36) COMMENT '项目ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B50&amp;"` CHANGE COLUMN `"&amp;D50&amp;"` `"&amp;D50&amp;"` "&amp;F50&amp;" COMMENT '"&amp;E50&amp;"' ;"</f>
+        <v>ALTER TABLE `t_collections` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` ADD COLUMN `ProjectID` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B50&amp;"` ADD COLUMN `"&amp;D50&amp;"` "&amp;F50&amp;";"</f>
+        <v>ALTER TABLE `t_collections` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>115</v>
+      <c r="B51" s="15" t="s">
+        <v>378</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="G51" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` ADD COLUMN `CsaCode` VARCHAR(50);</v>
+        <f>IF(D51="ID","",I51)</f>
+        <v/>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` CHANGE COLUMN `CsaCode` `CsaCode` VARCHAR(50) COMMENT '增补协议编号' ;</v>
+        <f>"ALTER TABLE `"&amp;B51&amp;"` CHANGE COLUMN `"&amp;D51&amp;"` `"&amp;D51&amp;"` "&amp;F51&amp;" COMMENT '"&amp;E51&amp;"' ;"</f>
+        <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` ADD COLUMN `CsaCode` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B51&amp;"` ADD COLUMN `"&amp;D51&amp;"` "&amp;F51&amp;";"</f>
+        <v>ALTER TABLE `t_contract_change` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>115</v>
+      <c r="B52" s="15" t="s">
+        <v>378</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` ADD COLUMN `ManagementRate` DECIMAL(20,4);</v>
+        <f>IF(D52="ID","",I52)</f>
+        <v>ALTER TABLE `t_contract_change` ADD COLUMN `ProjectID` CHAR(36);</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` CHANGE COLUMN `ManagementRate` `ManagementRate` DECIMAL(20,4) COMMENT '管理费率' ;</v>
+        <f>"ALTER TABLE `"&amp;B52&amp;"` CHANGE COLUMN `"&amp;D52&amp;"` `"&amp;D52&amp;"` "&amp;F52&amp;" COMMENT '"&amp;E52&amp;"' ;"</f>
+        <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `ProjectID` `ProjectID` CHAR(36) COMMENT '项目ID' ;</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` ADD COLUMN `ManagementRate` DECIMAL(20,4);</v>
+        <f>"ALTER TABLE `"&amp;B52&amp;"` ADD COLUMN `"&amp;D52&amp;"` "&amp;F52&amp;";"</f>
+        <v>ALTER TABLE `t_contract_change` ADD COLUMN `ProjectID` CHAR(36);</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G53" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` ADD COLUMN `ChangeAmount` DECIMAL(20,4);</v>
+        <f>IF(D53="ID","",I53)</f>
+        <v>ALTER TABLE `t_contract_change` ADD COLUMN `CsaCode` VARCHAR(50);</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` CHANGE COLUMN `ChangeAmount` `ChangeAmount` DECIMAL(20,4) COMMENT '增减金额' ;</v>
+        <f>"ALTER TABLE `"&amp;B53&amp;"` CHANGE COLUMN `"&amp;D53&amp;"` `"&amp;D53&amp;"` "&amp;F53&amp;" COMMENT '"&amp;E53&amp;"' ;"</f>
+        <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `CsaCode` `CsaCode` VARCHAR(50) COMMENT '增补协议编号' ;</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` ADD COLUMN `ChangeAmount` DECIMAL(20,4);</v>
+        <f>"ALTER TABLE `"&amp;B53&amp;"` ADD COLUMN `"&amp;D53&amp;"` "&amp;F53&amp;";"</f>
+        <v>ALTER TABLE `t_contract_change` ADD COLUMN `CsaCode` VARCHAR(50);</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>115</v>
+      <c r="B54" s="15" t="s">
+        <v>378</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G54" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D54="ID","",I54)</f>
+        <v>ALTER TABLE `t_contract_change` ADD COLUMN `ManagementRate` DECIMAL(20,4);</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` CHANGE COLUMN `Trice` `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '增补时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B54&amp;"` CHANGE COLUMN `"&amp;D54&amp;"` `"&amp;D54&amp;"` "&amp;F54&amp;" COMMENT '"&amp;E54&amp;"' ;"</f>
+        <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `ManagementRate` `ManagementRate` DECIMAL(20,4) COMMENT '管理费率' ;</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B54&amp;"` ADD COLUMN `"&amp;D54&amp;"` "&amp;F54&amp;";"</f>
+        <v>ALTER TABLE `t_contract_change` ADD COLUMN `ManagementRate` DECIMAL(20,4);</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>115</v>
+      <c r="B55" s="15" t="s">
+        <v>378</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G55" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D55="ID","",I55)</f>
+        <v>ALTER TABLE `t_contract_change` ADD COLUMN `ChangeAmount` DECIMAL(20,4);</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B55&amp;"` CHANGE COLUMN `"&amp;D55&amp;"` `"&amp;D55&amp;"` "&amp;F55&amp;" COMMENT '"&amp;E55&amp;"' ;"</f>
+        <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `ChangeAmount` `ChangeAmount` DECIMAL(20,4) COMMENT '增减金额' ;</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B55&amp;"` ADD COLUMN `"&amp;D55&amp;"` "&amp;F55&amp;";"</f>
+        <v>ALTER TABLE `t_contract_change` ADD COLUMN `ChangeAmount` DECIMAL(20,4);</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>115</v>
+      <c r="B56" s="15" t="s">
+        <v>378</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G56" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>IF(D56="ID","",I56)</f>
+        <v>ALTER TABLE `t_contract_change` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B56&amp;"` CHANGE COLUMN `"&amp;D56&amp;"` `"&amp;D56&amp;"` "&amp;F56&amp;" COMMENT '"&amp;E56&amp;"' ;"</f>
+        <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `Trice` `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '增补时间' ;</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B56&amp;"` ADD COLUMN `"&amp;D56&amp;"` "&amp;F56&amp;";"</f>
+        <v>ALTER TABLE `t_contract_change` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>115</v>
+      <c r="B57" s="15" t="s">
+        <v>378</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G57" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D57="ID","",I57)</f>
+        <v>ALTER TABLE `t_contract_change` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B57&amp;"` CHANGE COLUMN `"&amp;D57&amp;"` `"&amp;D57&amp;"` "&amp;F57&amp;" COMMENT '"&amp;E57&amp;"' ;"</f>
+        <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B57&amp;"` ADD COLUMN `"&amp;D57&amp;"` "&amp;F57&amp;";"</f>
+        <v>ALTER TABLE `t_contract_change` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>115</v>
+      <c r="B58" s="15" t="s">
+        <v>378</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G58" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f>IF(D58="ID","",I58)</f>
+        <v>ALTER TABLE `t_contract_change` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B58&amp;"` CHANGE COLUMN `"&amp;D58&amp;"` `"&amp;D58&amp;"` "&amp;F58&amp;" COMMENT '"&amp;E58&amp;"' ;"</f>
+        <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B58&amp;"` ADD COLUMN `"&amp;D58&amp;"` "&amp;F58&amp;";"</f>
+        <v>ALTER TABLE `t_contract_change` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>115</v>
+      <c r="B59" s="15" t="s">
+        <v>378</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G59" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>IF(D59="ID","",I59)</f>
+        <v>ALTER TABLE `t_contract_change` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
+        <f>"ALTER TABLE `"&amp;B59&amp;"` CHANGE COLUMN `"&amp;D59&amp;"` `"&amp;D59&amp;"` "&amp;F59&amp;" COMMENT '"&amp;E59&amp;"' ;"</f>
+        <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_contract_supplemental_agreement` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>"ALTER TABLE `"&amp;B59&amp;"` ADD COLUMN `"&amp;D59&amp;"` "&amp;F59&amp;";"</f>
+        <v>ALTER TABLE `t_contract_change` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>126</v>
+      <c r="B60" s="15" t="s">
+        <v>378</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>317</v>
+        <v>4</v>
       </c>
       <c r="G60" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(D60="ID","",I60)</f>
+        <v>ALTER TABLE `t_contract_change` ADD COLUMN `UpdateUser` CHAR(36);</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B60&amp;"` CHANGE COLUMN `"&amp;D60&amp;"` `"&amp;D60&amp;"` "&amp;F60&amp;" COMMENT '"&amp;E60&amp;"' ;"</f>
+        <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
+        <f>"ALTER TABLE `"&amp;B60&amp;"` ADD COLUMN `"&amp;D60&amp;"` "&amp;F60&amp;";"</f>
+        <v>ALTER TABLE `t_contract_change` ADD COLUMN `UpdateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>126</v>
+      <c r="B61" s="15" t="s">
+        <v>378</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="G61" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `ProjectID` CHAR(36);</v>
+        <f>IF(D61="ID","",I61)</f>
+        <v>ALTER TABLE `t_contract_change` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `ProjectID` `ProjectID` CHAR(36) COMMENT '项目ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B61&amp;"` CHANGE COLUMN `"&amp;D61&amp;"` `"&amp;D61&amp;"` "&amp;F61&amp;" COMMENT '"&amp;E61&amp;"' ;"</f>
+        <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `ProjectID` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B61&amp;"` ADD COLUMN `"&amp;D61&amp;"` "&amp;F61&amp;";"</f>
+        <v>ALTER TABLE `t_contract_change` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3946,31 +4265,31 @@
         <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>11</v>
+        <v>316</v>
       </c>
       <c r="G62" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `InvoiceCode` VARCHAR(50);</v>
+        <f>IF(D62="ID","",I62)</f>
+        <v/>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `InvoiceCode` `InvoiceCode` VARCHAR(50) COMMENT '发票票号' ;</v>
+        <f>"ALTER TABLE `"&amp;B62&amp;"` CHANGE COLUMN `"&amp;D62&amp;"` `"&amp;D62&amp;"` "&amp;F62&amp;" COMMENT '"&amp;E62&amp;"' ;"</f>
+        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `InvoiceCode` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B62&amp;"` ADD COLUMN `"&amp;D62&amp;"` "&amp;F62&amp;";"</f>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3978,31 +4297,31 @@
         <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G63" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `InvoiceType` VARCHAR(50);</v>
+        <f>IF(D63="ID","",I63)</f>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `ProjectID` CHAR(36);</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `InvoiceType` `InvoiceType` VARCHAR(50) COMMENT '发票类别' ;</v>
+        <f>"ALTER TABLE `"&amp;B63&amp;"` CHANGE COLUMN `"&amp;D63&amp;"` `"&amp;D63&amp;"` "&amp;F63&amp;" COMMENT '"&amp;E63&amp;"' ;"</f>
+        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `ProjectID` `ProjectID` CHAR(36) COMMENT '项目ID' ;</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `InvoiceType` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B63&amp;"` ADD COLUMN `"&amp;D63&amp;"` "&amp;F63&amp;";"</f>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `ProjectID` CHAR(36);</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4010,31 +4329,31 @@
         <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G64" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `Amount` DECIMAL(20,4);</v>
+        <f>IF(D64="ID","",I64)</f>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `InvoiceCode` VARCHAR(50);</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `Amount` `Amount` DECIMAL(20,4) COMMENT '发票金额' ;</v>
+        <f>"ALTER TABLE `"&amp;B64&amp;"` CHANGE COLUMN `"&amp;D64&amp;"` `"&amp;D64&amp;"` "&amp;F64&amp;" COMMENT '"&amp;E64&amp;"' ;"</f>
+        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `InvoiceCode` `InvoiceCode` VARCHAR(50) COMMENT '发票票号' ;</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `Amount` DECIMAL(20,4);</v>
+        <f>"ALTER TABLE `"&amp;B64&amp;"` ADD COLUMN `"&amp;D64&amp;"` "&amp;F64&amp;";"</f>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `InvoiceCode` VARCHAR(50);</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4042,31 +4361,31 @@
         <v>0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G65" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D65="ID","",I65)</f>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `InvoiceType` VARCHAR(50);</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `Trice` `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '开票时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B65&amp;"` CHANGE COLUMN `"&amp;D65&amp;"` `"&amp;D65&amp;"` "&amp;F65&amp;" COMMENT '"&amp;E65&amp;"' ;"</f>
+        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `InvoiceType` `InvoiceType` VARCHAR(50) COMMENT '发票类别' ;</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B65&amp;"` ADD COLUMN `"&amp;D65&amp;"` "&amp;F65&amp;";"</f>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `InvoiceType` VARCHAR(50);</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4074,31 +4393,31 @@
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G66" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D66="ID","",I66)</f>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `Amount` DECIMAL(20,4);</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="1"/>
-        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B66&amp;"` CHANGE COLUMN `"&amp;D66&amp;"` `"&amp;D66&amp;"` "&amp;F66&amp;" COMMENT '"&amp;E66&amp;"' ;"</f>
+        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `Amount` `Amount` DECIMAL(20,4) COMMENT '发票金额' ;</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B66&amp;"` ADD COLUMN `"&amp;D66&amp;"` "&amp;F66&amp;";"</f>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `Amount` DECIMAL(20,4);</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4106,31 +4425,31 @@
         <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G67" s="8" t="str">
-        <f t="shared" ref="G67:G130" si="3">IF(D67="ID","",I67)</f>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>IF(D67="ID","",I67)</f>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" ref="H67:H130" si="4">"ALTER TABLE `"&amp;B67&amp;"` CHANGE COLUMN `"&amp;D67&amp;"` `"&amp;D67&amp;"` "&amp;F67&amp;" COMMENT '"&amp;E67&amp;"' ;"</f>
-        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B67&amp;"` CHANGE COLUMN `"&amp;D67&amp;"` `"&amp;D67&amp;"` "&amp;F67&amp;" COMMENT '"&amp;E67&amp;"' ;"</f>
+        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `Trice` `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '开票时间' ;</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I130" si="5">"ALTER TABLE `"&amp;B67&amp;"` ADD COLUMN `"&amp;D67&amp;"` "&amp;F67&amp;";"</f>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B67&amp;"` ADD COLUMN `"&amp;D67&amp;"` "&amp;F67&amp;";"</f>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4138,31 +4457,31 @@
         <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G68" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D68="ID","",I68)</f>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B68&amp;"` CHANGE COLUMN `"&amp;D68&amp;"` `"&amp;D68&amp;"` "&amp;F68&amp;" COMMENT '"&amp;E68&amp;"' ;"</f>
+        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B68&amp;"` ADD COLUMN `"&amp;D68&amp;"` "&amp;F68&amp;";"</f>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4170,31 +4489,31 @@
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G69" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f>IF(D69="ID","",I69)</f>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B69&amp;"` CHANGE COLUMN `"&amp;D69&amp;"` `"&amp;D69&amp;"` "&amp;F69&amp;" COMMENT '"&amp;E69&amp;"' ;"</f>
+        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B69&amp;"` ADD COLUMN `"&amp;D69&amp;"` "&amp;F69&amp;";"</f>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4202,31 +4521,31 @@
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G70" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>IF(D70="ID","",I70)</f>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
+        <f>"ALTER TABLE `"&amp;B70&amp;"` CHANGE COLUMN `"&amp;D70&amp;"` `"&amp;D70&amp;"` "&amp;F70&amp;" COMMENT '"&amp;E70&amp;"' ;"</f>
+        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>"ALTER TABLE `"&amp;B70&amp;"` ADD COLUMN `"&amp;D70&amp;"` "&amp;F70&amp;";"</f>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4234,31 +4553,31 @@
         <v>0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>317</v>
+        <v>41</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G71" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(D71="ID","",I71)</f>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `UpdateUser` CHAR(36);</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B71&amp;"` CHANGE COLUMN `"&amp;D71&amp;"` `"&amp;D71&amp;"` "&amp;F71&amp;" COMMENT '"&amp;E71&amp;"' ;"</f>
+        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
+        <f>"ALTER TABLE `"&amp;B71&amp;"` ADD COLUMN `"&amp;D71&amp;"` "&amp;F71&amp;";"</f>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `UpdateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4266,31 +4585,31 @@
         <v>0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="G72" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `OrganizationID` CHAR(36);</v>
+        <f>IF(D72="ID","",I72)</f>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `OrganizationID` `OrganizationID` CHAR(36) COMMENT '所在部门' ;</v>
+        <f>"ALTER TABLE `"&amp;B72&amp;"` CHANGE COLUMN `"&amp;D72&amp;"` `"&amp;D72&amp;"` "&amp;F72&amp;" COMMENT '"&amp;E72&amp;"' ;"</f>
+        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `OrganizationID` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B72&amp;"` ADD COLUMN `"&amp;D72&amp;"` "&amp;F72&amp;";"</f>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4298,31 +4617,31 @@
         <v>0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="G73" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `ProjectName` VARCHAR(200);</v>
+        <f>IF(D73="ID","",I73)</f>
+        <v/>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `ProjectName` `ProjectName` VARCHAR(200) COMMENT '项目名称' ;</v>
+        <f>"ALTER TABLE `"&amp;B73&amp;"` CHANGE COLUMN `"&amp;D73&amp;"` `"&amp;D73&amp;"` "&amp;F73&amp;" COMMENT '"&amp;E73&amp;"' ;"</f>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `ProjectName` VARCHAR(200);</v>
+        <f>"ALTER TABLE `"&amp;B73&amp;"` ADD COLUMN `"&amp;D73&amp;"` "&amp;F73&amp;";"</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4330,31 +4649,31 @@
         <v>0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="G74" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `Address` VARCHAR(200);</v>
+        <f>IF(D74="ID","",I74)</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `OrganizationID` CHAR(36);</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `Address` `Address` VARCHAR(200) COMMENT '地址' ;</v>
+        <f>"ALTER TABLE `"&amp;B74&amp;"` CHANGE COLUMN `"&amp;D74&amp;"` `"&amp;D74&amp;"` "&amp;F74&amp;" COMMENT '"&amp;E74&amp;"' ;"</f>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `OrganizationID` `OrganizationID` CHAR(36) COMMENT '所在部门' ;</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `Address` VARCHAR(200);</v>
+        <f>"ALTER TABLE `"&amp;B74&amp;"` ADD COLUMN `"&amp;D74&amp;"` "&amp;F74&amp;";"</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `OrganizationID` CHAR(36);</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4362,31 +4681,31 @@
         <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G75" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `Developer` VARCHAR(200);</v>
+        <f>IF(D75="ID","",I75)</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `ProjectName` VARCHAR(200);</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `Developer` `Developer` VARCHAR(200) COMMENT '开发商' ;</v>
+        <f>"ALTER TABLE `"&amp;B75&amp;"` CHANGE COLUMN `"&amp;D75&amp;"` `"&amp;D75&amp;"` "&amp;F75&amp;" COMMENT '"&amp;E75&amp;"' ;"</f>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `ProjectName` `ProjectName` VARCHAR(200) COMMENT '项目名称' ;</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `Developer` VARCHAR(200);</v>
+        <f>"ALTER TABLE `"&amp;B75&amp;"` ADD COLUMN `"&amp;D75&amp;"` "&amp;F75&amp;";"</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `ProjectName` VARCHAR(200);</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4394,31 +4713,31 @@
         <v>0</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="D76" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G76" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `EpcCorporation` VARCHAR(200);</v>
+        <f>IF(D76="ID","",I76)</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `Address` VARCHAR(200);</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `EpcCorporation` `EpcCorporation` VARCHAR(200) COMMENT '总包单位' ;</v>
+        <f>"ALTER TABLE `"&amp;B76&amp;"` CHANGE COLUMN `"&amp;D76&amp;"` `"&amp;D76&amp;"` "&amp;F76&amp;" COMMENT '"&amp;E76&amp;"' ;"</f>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `Address` `Address` VARCHAR(200) COMMENT '地址' ;</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `EpcCorporation` VARCHAR(200);</v>
+        <f>"ALTER TABLE `"&amp;B76&amp;"` ADD COLUMN `"&amp;D76&amp;"` "&amp;F76&amp;";"</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `Address` VARCHAR(200);</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4426,31 +4745,31 @@
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="G77" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `Variety` VARCHAR(100);</v>
+        <f>IF(D77="ID","",I77)</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `Developer` VARCHAR(200);</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `Variety` `Variety` VARCHAR(100) COMMENT '品种' ;</v>
+        <f>"ALTER TABLE `"&amp;B77&amp;"` CHANGE COLUMN `"&amp;D77&amp;"` `"&amp;D77&amp;"` "&amp;F77&amp;" COMMENT '"&amp;E77&amp;"' ;"</f>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `Developer` `Developer` VARCHAR(200) COMMENT '开发商' ;</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `Variety` VARCHAR(100);</v>
+        <f>"ALTER TABLE `"&amp;B77&amp;"` ADD COLUMN `"&amp;D77&amp;"` "&amp;F77&amp;";"</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `Developer` VARCHAR(200);</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4458,31 +4777,31 @@
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="G78" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `TotalArea` VARCHAR(20);</v>
+        <f>IF(D78="ID","",I78)</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `EpcCorporation` VARCHAR(200);</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `TotalArea` `TotalArea` VARCHAR(20) COMMENT '总面积' ;</v>
+        <f>"ALTER TABLE `"&amp;B78&amp;"` CHANGE COLUMN `"&amp;D78&amp;"` `"&amp;D78&amp;"` "&amp;F78&amp;" COMMENT '"&amp;E78&amp;"' ;"</f>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `EpcCorporation` `EpcCorporation` VARCHAR(200) COMMENT '总包单位' ;</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `TotalArea` VARCHAR(20);</v>
+        <f>"ALTER TABLE `"&amp;B78&amp;"` ADD COLUMN `"&amp;D78&amp;"` "&amp;F78&amp;";"</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `EpcCorporation` VARCHAR(200);</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4490,31 +4809,31 @@
         <v>0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="G79" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `RealName` VARCHAR(20);</v>
+        <f>IF(D79="ID","",I79)</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `Variety` VARCHAR(100);</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `RealName` `RealName` VARCHAR(20) COMMENT '姓名' ;</v>
+        <f>"ALTER TABLE `"&amp;B79&amp;"` CHANGE COLUMN `"&amp;D79&amp;"` `"&amp;D79&amp;"` "&amp;F79&amp;" COMMENT '"&amp;E79&amp;"' ;"</f>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `Variety` `Variety` VARCHAR(100) COMMENT '品种' ;</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `RealName` VARCHAR(20);</v>
+        <f>"ALTER TABLE `"&amp;B79&amp;"` ADD COLUMN `"&amp;D79&amp;"` "&amp;F79&amp;";"</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `Variety` VARCHAR(100);</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4522,31 +4841,31 @@
         <v>0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G80" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `Identification` VARCHAR(20);</v>
+        <f>IF(D80="ID","",I80)</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `TotalArea` VARCHAR(20);</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `Identification` `Identification` VARCHAR(20) COMMENT '身份证号' ;</v>
+        <f>"ALTER TABLE `"&amp;B80&amp;"` CHANGE COLUMN `"&amp;D80&amp;"` `"&amp;D80&amp;"` "&amp;F80&amp;" COMMENT '"&amp;E80&amp;"' ;"</f>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `TotalArea` `TotalArea` VARCHAR(20) COMMENT '总面积' ;</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `Identification` VARCHAR(20);</v>
+        <f>"ALTER TABLE `"&amp;B80&amp;"` ADD COLUMN `"&amp;D80&amp;"` "&amp;F80&amp;";"</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `TotalArea` VARCHAR(20);</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4554,31 +4873,31 @@
         <v>0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="G81" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `Contact` VARCHAR(100);</v>
+        <f>IF(D81="ID","",I81)</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `RealName` VARCHAR(20);</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `Contact` `Contact` VARCHAR(100) COMMENT '联系方式' ;</v>
+        <f>"ALTER TABLE `"&amp;B81&amp;"` CHANGE COLUMN `"&amp;D81&amp;"` `"&amp;D81&amp;"` "&amp;F81&amp;" COMMENT '"&amp;E81&amp;"' ;"</f>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `RealName` `RealName` VARCHAR(20) COMMENT '姓名' ;</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `Contact` VARCHAR(100);</v>
+        <f>"ALTER TABLE `"&amp;B81&amp;"` ADD COLUMN `"&amp;D81&amp;"` "&amp;F81&amp;";"</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `RealName` VARCHAR(20);</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4586,31 +4905,31 @@
         <v>0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="G82" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `Subscriber` CHAR(36);</v>
+        <f>IF(D82="ID","",I82)</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `Identification` VARCHAR(20);</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `Subscriber` `Subscriber` CHAR(36) COMMENT '登记人' ;</v>
+        <f>"ALTER TABLE `"&amp;B82&amp;"` CHANGE COLUMN `"&amp;D82&amp;"` `"&amp;D82&amp;"` "&amp;F82&amp;" COMMENT '"&amp;E82&amp;"' ;"</f>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `Identification` `Identification` VARCHAR(20) COMMENT '身份证号' ;</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `Subscriber` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B82&amp;"` ADD COLUMN `"&amp;D82&amp;"` "&amp;F82&amp;";"</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `Identification` VARCHAR(20);</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4618,31 +4937,31 @@
         <v>0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="G83" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D83="ID","",I83)</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `Contact` VARCHAR(100);</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `Trice` `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '登记时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B83&amp;"` CHANGE COLUMN `"&amp;D83&amp;"` `"&amp;D83&amp;"` "&amp;F83&amp;" COMMENT '"&amp;E83&amp;"' ;"</f>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `Contact` `Contact` VARCHAR(100) COMMENT '联系方式' ;</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B83&amp;"` ADD COLUMN `"&amp;D83&amp;"` "&amp;F83&amp;";"</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `Contact` VARCHAR(100);</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4650,31 +4969,31 @@
         <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G84" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D84="ID","",I84)</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `Subscriber` CHAR(36);</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B84&amp;"` CHANGE COLUMN `"&amp;D84&amp;"` `"&amp;D84&amp;"` "&amp;F84&amp;" COMMENT '"&amp;E84&amp;"' ;"</f>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `Subscriber` `Subscriber` CHAR(36) COMMENT '登记人' ;</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B84&amp;"` ADD COLUMN `"&amp;D84&amp;"` "&amp;F84&amp;";"</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `Subscriber` CHAR(36);</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4682,31 +5001,31 @@
         <v>0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G85" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>IF(D85="ID","",I85)</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B85&amp;"` CHANGE COLUMN `"&amp;D85&amp;"` `"&amp;D85&amp;"` "&amp;F85&amp;" COMMENT '"&amp;E85&amp;"' ;"</f>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `Trice` `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '登记时间' ;</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B85&amp;"` ADD COLUMN `"&amp;D85&amp;"` "&amp;F85&amp;";"</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4714,31 +5033,31 @@
         <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G86" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D86="ID","",I86)</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B86&amp;"` CHANGE COLUMN `"&amp;D86&amp;"` `"&amp;D86&amp;"` "&amp;F86&amp;" COMMENT '"&amp;E86&amp;"' ;"</f>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B86&amp;"` ADD COLUMN `"&amp;D86&amp;"` "&amp;F86&amp;";"</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4746,31 +5065,31 @@
         <v>0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G87" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f>IF(D87="ID","",I87)</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B87&amp;"` CHANGE COLUMN `"&amp;D87&amp;"` `"&amp;D87&amp;"` "&amp;F87&amp;" COMMENT '"&amp;E87&amp;"' ;"</f>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B87&amp;"` ADD COLUMN `"&amp;D87&amp;"` "&amp;F87&amp;";"</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4778,31 +5097,31 @@
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G88" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>IF(D88="ID","",I88)</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
+        <f>"ALTER TABLE `"&amp;B88&amp;"` CHANGE COLUMN `"&amp;D88&amp;"` `"&amp;D88&amp;"` "&amp;F88&amp;" COMMENT '"&amp;E88&amp;"' ;"</f>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>"ALTER TABLE `"&amp;B88&amp;"` ADD COLUMN `"&amp;D88&amp;"` "&amp;F88&amp;";"</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4810,31 +5129,31 @@
         <v>0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>317</v>
+        <v>4</v>
       </c>
       <c r="G89" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(D89="ID","",I89)</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `UpdateUser` CHAR(36);</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B89&amp;"` CHANGE COLUMN `"&amp;D89&amp;"` `"&amp;D89&amp;"` "&amp;F89&amp;" COMMENT '"&amp;E89&amp;"' ;"</f>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
       </c>
       <c r="I89" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
+        <f>"ALTER TABLE `"&amp;B89&amp;"` ADD COLUMN `"&amp;D89&amp;"` "&amp;F89&amp;";"</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `UpdateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4842,31 +5161,31 @@
         <v>0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="G90" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `ProjectID` CHAR(36);</v>
+        <f>IF(D90="ID","",I90)</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
       <c r="H90" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `ProjectID` `ProjectID` CHAR(36) COMMENT '项目ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B90&amp;"` CHANGE COLUMN `"&amp;D90&amp;"` `"&amp;D90&amp;"` "&amp;F90&amp;" COMMENT '"&amp;E90&amp;"' ;"</f>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
       <c r="I90" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `ProjectID` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B90&amp;"` ADD COLUMN `"&amp;D90&amp;"` "&amp;F90&amp;";"</f>
+        <v>ALTER TABLE `t_information` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4874,31 +5193,31 @@
         <v>0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>11</v>
+        <v>316</v>
       </c>
       <c r="G91" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `InvoiceCode` VARCHAR(50);</v>
+        <f>IF(D91="ID","",I91)</f>
+        <v/>
       </c>
       <c r="H91" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `InvoiceCode` `InvoiceCode` VARCHAR(50) COMMENT '发票票号' ;</v>
+        <f>"ALTER TABLE `"&amp;B91&amp;"` CHANGE COLUMN `"&amp;D91&amp;"` `"&amp;D91&amp;"` "&amp;F91&amp;" COMMENT '"&amp;E91&amp;"' ;"</f>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="I91" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `InvoiceCode` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B91&amp;"` ADD COLUMN `"&amp;D91&amp;"` "&amp;F91&amp;";"</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4906,31 +5225,31 @@
         <v>0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G92" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Amount` DECIMAL(20,4);</v>
+        <f>IF(D92="ID","",I92)</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `ProjectID` CHAR(36);</v>
       </c>
       <c r="H92" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `Amount` `Amount` DECIMAL(20,4) COMMENT '发票金额' ;</v>
+        <f>"ALTER TABLE `"&amp;B92&amp;"` CHANGE COLUMN `"&amp;D92&amp;"` `"&amp;D92&amp;"` "&amp;F92&amp;" COMMENT '"&amp;E92&amp;"' ;"</f>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `ProjectID` `ProjectID` CHAR(36) COMMENT '项目ID' ;</v>
       </c>
       <c r="I92" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Amount` DECIMAL(20,4);</v>
+        <f>"ALTER TABLE `"&amp;B92&amp;"` ADD COLUMN `"&amp;D92&amp;"` "&amp;F92&amp;";"</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `ProjectID` CHAR(36);</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4938,31 +5257,31 @@
         <v>0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G93" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D93="ID","",I93)</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `InvoiceCode` VARCHAR(50);</v>
       </c>
       <c r="H93" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `Trice` `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '开票时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B93&amp;"` CHANGE COLUMN `"&amp;D93&amp;"` `"&amp;D93&amp;"` "&amp;F93&amp;" COMMENT '"&amp;E93&amp;"' ;"</f>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `InvoiceCode` `InvoiceCode` VARCHAR(50) COMMENT '发票票号' ;</v>
       </c>
       <c r="I93" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B93&amp;"` ADD COLUMN `"&amp;D93&amp;"` "&amp;F93&amp;";"</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `InvoiceCode` VARCHAR(50);</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4970,31 +5289,31 @@
         <v>0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>167</v>
+        <v>16</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G94" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `TaxRate` DECIMAL(20,4);</v>
+        <f>IF(D94="ID","",I94)</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Amount` DECIMAL(20,4);</v>
       </c>
       <c r="H94" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `TaxRate` `TaxRate` DECIMAL(20,4) COMMENT '税率' ;</v>
+        <f>"ALTER TABLE `"&amp;B94&amp;"` CHANGE COLUMN `"&amp;D94&amp;"` `"&amp;D94&amp;"` "&amp;F94&amp;" COMMENT '"&amp;E94&amp;"' ;"</f>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `Amount` `Amount` DECIMAL(20,4) COMMENT '发票金额' ;</v>
       </c>
       <c r="I94" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `TaxRate` DECIMAL(20,4);</v>
+        <f>"ALTER TABLE `"&amp;B94&amp;"` ADD COLUMN `"&amp;D94&amp;"` "&amp;F94&amp;";"</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Amount` DECIMAL(20,4);</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5002,31 +5321,31 @@
         <v>0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G95" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `TaxAmount` DECIMAL(20,4);</v>
+        <f>IF(D95="ID","",I95)</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H95" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `TaxAmount` `TaxAmount` DECIMAL(20,4) COMMENT '应收税金' ;</v>
+        <f>"ALTER TABLE `"&amp;B95&amp;"` CHANGE COLUMN `"&amp;D95&amp;"` `"&amp;D95&amp;"` "&amp;F95&amp;" COMMENT '"&amp;E95&amp;"' ;"</f>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `Trice` `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '开票时间' ;</v>
       </c>
       <c r="I95" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `TaxAmount` DECIMAL(20,4);</v>
+        <f>"ALTER TABLE `"&amp;B95&amp;"` ADD COLUMN `"&amp;D95&amp;"` "&amp;F95&amp;";"</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5034,31 +5353,31 @@
         <v>0</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D96" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="G96" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Step1Idea` VARCHAR(100);</v>
+        <f>IF(D96="ID","",I96)</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `TaxRate` DECIMAL(20,4);</v>
       </c>
       <c r="H96" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `Step1Idea` `Step1Idea` VARCHAR(100) COMMENT '审核意见' ;</v>
+        <f>"ALTER TABLE `"&amp;B96&amp;"` CHANGE COLUMN `"&amp;D96&amp;"` `"&amp;D96&amp;"` "&amp;F96&amp;" COMMENT '"&amp;E96&amp;"' ;"</f>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `TaxRate` `TaxRate` DECIMAL(20,4) COMMENT '税率' ;</v>
       </c>
       <c r="I96" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Step1Idea` VARCHAR(100);</v>
+        <f>"ALTER TABLE `"&amp;B96&amp;"` ADD COLUMN `"&amp;D96&amp;"` "&amp;F96&amp;";"</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `TaxRate` DECIMAL(20,4);</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5066,31 +5385,31 @@
         <v>0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G97" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Step1User` CHAR(36);</v>
+        <f>IF(D97="ID","",I97)</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `TaxAmount` DECIMAL(20,4);</v>
       </c>
       <c r="H97" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `Step1User` `Step1User` CHAR(36) COMMENT '审核人' ;</v>
+        <f>"ALTER TABLE `"&amp;B97&amp;"` CHANGE COLUMN `"&amp;D97&amp;"` `"&amp;D97&amp;"` "&amp;F97&amp;" COMMENT '"&amp;E97&amp;"' ;"</f>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `TaxAmount` `TaxAmount` DECIMAL(20,4) COMMENT '应收税金' ;</v>
       </c>
       <c r="I97" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Step1User` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B97&amp;"` ADD COLUMN `"&amp;D97&amp;"` "&amp;F97&amp;";"</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `TaxAmount` DECIMAL(20,4);</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5098,31 +5417,31 @@
         <v>0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="G98" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Step1Time` DATETIME(0);</v>
+        <f>IF(D98="ID","",I98)</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Step1Idea` VARCHAR(100);</v>
       </c>
       <c r="H98" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `Step1Time` `Step1Time` DATETIME(0) COMMENT '审核时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B98&amp;"` CHANGE COLUMN `"&amp;D98&amp;"` `"&amp;D98&amp;"` "&amp;F98&amp;" COMMENT '"&amp;E98&amp;"' ;"</f>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `Step1Idea` `Step1Idea` VARCHAR(100) COMMENT '审核意见' ;</v>
       </c>
       <c r="I98" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Step1Time` DATETIME(0);</v>
+        <f>"ALTER TABLE `"&amp;B98&amp;"` ADD COLUMN `"&amp;D98&amp;"` "&amp;F98&amp;";"</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Step1Idea` VARCHAR(100);</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5130,31 +5449,31 @@
         <v>0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="G99" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `StepStatus` VARCHAR(20);</v>
+        <f>IF(D99="ID","",I99)</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Step1User` CHAR(36);</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `StepStatus` `StepStatus` VARCHAR(20) COMMENT '流程状态' ;</v>
+        <f>"ALTER TABLE `"&amp;B99&amp;"` CHANGE COLUMN `"&amp;D99&amp;"` `"&amp;D99&amp;"` "&amp;F99&amp;" COMMENT '"&amp;E99&amp;"' ;"</f>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `Step1User` `Step1User` CHAR(36) COMMENT '审核人' ;</v>
       </c>
       <c r="I99" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `StepStatus` VARCHAR(20);</v>
+        <f>"ALTER TABLE `"&amp;B99&amp;"` ADD COLUMN `"&amp;D99&amp;"` "&amp;F99&amp;";"</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Step1User` CHAR(36);</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5162,31 +5481,31 @@
         <v>0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G100" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D100="ID","",I100)</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Step1Time` DATETIME(0);</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B100&amp;"` CHANGE COLUMN `"&amp;D100&amp;"` `"&amp;D100&amp;"` "&amp;F100&amp;" COMMENT '"&amp;E100&amp;"' ;"</f>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `Step1Time` `Step1Time` DATETIME(0) COMMENT '审核时间' ;</v>
       </c>
       <c r="I100" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B100&amp;"` ADD COLUMN `"&amp;D100&amp;"` "&amp;F100&amp;";"</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Step1Time` DATETIME(0);</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5194,31 +5513,31 @@
         <v>0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="G101" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>IF(D101="ID","",I101)</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `StepStatus` VARCHAR(20);</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B101&amp;"` CHANGE COLUMN `"&amp;D101&amp;"` `"&amp;D101&amp;"` "&amp;F101&amp;" COMMENT '"&amp;E101&amp;"' ;"</f>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `StepStatus` `StepStatus` VARCHAR(20) COMMENT '流程状态' ;</v>
       </c>
       <c r="I101" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B101&amp;"` ADD COLUMN `"&amp;D101&amp;"` "&amp;F101&amp;";"</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `StepStatus` VARCHAR(20);</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5226,31 +5545,31 @@
         <v>0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G102" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D102="ID","",I102)</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B102&amp;"` CHANGE COLUMN `"&amp;D102&amp;"` `"&amp;D102&amp;"` "&amp;F102&amp;" COMMENT '"&amp;E102&amp;"' ;"</f>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
       </c>
       <c r="I102" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B102&amp;"` ADD COLUMN `"&amp;D102&amp;"` "&amp;F102&amp;";"</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5258,31 +5577,31 @@
         <v>0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G103" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f>IF(D103="ID","",I103)</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
       <c r="H103" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B103&amp;"` CHANGE COLUMN `"&amp;D103&amp;"` `"&amp;D103&amp;"` "&amp;F103&amp;" COMMENT '"&amp;E103&amp;"' ;"</f>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
       </c>
       <c r="I103" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B103&amp;"` ADD COLUMN `"&amp;D103&amp;"` "&amp;F103&amp;";"</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5290,31 +5609,31 @@
         <v>0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G104" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>IF(D104="ID","",I104)</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H104" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
+        <f>"ALTER TABLE `"&amp;B104&amp;"` CHANGE COLUMN `"&amp;D104&amp;"` `"&amp;D104&amp;"` "&amp;F104&amp;" COMMENT '"&amp;E104&amp;"' ;"</f>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
       </c>
       <c r="I104" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>"ALTER TABLE `"&amp;B104&amp;"` ADD COLUMN `"&amp;D104&amp;"` "&amp;F104&amp;";"</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5322,31 +5641,31 @@
         <v>0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>317</v>
+        <v>4</v>
       </c>
       <c r="G105" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(D105="ID","",I105)</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `UpdateUser` CHAR(36);</v>
       </c>
       <c r="H105" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B105&amp;"` CHANGE COLUMN `"&amp;D105&amp;"` `"&amp;D105&amp;"` "&amp;F105&amp;" COMMENT '"&amp;E105&amp;"' ;"</f>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
       </c>
       <c r="I105" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
+        <f>"ALTER TABLE `"&amp;B105&amp;"` ADD COLUMN `"&amp;D105&amp;"` "&amp;F105&amp;";"</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `UpdateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5354,31 +5673,31 @@
         <v>0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="G106" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `ProjectID` CHAR(36);</v>
+        <f>IF(D106="ID","",I106)</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
       <c r="H106" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment` CHANGE COLUMN `ProjectID` `ProjectID` CHAR(36) COMMENT '项目ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B106&amp;"` CHANGE COLUMN `"&amp;D106&amp;"` `"&amp;D106&amp;"` "&amp;F106&amp;" COMMENT '"&amp;E106&amp;"' ;"</f>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
       <c r="I106" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `ProjectID` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B106&amp;"` ADD COLUMN `"&amp;D106&amp;"` "&amp;F106&amp;";"</f>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5386,31 +5705,31 @@
         <v>0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>11</v>
+        <v>316</v>
       </c>
       <c r="G107" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `TicketCode` VARCHAR(50);</v>
+        <f>IF(D107="ID","",I107)</f>
+        <v/>
       </c>
       <c r="H107" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment` CHANGE COLUMN `TicketCode` `TicketCode` VARCHAR(50) COMMENT '凭证号' ;</v>
+        <f>"ALTER TABLE `"&amp;B107&amp;"` CHANGE COLUMN `"&amp;D107&amp;"` `"&amp;D107&amp;"` "&amp;F107&amp;" COMMENT '"&amp;E107&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="I107" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `TicketCode` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B107&amp;"` ADD COLUMN `"&amp;D107&amp;"` "&amp;F107&amp;";"</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5418,31 +5737,31 @@
         <v>0</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G108" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `PayType` VARCHAR(50);</v>
+        <f>IF(D108="ID","",I108)</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `ProjectID` CHAR(36);</v>
       </c>
       <c r="H108" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment` CHANGE COLUMN `PayType` `PayType` VARCHAR(50) COMMENT '支付方式' ;</v>
+        <f>"ALTER TABLE `"&amp;B108&amp;"` CHANGE COLUMN `"&amp;D108&amp;"` `"&amp;D108&amp;"` "&amp;F108&amp;" COMMENT '"&amp;E108&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment` CHANGE COLUMN `ProjectID` `ProjectID` CHAR(36) COMMENT '项目ID' ;</v>
       </c>
       <c r="I108" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `PayType` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B108&amp;"` ADD COLUMN `"&amp;D108&amp;"` "&amp;F108&amp;";"</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `ProjectID` CHAR(36);</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5450,31 +5769,31 @@
         <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G109" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `PaymentItemID` CHAR(36);</v>
+        <f>IF(D109="ID","",I109)</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `TicketCode` VARCHAR(50);</v>
       </c>
       <c r="H109" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment` CHANGE COLUMN `PaymentItemID` `PaymentItemID` CHAR(36) COMMENT '付款科目ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B109&amp;"` CHANGE COLUMN `"&amp;D109&amp;"` `"&amp;D109&amp;"` "&amp;F109&amp;" COMMENT '"&amp;E109&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment` CHANGE COLUMN `TicketCode` `TicketCode` VARCHAR(50) COMMENT '凭证号' ;</v>
       </c>
       <c r="I109" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `PaymentItemID` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B109&amp;"` ADD COLUMN `"&amp;D109&amp;"` "&amp;F109&amp;";"</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `TicketCode` VARCHAR(50);</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5482,31 +5801,31 @@
         <v>0</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G110" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `Amount` DECIMAL(20,4);</v>
+        <f>IF(D110="ID","",I110)</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `PayType` VARCHAR(50);</v>
       </c>
       <c r="H110" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment` CHANGE COLUMN `Amount` `Amount` DECIMAL(20,4) COMMENT '付款金额' ;</v>
+        <f>"ALTER TABLE `"&amp;B110&amp;"` CHANGE COLUMN `"&amp;D110&amp;"` `"&amp;D110&amp;"` "&amp;F110&amp;" COMMENT '"&amp;E110&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment` CHANGE COLUMN `PayType` `PayType` VARCHAR(50) COMMENT '支付方式' ;</v>
       </c>
       <c r="I110" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `Amount` DECIMAL(20,4);</v>
+        <f>"ALTER TABLE `"&amp;B110&amp;"` ADD COLUMN `"&amp;D110&amp;"` "&amp;F110&amp;";"</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `PayType` VARCHAR(50);</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5514,31 +5833,31 @@
         <v>0</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D111" s="1" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G111" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `BankAccount` VARCHAR(50);</v>
+        <f>IF(D111="ID","",I111)</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `PaymentItemID` CHAR(36);</v>
       </c>
       <c r="H111" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment` CHANGE COLUMN `BankAccount` `BankAccount` VARCHAR(50) COMMENT '银行账号' ;</v>
+        <f>"ALTER TABLE `"&amp;B111&amp;"` CHANGE COLUMN `"&amp;D111&amp;"` `"&amp;D111&amp;"` "&amp;F111&amp;" COMMENT '"&amp;E111&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment` CHANGE COLUMN `PaymentItemID` `PaymentItemID` CHAR(36) COMMENT '付款科目ID' ;</v>
       </c>
       <c r="I111" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `BankAccount` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B111&amp;"` ADD COLUMN `"&amp;D111&amp;"` "&amp;F111&amp;";"</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `PaymentItemID` CHAR(36);</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5546,31 +5865,31 @@
         <v>0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G112" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `BankName` VARCHAR(200);</v>
+        <f>IF(D112="ID","",I112)</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `Amount` DECIMAL(20,4);</v>
       </c>
       <c r="H112" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment` CHANGE COLUMN `BankName` `BankName` VARCHAR(200) COMMENT '开户行名称' ;</v>
+        <f>"ALTER TABLE `"&amp;B112&amp;"` CHANGE COLUMN `"&amp;D112&amp;"` `"&amp;D112&amp;"` "&amp;F112&amp;" COMMENT '"&amp;E112&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment` CHANGE COLUMN `Amount` `Amount` DECIMAL(20,4) COMMENT '付款金额' ;</v>
       </c>
       <c r="I112" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `BankName` VARCHAR(200);</v>
+        <f>"ALTER TABLE `"&amp;B112&amp;"` ADD COLUMN `"&amp;D112&amp;"` "&amp;F112&amp;";"</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `Amount` DECIMAL(20,4);</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5578,31 +5897,31 @@
         <v>0</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G113" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D113="ID","",I113)</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `BankAccount` VARCHAR(50);</v>
       </c>
       <c r="H113" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment` CHANGE COLUMN `Trice` `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '付款时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B113&amp;"` CHANGE COLUMN `"&amp;D113&amp;"` `"&amp;D113&amp;"` "&amp;F113&amp;" COMMENT '"&amp;E113&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment` CHANGE COLUMN `BankAccount` `BankAccount` VARCHAR(50) COMMENT '银行账号' ;</v>
       </c>
       <c r="I113" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B113&amp;"` ADD COLUMN `"&amp;D113&amp;"` "&amp;F113&amp;";"</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `BankAccount` VARCHAR(50);</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5610,31 +5929,31 @@
         <v>0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G114" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D114="ID","",I114)</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `BankName` VARCHAR(200);</v>
       </c>
       <c r="H114" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B114&amp;"` CHANGE COLUMN `"&amp;D114&amp;"` `"&amp;D114&amp;"` "&amp;F114&amp;" COMMENT '"&amp;E114&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment` CHANGE COLUMN `BankName` `BankName` VARCHAR(200) COMMENT '开户行名称' ;</v>
       </c>
       <c r="I114" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B114&amp;"` ADD COLUMN `"&amp;D114&amp;"` "&amp;F114&amp;";"</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `BankName` VARCHAR(200);</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5642,31 +5961,31 @@
         <v>0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G115" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>IF(D115="ID","",I115)</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H115" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B115&amp;"` CHANGE COLUMN `"&amp;D115&amp;"` `"&amp;D115&amp;"` "&amp;F115&amp;" COMMENT '"&amp;E115&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment` CHANGE COLUMN `Trice` `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '付款时间' ;</v>
       </c>
       <c r="I115" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B115&amp;"` ADD COLUMN `"&amp;D115&amp;"` "&amp;F115&amp;";"</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5674,31 +5993,31 @@
         <v>0</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G116" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D116="ID","",I116)</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H116" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B116&amp;"` CHANGE COLUMN `"&amp;D116&amp;"` `"&amp;D116&amp;"` "&amp;F116&amp;" COMMENT '"&amp;E116&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
       </c>
       <c r="I116" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B116&amp;"` ADD COLUMN `"&amp;D116&amp;"` "&amp;F116&amp;";"</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5706,31 +6025,31 @@
         <v>0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G117" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f>IF(D117="ID","",I117)</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
       <c r="H117" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B117&amp;"` CHANGE COLUMN `"&amp;D117&amp;"` `"&amp;D117&amp;"` "&amp;F117&amp;" COMMENT '"&amp;E117&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
       </c>
       <c r="I117" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B117&amp;"` ADD COLUMN `"&amp;D117&amp;"` "&amp;F117&amp;";"</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5738,31 +6057,31 @@
         <v>0</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G118" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>IF(D118="ID","",I118)</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H118" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
+        <f>"ALTER TABLE `"&amp;B118&amp;"` CHANGE COLUMN `"&amp;D118&amp;"` `"&amp;D118&amp;"` "&amp;F118&amp;" COMMENT '"&amp;E118&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
       </c>
       <c r="I118" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>"ALTER TABLE `"&amp;B118&amp;"` ADD COLUMN `"&amp;D118&amp;"` "&amp;F118&amp;";"</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5770,31 +6089,31 @@
         <v>0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>317</v>
+        <v>4</v>
       </c>
       <c r="G119" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(D119="ID","",I119)</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `UpdateUser` CHAR(36);</v>
       </c>
       <c r="H119" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B119&amp;"` CHANGE COLUMN `"&amp;D119&amp;"` `"&amp;D119&amp;"` "&amp;F119&amp;" COMMENT '"&amp;E119&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
       </c>
       <c r="I119" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment_item` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
+        <f>"ALTER TABLE `"&amp;B119&amp;"` ADD COLUMN `"&amp;D119&amp;"` "&amp;F119&amp;";"</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `UpdateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5802,31 +6121,31 @@
         <v>0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G120" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_payment_item` ADD COLUMN `ItemName` VARCHAR(50);</v>
+        <f>IF(D120="ID","",I120)</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
       <c r="H120" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `ItemName` `ItemName` VARCHAR(50) COMMENT '付款科目名称' ;</v>
+        <f>"ALTER TABLE `"&amp;B120&amp;"` CHANGE COLUMN `"&amp;D120&amp;"` `"&amp;D120&amp;"` "&amp;F120&amp;" COMMENT '"&amp;E120&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
       <c r="I120" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment_item` ADD COLUMN `ItemName` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B120&amp;"` ADD COLUMN `"&amp;D120&amp;"` "&amp;F120&amp;";"</f>
+        <v>ALTER TABLE `t_payment` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5834,31 +6153,31 @@
         <v>0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>185</v>
+        <v>3</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>18</v>
+        <v>316</v>
       </c>
       <c r="G121" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_payment_item` ADD COLUMN `ReimbursementCap` DECIMAL(20,4);</v>
+        <f>IF(D121="ID","",I121)</f>
+        <v/>
       </c>
       <c r="H121" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `ReimbursementCap` `ReimbursementCap` DECIMAL(20,4) COMMENT '报销比例上限' ;</v>
+        <f>"ALTER TABLE `"&amp;B121&amp;"` CHANGE COLUMN `"&amp;D121&amp;"` `"&amp;D121&amp;"` "&amp;F121&amp;" COMMENT '"&amp;E121&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="I121" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment_item` ADD COLUMN `ReimbursementCap` DECIMAL(20,4);</v>
+        <f>"ALTER TABLE `"&amp;B121&amp;"` ADD COLUMN `"&amp;D121&amp;"` "&amp;F121&amp;";"</f>
+        <v>ALTER TABLE `t_payment_item` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5866,31 +6185,31 @@
         <v>0</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D122" s="1" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G122" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_payment_item` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D122="ID","",I122)</f>
+        <v>ALTER TABLE `t_payment_item` ADD COLUMN `ItemName` VARCHAR(50);</v>
       </c>
       <c r="H122" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B122&amp;"` CHANGE COLUMN `"&amp;D122&amp;"` `"&amp;D122&amp;"` "&amp;F122&amp;" COMMENT '"&amp;E122&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `ItemName` `ItemName` VARCHAR(50) COMMENT '付款科目名称' ;</v>
       </c>
       <c r="I122" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment_item` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B122&amp;"` ADD COLUMN `"&amp;D122&amp;"` "&amp;F122&amp;";"</f>
+        <v>ALTER TABLE `t_payment_item` ADD COLUMN `ItemName` VARCHAR(50);</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5898,31 +6217,31 @@
         <v>0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G123" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_payment_item` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>IF(D123="ID","",I123)</f>
+        <v>ALTER TABLE `t_payment_item` ADD COLUMN `ReimbursementCap` DECIMAL(20,4);</v>
       </c>
       <c r="H123" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B123&amp;"` CHANGE COLUMN `"&amp;D123&amp;"` `"&amp;D123&amp;"` "&amp;F123&amp;" COMMENT '"&amp;E123&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `ReimbursementCap` `ReimbursementCap` DECIMAL(20,4) COMMENT '报销比例上限' ;</v>
       </c>
       <c r="I123" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment_item` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B123&amp;"` ADD COLUMN `"&amp;D123&amp;"` "&amp;F123&amp;";"</f>
+        <v>ALTER TABLE `t_payment_item` ADD COLUMN `ReimbursementCap` DECIMAL(20,4);</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5930,31 +6249,31 @@
         <v>0</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G124" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_payment_item` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D124="ID","",I124)</f>
+        <v>ALTER TABLE `t_payment_item` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H124" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B124&amp;"` CHANGE COLUMN `"&amp;D124&amp;"` `"&amp;D124&amp;"` "&amp;F124&amp;" COMMENT '"&amp;E124&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
       </c>
       <c r="I124" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment_item` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B124&amp;"` ADD COLUMN `"&amp;D124&amp;"` "&amp;F124&amp;";"</f>
+        <v>ALTER TABLE `t_payment_item` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5962,31 +6281,31 @@
         <v>0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G125" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_payment_item` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f>IF(D125="ID","",I125)</f>
+        <v>ALTER TABLE `t_payment_item` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
       <c r="H125" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B125&amp;"` CHANGE COLUMN `"&amp;D125&amp;"` `"&amp;D125&amp;"` "&amp;F125&amp;" COMMENT '"&amp;E125&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
       </c>
       <c r="I125" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment_item` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B125&amp;"` ADD COLUMN `"&amp;D125&amp;"` "&amp;F125&amp;";"</f>
+        <v>ALTER TABLE `t_payment_item` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5994,31 +6313,31 @@
         <v>0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G126" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_payment_item` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>IF(D126="ID","",I126)</f>
+        <v>ALTER TABLE `t_payment_item` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H126" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
+        <f>"ALTER TABLE `"&amp;B126&amp;"` CHANGE COLUMN `"&amp;D126&amp;"` `"&amp;D126&amp;"` "&amp;F126&amp;" COMMENT '"&amp;E126&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
       </c>
       <c r="I126" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_payment_item` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>"ALTER TABLE `"&amp;B126&amp;"` ADD COLUMN `"&amp;D126&amp;"` "&amp;F126&amp;";"</f>
+        <v>ALTER TABLE `t_payment_item` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6026,31 +6345,31 @@
         <v>0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>317</v>
+        <v>4</v>
       </c>
       <c r="G127" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(D127="ID","",I127)</f>
+        <v>ALTER TABLE `t_payment_item` ADD COLUMN `UpdateUser` CHAR(36);</v>
       </c>
       <c r="H127" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_profile` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B127&amp;"` CHANGE COLUMN `"&amp;D127&amp;"` `"&amp;D127&amp;"` "&amp;F127&amp;" COMMENT '"&amp;E127&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
       </c>
       <c r="I127" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
+        <f>"ALTER TABLE `"&amp;B127&amp;"` ADD COLUMN `"&amp;D127&amp;"` "&amp;F127&amp;";"</f>
+        <v>ALTER TABLE `t_payment_item` ADD COLUMN `UpdateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6058,31 +6377,31 @@
         <v>0</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="G128" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `ProjectID` CHAR(36);</v>
+        <f>IF(D128="ID","",I128)</f>
+        <v>ALTER TABLE `t_payment_item` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
       <c r="H128" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_profile` CHANGE COLUMN `ProjectID` `ProjectID` CHAR(36) COMMENT '项目ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B128&amp;"` CHANGE COLUMN `"&amp;D128&amp;"` `"&amp;D128&amp;"` "&amp;F128&amp;" COMMENT '"&amp;E128&amp;"' ;"</f>
+        <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
       <c r="I128" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `ProjectID` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B128&amp;"` ADD COLUMN `"&amp;D128&amp;"` "&amp;F128&amp;";"</f>
+        <v>ALTER TABLE `t_payment_item` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6090,31 +6409,31 @@
         <v>0</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>189</v>
+        <v>3</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>190</v>
+        <v>3</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>18</v>
+        <v>316</v>
       </c>
       <c r="G129" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `ExpectedValue` DECIMAL(20,4);</v>
+        <f>IF(D129="ID","",I129)</f>
+        <v/>
       </c>
       <c r="H129" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_profile` CHANGE COLUMN `ExpectedValue` `ExpectedValue` DECIMAL(20,4) COMMENT '预计用量' ;</v>
+        <f>"ALTER TABLE `"&amp;B129&amp;"` CHANGE COLUMN `"&amp;D129&amp;"` `"&amp;D129&amp;"` "&amp;F129&amp;" COMMENT '"&amp;E129&amp;"' ;"</f>
+        <v>ALTER TABLE `t_profile` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="I129" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `ExpectedValue` DECIMAL(20,4);</v>
+        <f>"ALTER TABLE `"&amp;B129&amp;"` ADD COLUMN `"&amp;D129&amp;"` "&amp;F129&amp;";"</f>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6122,31 +6441,31 @@
         <v>0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>193</v>
+        <v>7</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="G130" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `ProfilePoint` VARCHAR(100);</v>
+        <f>IF(D130="ID","",I130)</f>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `ProjectID` CHAR(36);</v>
       </c>
       <c r="H130" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_profile` CHANGE COLUMN `ProfilePoint` `ProfilePoint` VARCHAR(100) COMMENT '型材点' ;</v>
+        <f>"ALTER TABLE `"&amp;B130&amp;"` CHANGE COLUMN `"&amp;D130&amp;"` `"&amp;D130&amp;"` "&amp;F130&amp;" COMMENT '"&amp;E130&amp;"' ;"</f>
+        <v>ALTER TABLE `t_profile` CHANGE COLUMN `ProjectID` `ProjectID` CHAR(36) COMMENT '项目ID' ;</v>
       </c>
       <c r="I130" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `ProfilePoint` VARCHAR(100);</v>
+        <f>"ALTER TABLE `"&amp;B130&amp;"` ADD COLUMN `"&amp;D130&amp;"` "&amp;F130&amp;";"</f>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `ProjectID` CHAR(36);</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6154,31 +6473,31 @@
         <v>0</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D131" s="1" t="s">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G131" s="8" t="str">
-        <f t="shared" ref="G131:G194" si="6">IF(D131="ID","",I131)</f>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D131="ID","",I131)</f>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `ExpectedValue` DECIMAL(20,4);</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" ref="H131:H194" si="7">"ALTER TABLE `"&amp;B131&amp;"` CHANGE COLUMN `"&amp;D131&amp;"` `"&amp;D131&amp;"` "&amp;F131&amp;" COMMENT '"&amp;E131&amp;"' ;"</f>
-        <v>ALTER TABLE `t_profile` CHANGE COLUMN `Trice` `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '登记时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B131&amp;"` CHANGE COLUMN `"&amp;D131&amp;"` `"&amp;D131&amp;"` "&amp;F131&amp;" COMMENT '"&amp;E131&amp;"' ;"</f>
+        <v>ALTER TABLE `t_profile` CHANGE COLUMN `ExpectedValue` `ExpectedValue` DECIMAL(20,4) COMMENT '预计用量' ;</v>
       </c>
       <c r="I131" t="str">
-        <f t="shared" ref="I131:I194" si="8">"ALTER TABLE `"&amp;B131&amp;"` ADD COLUMN `"&amp;D131&amp;"` "&amp;F131&amp;";"</f>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B131&amp;"` ADD COLUMN `"&amp;D131&amp;"` "&amp;F131&amp;";"</f>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `ExpectedValue` DECIMAL(20,4);</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6186,31 +6505,31 @@
         <v>0</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="G132" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D132="ID","",I132)</f>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `ProfilePoint` VARCHAR(100);</v>
       </c>
       <c r="H132" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_profile` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B132&amp;"` CHANGE COLUMN `"&amp;D132&amp;"` `"&amp;D132&amp;"` "&amp;F132&amp;" COMMENT '"&amp;E132&amp;"' ;"</f>
+        <v>ALTER TABLE `t_profile` CHANGE COLUMN `ProfilePoint` `ProfilePoint` VARCHAR(100) COMMENT '型材点' ;</v>
       </c>
       <c r="I132" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B132&amp;"` ADD COLUMN `"&amp;D132&amp;"` "&amp;F132&amp;";"</f>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `ProfilePoint` VARCHAR(100);</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6218,31 +6537,31 @@
         <v>0</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G133" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>IF(D133="ID","",I133)</f>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H133" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_profile` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B133&amp;"` CHANGE COLUMN `"&amp;D133&amp;"` `"&amp;D133&amp;"` "&amp;F133&amp;" COMMENT '"&amp;E133&amp;"' ;"</f>
+        <v>ALTER TABLE `t_profile` CHANGE COLUMN `Trice` `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '登记时间' ;</v>
       </c>
       <c r="I133" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B133&amp;"` ADD COLUMN `"&amp;D133&amp;"` "&amp;F133&amp;";"</f>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6250,31 +6569,31 @@
         <v>0</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G134" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D134="ID","",I134)</f>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H134" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_profile` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B134&amp;"` CHANGE COLUMN `"&amp;D134&amp;"` `"&amp;D134&amp;"` "&amp;F134&amp;" COMMENT '"&amp;E134&amp;"' ;"</f>
+        <v>ALTER TABLE `t_profile` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
       </c>
       <c r="I134" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B134&amp;"` ADD COLUMN `"&amp;D134&amp;"` "&amp;F134&amp;";"</f>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6282,31 +6601,31 @@
         <v>0</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G135" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f>IF(D135="ID","",I135)</f>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
       <c r="H135" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_profile` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B135&amp;"` CHANGE COLUMN `"&amp;D135&amp;"` `"&amp;D135&amp;"` "&amp;F135&amp;" COMMENT '"&amp;E135&amp;"' ;"</f>
+        <v>ALTER TABLE `t_profile` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
       </c>
       <c r="I135" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B135&amp;"` ADD COLUMN `"&amp;D135&amp;"` "&amp;F135&amp;";"</f>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6314,31 +6633,31 @@
         <v>0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G136" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>IF(D136="ID","",I136)</f>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H136" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_profile` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
+        <f>"ALTER TABLE `"&amp;B136&amp;"` CHANGE COLUMN `"&amp;D136&amp;"` `"&amp;D136&amp;"` "&amp;F136&amp;" COMMENT '"&amp;E136&amp;"' ;"</f>
+        <v>ALTER TABLE `t_profile` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
       </c>
       <c r="I136" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>"ALTER TABLE `"&amp;B136&amp;"` ADD COLUMN `"&amp;D136&amp;"` "&amp;F136&amp;";"</f>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6346,31 +6665,31 @@
         <v>0</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>317</v>
+        <v>41</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G137" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f>IF(D137="ID","",I137)</f>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `UpdateUser` CHAR(36);</v>
       </c>
       <c r="H137" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B137&amp;"` CHANGE COLUMN `"&amp;D137&amp;"` `"&amp;D137&amp;"` "&amp;F137&amp;" COMMENT '"&amp;E137&amp;"' ;"</f>
+        <v>ALTER TABLE `t_profile` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
       </c>
       <c r="I137" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
+        <f>"ALTER TABLE `"&amp;B137&amp;"` ADD COLUMN `"&amp;D137&amp;"` "&amp;F137&amp;";"</f>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `UpdateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6378,31 +6697,31 @@
         <v>0</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G138" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `ProjectCode` VARCHAR(50);</v>
+        <f>IF(D138="ID","",I138)</f>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
       <c r="H138" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `ProjectCode` `ProjectCode` VARCHAR(50) COMMENT '项目编号' ;</v>
+        <f>"ALTER TABLE `"&amp;B138&amp;"` CHANGE COLUMN `"&amp;D138&amp;"` `"&amp;D138&amp;"` "&amp;F138&amp;" COMMENT '"&amp;E138&amp;"' ;"</f>
+        <v>ALTER TABLE `t_profile` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
       <c r="I138" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `ProjectCode` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B138&amp;"` ADD COLUMN `"&amp;D138&amp;"` "&amp;F138&amp;";"</f>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6410,31 +6729,31 @@
         <v>0</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>148</v>
+        <v>3</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="G139" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `ProjectName` VARCHAR(100);</v>
+        <f>IF(D139="ID","",I139)</f>
+        <v/>
       </c>
       <c r="H139" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `ProjectName` `ProjectName` VARCHAR(100) COMMENT '项目名称' ;</v>
+        <f>"ALTER TABLE `"&amp;B139&amp;"` CHANGE COLUMN `"&amp;D139&amp;"` `"&amp;D139&amp;"` "&amp;F139&amp;" COMMENT '"&amp;E139&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="I139" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `ProjectName` VARCHAR(100);</v>
+        <f>"ALTER TABLE `"&amp;B139&amp;"` ADD COLUMN `"&amp;D139&amp;"` "&amp;F139&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6442,31 +6761,31 @@
         <v>0</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>4</v>
+        <v>51</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G140" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `OrganizationID` CHAR(36);</v>
+        <f>IF(D140="ID","",I140)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `ProjectCode` VARCHAR(50);</v>
       </c>
       <c r="H140" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `OrganizationID` `OrganizationID` CHAR(36) COMMENT '所在部门' ;</v>
+        <f>"ALTER TABLE `"&amp;B140&amp;"` CHANGE COLUMN `"&amp;D140&amp;"` `"&amp;D140&amp;"` "&amp;F140&amp;" COMMENT '"&amp;E140&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `ProjectCode` `ProjectCode` VARCHAR(50) COMMENT '项目编号' ;</v>
       </c>
       <c r="I140" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `OrganizationID` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B140&amp;"` ADD COLUMN `"&amp;D140&amp;"` "&amp;F140&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `ProjectCode` VARCHAR(50);</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6474,31 +6793,31 @@
         <v>0</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G141" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `PartyName` VARCHAR(100);</v>
+        <f>IF(D141="ID","",I141)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `ProjectName` VARCHAR(100);</v>
       </c>
       <c r="H141" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `PartyName` `PartyName` VARCHAR(100) COMMENT '甲方名称' ;</v>
+        <f>"ALTER TABLE `"&amp;B141&amp;"` CHANGE COLUMN `"&amp;D141&amp;"` `"&amp;D141&amp;"` "&amp;F141&amp;" COMMENT '"&amp;E141&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `ProjectName` `ProjectName` VARCHAR(100) COMMENT '项目名称' ;</v>
       </c>
       <c r="I141" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `PartyName` VARCHAR(100);</v>
+        <f>"ALTER TABLE `"&amp;B141&amp;"` ADD COLUMN `"&amp;D141&amp;"` "&amp;F141&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `ProjectName` VARCHAR(100);</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6506,31 +6825,31 @@
         <v>0</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>25</v>
+        <v>71</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="G142" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `PartyAddress` VARCHAR(200);</v>
+        <f>IF(D142="ID","",I142)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `OrganizationID` CHAR(36);</v>
       </c>
       <c r="H142" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `PartyAddress` `PartyAddress` VARCHAR(200) COMMENT '甲方地址' ;</v>
+        <f>"ALTER TABLE `"&amp;B142&amp;"` CHANGE COLUMN `"&amp;D142&amp;"` `"&amp;D142&amp;"` "&amp;F142&amp;" COMMENT '"&amp;E142&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `OrganizationID` `OrganizationID` CHAR(36) COMMENT '所在部门' ;</v>
       </c>
       <c r="I142" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `PartyAddress` VARCHAR(200);</v>
+        <f>"ALTER TABLE `"&amp;B142&amp;"` ADD COLUMN `"&amp;D142&amp;"` "&amp;F142&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `OrganizationID` CHAR(36);</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6538,31 +6857,31 @@
         <v>0</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D143" s="1" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="G143" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `Manager` VARCHAR(50);</v>
+        <f>IF(D143="ID","",I143)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `PartyName` VARCHAR(100);</v>
       </c>
       <c r="H143" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `Manager` `Manager` VARCHAR(50) COMMENT '项目经理' ;</v>
+        <f>"ALTER TABLE `"&amp;B143&amp;"` CHANGE COLUMN `"&amp;D143&amp;"` `"&amp;D143&amp;"` "&amp;F143&amp;" COMMENT '"&amp;E143&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `PartyName` `PartyName` VARCHAR(100) COMMENT '甲方名称' ;</v>
       </c>
       <c r="I143" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `Manager` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B143&amp;"` ADD COLUMN `"&amp;D143&amp;"` "&amp;F143&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `PartyName` VARCHAR(100);</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6570,31 +6889,31 @@
         <v>0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G144" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `ContractCode` VARCHAR(50);</v>
+        <f>IF(D144="ID","",I144)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `PartyAddress` VARCHAR(200);</v>
       </c>
       <c r="H144" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `ContractCode` `ContractCode` VARCHAR(50) COMMENT '合同号' ;</v>
+        <f>"ALTER TABLE `"&amp;B144&amp;"` CHANGE COLUMN `"&amp;D144&amp;"` `"&amp;D144&amp;"` "&amp;F144&amp;" COMMENT '"&amp;E144&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `PartyAddress` `PartyAddress` VARCHAR(200) COMMENT '甲方地址' ;</v>
       </c>
       <c r="I144" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `ContractCode` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B144&amp;"` ADD COLUMN `"&amp;D144&amp;"` "&amp;F144&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `PartyAddress` VARCHAR(200);</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6602,31 +6921,31 @@
         <v>0</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>205</v>
+        <v>57</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="G145" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `Cooperation` VARCHAR(100);</v>
+        <f>IF(D145="ID","",I145)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `Manager` VARCHAR(50);</v>
       </c>
       <c r="H145" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `Cooperation` `Cooperation` VARCHAR(100) COMMENT '合作单位' ;</v>
+        <f>"ALTER TABLE `"&amp;B145&amp;"` CHANGE COLUMN `"&amp;D145&amp;"` `"&amp;D145&amp;"` "&amp;F145&amp;" COMMENT '"&amp;E145&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `Manager` `Manager` VARCHAR(50) COMMENT '项目经理' ;</v>
       </c>
       <c r="I145" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `Cooperation` VARCHAR(100);</v>
+        <f>"ALTER TABLE `"&amp;B145&amp;"` ADD COLUMN `"&amp;D145&amp;"` "&amp;F145&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `Manager` VARCHAR(50);</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6634,31 +6953,31 @@
         <v>0</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G146" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `LegalAssignee` VARCHAR(50);</v>
+        <f>IF(D146="ID","",I146)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `ContractCode` VARCHAR(50);</v>
       </c>
       <c r="H146" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `LegalAssignee` `LegalAssignee` VARCHAR(50) COMMENT '法人代表' ;</v>
+        <f>"ALTER TABLE `"&amp;B146&amp;"` CHANGE COLUMN `"&amp;D146&amp;"` `"&amp;D146&amp;"` "&amp;F146&amp;" COMMENT '"&amp;E146&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `ContractCode` `ContractCode` VARCHAR(50) COMMENT '合同号' ;</v>
       </c>
       <c r="I146" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `LegalAssignee` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B146&amp;"` ADD COLUMN `"&amp;D146&amp;"` "&amp;F146&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `ContractCode` VARCHAR(50);</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6666,31 +6985,31 @@
         <v>0</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="G147" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `ISWithholdingOffsite` TINYINT;</v>
+        <f>IF(D147="ID","",I147)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `Cooperation` VARCHAR(100);</v>
       </c>
       <c r="H147" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `ISWithholdingOffsite` `ISWithholdingOffsite` TINYINT COMMENT '异地代扣代缴' ;</v>
+        <f>"ALTER TABLE `"&amp;B147&amp;"` CHANGE COLUMN `"&amp;D147&amp;"` `"&amp;D147&amp;"` "&amp;F147&amp;" COMMENT '"&amp;E147&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `Cooperation` `Cooperation` VARCHAR(100) COMMENT '合作单位' ;</v>
       </c>
       <c r="I147" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `ISWithholdingOffsite` TINYINT;</v>
+        <f>"ALTER TABLE `"&amp;B147&amp;"` ADD COLUMN `"&amp;D147&amp;"` "&amp;F147&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `Cooperation` VARCHAR(100);</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6698,31 +7017,31 @@
         <v>0</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>121</v>
+        <v>208</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G148" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `ManagementRate` DECIMAL(20,4);</v>
+        <f>IF(D148="ID","",I148)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `LegalAssignee` VARCHAR(50);</v>
       </c>
       <c r="H148" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `ManagementRate` `ManagementRate` DECIMAL(20,4) COMMENT '管理费率' ;</v>
+        <f>"ALTER TABLE `"&amp;B148&amp;"` CHANGE COLUMN `"&amp;D148&amp;"` `"&amp;D148&amp;"` "&amp;F148&amp;" COMMENT '"&amp;E148&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `LegalAssignee` `LegalAssignee` VARCHAR(50) COMMENT '法人代表' ;</v>
       </c>
       <c r="I148" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `ManagementRate` DECIMAL(20,4);</v>
+        <f>"ALTER TABLE `"&amp;B148&amp;"` ADD COLUMN `"&amp;D148&amp;"` "&amp;F148&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `LegalAssignee` VARCHAR(50);</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6730,31 +7049,31 @@
         <v>0</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="G149" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `TaxRate` DECIMAL(20,4);</v>
+        <f>IF(D149="ID","",I149)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `ISWithholdingOffsite` TINYINT;</v>
       </c>
       <c r="H149" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `TaxRate` `TaxRate` DECIMAL(20,4) COMMENT '税金比率' ;</v>
+        <f>"ALTER TABLE `"&amp;B149&amp;"` CHANGE COLUMN `"&amp;D149&amp;"` `"&amp;D149&amp;"` "&amp;F149&amp;" COMMENT '"&amp;E149&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `ISWithholdingOffsite` `ISWithholdingOffsite` TINYINT COMMENT '异地代扣代缴' ;</v>
       </c>
       <c r="I149" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `TaxRate` DECIMAL(20,4);</v>
+        <f>"ALTER TABLE `"&amp;B149&amp;"` ADD COLUMN `"&amp;D149&amp;"` "&amp;F149&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `ISWithholdingOffsite` TINYINT;</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6762,31 +7081,31 @@
         <v>0</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G150" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `ContractAmount` DECIMAL(20,4);</v>
+        <f>IF(D150="ID","",I150)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `ManagementRate` DECIMAL(20,4);</v>
       </c>
       <c r="H150" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `ContractAmount` `ContractAmount` DECIMAL(20,4) COMMENT '合同金额' ;</v>
+        <f>"ALTER TABLE `"&amp;B150&amp;"` CHANGE COLUMN `"&amp;D150&amp;"` `"&amp;D150&amp;"` "&amp;F150&amp;" COMMENT '"&amp;E150&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `ManagementRate` `ManagementRate` DECIMAL(20,4) COMMENT '管理费率' ;</v>
       </c>
       <c r="I150" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `ContractAmount` DECIMAL(20,4);</v>
+        <f>"ALTER TABLE `"&amp;B150&amp;"` ADD COLUMN `"&amp;D150&amp;"` "&amp;F150&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `ManagementRate` DECIMAL(20,4);</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6794,31 +7113,31 @@
         <v>0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G151" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `SettlementAmount` DECIMAL(20,4);</v>
+        <f>IF(D151="ID","",I151)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `TaxRate` DECIMAL(20,4);</v>
       </c>
       <c r="H151" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `SettlementAmount` `SettlementAmount` DECIMAL(20,4) COMMENT '结算金额' ;</v>
+        <f>"ALTER TABLE `"&amp;B151&amp;"` CHANGE COLUMN `"&amp;D151&amp;"` `"&amp;D151&amp;"` "&amp;F151&amp;" COMMENT '"&amp;E151&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `TaxRate` `TaxRate` DECIMAL(20,4) COMMENT '税金比率' ;</v>
       </c>
       <c r="I151" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `SettlementAmount` DECIMAL(20,4);</v>
+        <f>"ALTER TABLE `"&amp;B151&amp;"` ADD COLUMN `"&amp;D151&amp;"` "&amp;F151&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `TaxRate` DECIMAL(20,4);</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6826,31 +7145,31 @@
         <v>0</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="G152" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `DutyPaidTime` DATETIME(0);</v>
+        <f>IF(D152="ID","",I152)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `ContractAmount` DECIMAL(20,4);</v>
       </c>
       <c r="H152" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `DutyPaidTime` `DutyPaidTime` DATETIME(0) COMMENT '印花税上交时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B152&amp;"` CHANGE COLUMN `"&amp;D152&amp;"` `"&amp;D152&amp;"` "&amp;F152&amp;" COMMENT '"&amp;E152&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `ContractAmount` `ContractAmount` DECIMAL(20,4) COMMENT '合同金额' ;</v>
       </c>
       <c r="I152" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `DutyPaidTime` DATETIME(0);</v>
+        <f>"ALTER TABLE `"&amp;B152&amp;"` ADD COLUMN `"&amp;D152&amp;"` "&amp;F152&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `ContractAmount` DECIMAL(20,4);</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6858,31 +7177,31 @@
         <v>0</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G153" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `DutyPaidAmount` DECIMAL(20,4);</v>
+        <f>IF(D153="ID","",I153)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `SettlementAmount` DECIMAL(20,4);</v>
       </c>
       <c r="H153" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `DutyPaidAmount` `DutyPaidAmount` DECIMAL(20,4) COMMENT '印花税上交金额' ;</v>
+        <f>"ALTER TABLE `"&amp;B153&amp;"` CHANGE COLUMN `"&amp;D153&amp;"` `"&amp;D153&amp;"` "&amp;F153&amp;" COMMENT '"&amp;E153&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `SettlementAmount` `SettlementAmount` DECIMAL(20,4) COMMENT '结算金额' ;</v>
       </c>
       <c r="I153" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `DutyPaidAmount` DECIMAL(20,4);</v>
+        <f>"ALTER TABLE `"&amp;B153&amp;"` ADD COLUMN `"&amp;D153&amp;"` "&amp;F153&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `SettlementAmount` DECIMAL(20,4);</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6890,31 +7209,31 @@
         <v>0</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G154" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `DutyPaidCode` VARCHAR(50);</v>
+        <f>IF(D154="ID","",I154)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `DutyPaidTime` DATETIME(0);</v>
       </c>
       <c r="H154" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `DutyPaidCode` `DutyPaidCode` VARCHAR(50) COMMENT '印花税收据编号' ;</v>
+        <f>"ALTER TABLE `"&amp;B154&amp;"` CHANGE COLUMN `"&amp;D154&amp;"` `"&amp;D154&amp;"` "&amp;F154&amp;" COMMENT '"&amp;E154&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `DutyPaidTime` `DutyPaidTime` DATETIME(0) COMMENT '印花税上交时间' ;</v>
       </c>
       <c r="I154" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `DutyPaidCode` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B154&amp;"` ADD COLUMN `"&amp;D154&amp;"` "&amp;F154&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `DutyPaidTime` DATETIME(0);</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6922,31 +7241,31 @@
         <v>0</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>232</v>
+        <v>224</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G155" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `CapitalOccupied` DECIMAL(20,4);</v>
+        <f>IF(D155="ID","",I155)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `DutyPaidAmount` DECIMAL(20,4);</v>
       </c>
       <c r="H155" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `CapitalOccupied` `CapitalOccupied` DECIMAL(20,4) COMMENT '占用资金情况' ;</v>
+        <f>"ALTER TABLE `"&amp;B155&amp;"` CHANGE COLUMN `"&amp;D155&amp;"` `"&amp;D155&amp;"` "&amp;F155&amp;" COMMENT '"&amp;E155&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `DutyPaidAmount` `DutyPaidAmount` DECIMAL(20,4) COMMENT '印花税上交金额' ;</v>
       </c>
       <c r="I155" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `CapitalOccupied` DECIMAL(20,4);</v>
+        <f>"ALTER TABLE `"&amp;B155&amp;"` ADD COLUMN `"&amp;D155&amp;"` "&amp;F155&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `DutyPaidAmount` DECIMAL(20,4);</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6954,31 +7273,31 @@
         <v>0</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="G156" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `ProjectStatus` TINYINT;</v>
+        <f>IF(D156="ID","",I156)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `DutyPaidCode` VARCHAR(50);</v>
       </c>
       <c r="H156" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `ProjectStatus` `ProjectStatus` TINYINT COMMENT '项目状态' ;</v>
+        <f>"ALTER TABLE `"&amp;B156&amp;"` CHANGE COLUMN `"&amp;D156&amp;"` `"&amp;D156&amp;"` "&amp;F156&amp;" COMMENT '"&amp;E156&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `DutyPaidCode` `DutyPaidCode` VARCHAR(50) COMMENT '印花税收据编号' ;</v>
       </c>
       <c r="I156" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `ProjectStatus` TINYINT;</v>
+        <f>"ALTER TABLE `"&amp;B156&amp;"` ADD COLUMN `"&amp;D156&amp;"` "&amp;F156&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `DutyPaidCode` VARCHAR(50);</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6986,31 +7305,31 @@
         <v>0</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>28</v>
+        <v>230</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G157" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D157="ID","",I157)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `CapitalOccupied` DECIMAL(20,4);</v>
       </c>
       <c r="H157" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `Trice` `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '登记时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B157&amp;"` CHANGE COLUMN `"&amp;D157&amp;"` `"&amp;D157&amp;"` "&amp;F157&amp;" COMMENT '"&amp;E157&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `CapitalOccupied` `CapitalOccupied` DECIMAL(20,4) COMMENT '占用资金情况' ;</v>
       </c>
       <c r="I157" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B157&amp;"` ADD COLUMN `"&amp;D157&amp;"` "&amp;F157&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `CapitalOccupied` DECIMAL(20,4);</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7018,31 +7337,31 @@
         <v>0</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>31</v>
+        <v>233</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="G158" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D158="ID","",I158)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `ProjectStatus` TINYINT;</v>
       </c>
       <c r="H158" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B158&amp;"` CHANGE COLUMN `"&amp;D158&amp;"` `"&amp;D158&amp;"` "&amp;F158&amp;" COMMENT '"&amp;E158&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `ProjectStatus` `ProjectStatus` TINYINT COMMENT '项目状态' ;</v>
       </c>
       <c r="I158" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B158&amp;"` ADD COLUMN `"&amp;D158&amp;"` "&amp;F158&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `ProjectStatus` TINYINT;</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7050,31 +7369,31 @@
         <v>0</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G159" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>IF(D159="ID","",I159)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H159" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B159&amp;"` CHANGE COLUMN `"&amp;D159&amp;"` `"&amp;D159&amp;"` "&amp;F159&amp;" COMMENT '"&amp;E159&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `Trice` `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '登记时间' ;</v>
       </c>
       <c r="I159" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B159&amp;"` ADD COLUMN `"&amp;D159&amp;"` "&amp;F159&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `Trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7082,31 +7401,31 @@
         <v>0</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G160" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D160="ID","",I160)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H160" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B160&amp;"` CHANGE COLUMN `"&amp;D160&amp;"` `"&amp;D160&amp;"` "&amp;F160&amp;" COMMENT '"&amp;E160&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
       </c>
       <c r="I160" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B160&amp;"` ADD COLUMN `"&amp;D160&amp;"` "&amp;F160&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7114,31 +7433,31 @@
         <v>0</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G161" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f>IF(D161="ID","",I161)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
       <c r="H161" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B161&amp;"` CHANGE COLUMN `"&amp;D161&amp;"` `"&amp;D161&amp;"` "&amp;F161&amp;" COMMENT '"&amp;E161&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
       </c>
       <c r="I161" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B161&amp;"` ADD COLUMN `"&amp;D161&amp;"` "&amp;F161&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7146,31 +7465,31 @@
         <v>0</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G162" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>IF(D162="ID","",I162)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H162" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
+        <f>"ALTER TABLE `"&amp;B162&amp;"` CHANGE COLUMN `"&amp;D162&amp;"` `"&amp;D162&amp;"` "&amp;F162&amp;" COMMENT '"&amp;E162&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
       </c>
       <c r="I162" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>"ALTER TABLE `"&amp;B162&amp;"` ADD COLUMN `"&amp;D162&amp;"` "&amp;F162&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7178,31 +7497,31 @@
         <v>0</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F163" s="5" t="s">
-        <v>317</v>
+        <v>41</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G163" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f>IF(D163="ID","",I163)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `UpdateUser` CHAR(36);</v>
       </c>
       <c r="H163" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_authorization` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B163&amp;"` CHANGE COLUMN `"&amp;D163&amp;"` `"&amp;D163&amp;"` "&amp;F163&amp;" COMMENT '"&amp;E163&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
       </c>
       <c r="I163" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
+        <f>"ALTER TABLE `"&amp;B163&amp;"` ADD COLUMN `"&amp;D163&amp;"` "&amp;F163&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `UpdateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7210,31 +7529,31 @@
         <v>0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>238</v>
+        <v>43</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="G164" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `ResourceID` CHAR(36);</v>
+        <f>IF(D164="ID","",I164)</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
       <c r="H164" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_authorization` CHANGE COLUMN `ResourceID` `ResourceID` CHAR(36) COMMENT '资源ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B164&amp;"` CHANGE COLUMN `"&amp;D164&amp;"` `"&amp;D164&amp;"` "&amp;F164&amp;" COMMENT '"&amp;E164&amp;"' ;"</f>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
       <c r="I164" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `ResourceID` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B164&amp;"` ADD COLUMN `"&amp;D164&amp;"` "&amp;F164&amp;";"</f>
+        <v>ALTER TABLE `t_project` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7242,31 +7561,31 @@
         <v>0</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>241</v>
+        <v>3</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>242</v>
+        <v>3</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>4</v>
+        <v>316</v>
       </c>
       <c r="G165" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `UserID` CHAR(36);</v>
+        <f>IF(D165="ID","",I165)</f>
+        <v/>
       </c>
       <c r="H165" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_authorization` CHANGE COLUMN `UserID` `UserID` CHAR(36) COMMENT '用户ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B165&amp;"` CHANGE COLUMN `"&amp;D165&amp;"` `"&amp;D165&amp;"` "&amp;F165&amp;" COMMENT '"&amp;E165&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_authorization` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="I165" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `UserID` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B165&amp;"` ADD COLUMN `"&amp;D165&amp;"` "&amp;F165&amp;";"</f>
+        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7274,31 +7593,31 @@
         <v>0</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D166" s="1" t="s">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>29</v>
+        <v>238</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="G166" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D166="ID","",I166)</f>
+        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `ResourceID` CHAR(36);</v>
       </c>
       <c r="H166" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_authorization` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B166&amp;"` CHANGE COLUMN `"&amp;D166&amp;"` `"&amp;D166&amp;"` "&amp;F166&amp;" COMMENT '"&amp;E166&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_authorization` CHANGE COLUMN `ResourceID` `ResourceID` CHAR(36) COMMENT '资源ID' ;</v>
       </c>
       <c r="I166" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B166&amp;"` ADD COLUMN `"&amp;D166&amp;"` "&amp;F166&amp;";"</f>
+        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `ResourceID` CHAR(36);</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7306,31 +7625,31 @@
         <v>0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F167" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F167" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G167" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>IF(D167="ID","",I167)</f>
+        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `UserID` CHAR(36);</v>
       </c>
       <c r="H167" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_authorization` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B167&amp;"` CHANGE COLUMN `"&amp;D167&amp;"` `"&amp;D167&amp;"` "&amp;F167&amp;" COMMENT '"&amp;E167&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_authorization` CHANGE COLUMN `UserID` `UserID` CHAR(36) COMMENT '用户ID' ;</v>
       </c>
       <c r="I167" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B167&amp;"` ADD COLUMN `"&amp;D167&amp;"` "&amp;F167&amp;";"</f>
+        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `UserID` CHAR(36);</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7338,31 +7657,31 @@
         <v>0</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>317</v>
+        <v>32</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="G168" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f>IF(D168="ID","",I168)</f>
+        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H168" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_organization` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B168&amp;"` CHANGE COLUMN `"&amp;D168&amp;"` `"&amp;D168&amp;"` "&amp;F168&amp;" COMMENT '"&amp;E168&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_authorization` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
       </c>
       <c r="I168" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_organization` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
+        <f>"ALTER TABLE `"&amp;B168&amp;"` ADD COLUMN `"&amp;D168&amp;"` "&amp;F168&amp;";"</f>
+        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7370,31 +7689,31 @@
         <v>0</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>244</v>
+        <v>33</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>245</v>
+        <v>34</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>246</v>
+        <v>35</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G169" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_organization` ADD COLUMN `OrganizationName` VARCHAR(50);</v>
+        <f>IF(D169="ID","",I169)</f>
+        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
       <c r="H169" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_organization` CHANGE COLUMN `OrganizationName` `OrganizationName` VARCHAR(50) COMMENT '机构名称' ;</v>
+        <f>"ALTER TABLE `"&amp;B169&amp;"` CHANGE COLUMN `"&amp;D169&amp;"` `"&amp;D169&amp;"` "&amp;F169&amp;" COMMENT '"&amp;E169&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_authorization` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
       </c>
       <c r="I169" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_organization` ADD COLUMN `OrganizationName` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B169&amp;"` ADD COLUMN `"&amp;D169&amp;"` "&amp;F169&amp;";"</f>
+        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7402,31 +7721,31 @@
         <v>0</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="G170" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_organization` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D170="ID","",I170)</f>
+        <v/>
       </c>
       <c r="H170" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_organization` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B170&amp;"` CHANGE COLUMN `"&amp;D170&amp;"` `"&amp;D170&amp;"` "&amp;F170&amp;" COMMENT '"&amp;E170&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_organization` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="I170" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_organization` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B170&amp;"` ADD COLUMN `"&amp;D170&amp;"` "&amp;F170&amp;";"</f>
+        <v>ALTER TABLE `t_sys_organization` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7434,31 +7753,31 @@
         <v>0</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D171" s="1" t="s">
-        <v>43</v>
+        <v>244</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>45</v>
+        <v>245</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G171" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_organization` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>IF(D171="ID","",I171)</f>
+        <v>ALTER TABLE `t_sys_organization` ADD COLUMN `OrganizationName` VARCHAR(50);</v>
       </c>
       <c r="H171" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_organization` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
+        <f>"ALTER TABLE `"&amp;B171&amp;"` CHANGE COLUMN `"&amp;D171&amp;"` `"&amp;D171&amp;"` "&amp;F171&amp;" COMMENT '"&amp;E171&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_organization` CHANGE COLUMN `OrganizationName` `OrganizationName` VARCHAR(50) COMMENT '机构名称' ;</v>
       </c>
       <c r="I171" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_organization` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>"ALTER TABLE `"&amp;B171&amp;"` ADD COLUMN `"&amp;D171&amp;"` "&amp;F171&amp;";"</f>
+        <v>ALTER TABLE `t_sys_organization` ADD COLUMN `OrganizationName` VARCHAR(50);</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7466,31 +7785,31 @@
         <v>0</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F172" s="5" t="s">
-        <v>317</v>
+        <v>32</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="G172" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f>IF(D172="ID","",I172)</f>
+        <v>ALTER TABLE `t_sys_organization` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H172" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B172&amp;"` CHANGE COLUMN `"&amp;D172&amp;"` `"&amp;D172&amp;"` "&amp;F172&amp;" COMMENT '"&amp;E172&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_organization` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
       </c>
       <c r="I172" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
+        <f>"ALTER TABLE `"&amp;B172&amp;"` ADD COLUMN `"&amp;D172&amp;"` "&amp;F172&amp;";"</f>
+        <v>ALTER TABLE `t_sys_organization` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7498,31 +7817,31 @@
         <v>0</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>249</v>
+        <v>43</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F173" s="5" t="s">
-        <v>148</v>
+        <v>44</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="G173" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `ENName` VARCHAR(100);</v>
+        <f>IF(D173="ID","",I173)</f>
+        <v>ALTER TABLE `t_sys_organization` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
       <c r="H173" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `ENName` `ENName` VARCHAR(100) COMMENT '参数英文名称' ;</v>
+        <f>"ALTER TABLE `"&amp;B173&amp;"` CHANGE COLUMN `"&amp;D173&amp;"` `"&amp;D173&amp;"` "&amp;F173&amp;" COMMENT '"&amp;E173&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_organization` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
       <c r="I173" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `ENName` VARCHAR(100);</v>
+        <f>"ALTER TABLE `"&amp;B173&amp;"` ADD COLUMN `"&amp;D173&amp;"` "&amp;F173&amp;";"</f>
+        <v>ALTER TABLE `t_sys_organization` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7530,31 +7849,31 @@
         <v>0</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>251</v>
+        <v>2</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>253</v>
+        <v>3</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>148</v>
+        <v>316</v>
       </c>
       <c r="G174" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `CNName` VARCHAR(100);</v>
+        <f>IF(D174="ID","",I174)</f>
+        <v/>
       </c>
       <c r="H174" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `CNName` `CNName` VARCHAR(100) COMMENT '参数中文名称' ;</v>
+        <f>"ALTER TABLE `"&amp;B174&amp;"` CHANGE COLUMN `"&amp;D174&amp;"` `"&amp;D174&amp;"` "&amp;F174&amp;" COMMENT '"&amp;E174&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="I174" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `CNName` VARCHAR(100);</v>
+        <f>"ALTER TABLE `"&amp;B174&amp;"` ADD COLUMN `"&amp;D174&amp;"` "&amp;F174&amp;";"</f>
+        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7562,31 +7881,31 @@
         <v>0</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="D175" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="G175" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `ParamValue` VARCHAR(500);</v>
+        <f>IF(D175="ID","",I175)</f>
+        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `ENName` VARCHAR(100);</v>
       </c>
       <c r="H175" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `ParamValue` `ParamValue` VARCHAR(500) COMMENT '参数值' ;</v>
+        <f>"ALTER TABLE `"&amp;B175&amp;"` CHANGE COLUMN `"&amp;D175&amp;"` `"&amp;D175&amp;"` "&amp;F175&amp;" COMMENT '"&amp;E175&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `ENName` `ENName` VARCHAR(100) COMMENT '参数英文名称' ;</v>
       </c>
       <c r="I175" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `ParamValue` VARCHAR(500);</v>
+        <f>"ALTER TABLE `"&amp;B175&amp;"` ADD COLUMN `"&amp;D175&amp;"` "&amp;F175&amp;";"</f>
+        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `ENName` VARCHAR(100);</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7594,31 +7913,31 @@
         <v>0</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="G176" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `DefaultValue` VARCHAR(500);</v>
+        <f>IF(D176="ID","",I176)</f>
+        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `CNName` VARCHAR(100);</v>
       </c>
       <c r="H176" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `DefaultValue` `DefaultValue` VARCHAR(500) COMMENT '默认值' ;</v>
+        <f>"ALTER TABLE `"&amp;B176&amp;"` CHANGE COLUMN `"&amp;D176&amp;"` `"&amp;D176&amp;"` "&amp;F176&amp;" COMMENT '"&amp;E176&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `CNName` `CNName` VARCHAR(100) COMMENT '参数中文名称' ;</v>
       </c>
       <c r="I176" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `DefaultValue` VARCHAR(500);</v>
+        <f>"ALTER TABLE `"&amp;B176&amp;"` ADD COLUMN `"&amp;D176&amp;"` "&amp;F176&amp;";"</f>
+        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `CNName` VARCHAR(100);</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7626,31 +7945,31 @@
         <v>0</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="G177" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `ISInner` TINYINT;</v>
+        <f>IF(D177="ID","",I177)</f>
+        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `ParamValue` VARCHAR(500);</v>
       </c>
       <c r="H177" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `ISInner` `ISInner` TINYINT COMMENT '是否系统内置' ;</v>
+        <f>"ALTER TABLE `"&amp;B177&amp;"` CHANGE COLUMN `"&amp;D177&amp;"` `"&amp;D177&amp;"` "&amp;F177&amp;" COMMENT '"&amp;E177&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `ParamValue` `ParamValue` VARCHAR(500) COMMENT '参数值' ;</v>
       </c>
       <c r="I177" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `ISInner` TINYINT;</v>
+        <f>"ALTER TABLE `"&amp;B177&amp;"` ADD COLUMN `"&amp;D177&amp;"` "&amp;F177&amp;";"</f>
+        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `ParamValue` VARCHAR(500);</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7658,31 +7977,31 @@
         <v>0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>30</v>
+        <v>256</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>29</v>
+        <v>258</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="G178" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D178="ID","",I178)</f>
+        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `DefaultValue` VARCHAR(500);</v>
       </c>
       <c r="H178" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B178&amp;"` CHANGE COLUMN `"&amp;D178&amp;"` `"&amp;D178&amp;"` "&amp;F178&amp;" COMMENT '"&amp;E178&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `DefaultValue` `DefaultValue` VARCHAR(500) COMMENT '默认值' ;</v>
       </c>
       <c r="I178" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B178&amp;"` ADD COLUMN `"&amp;D178&amp;"` "&amp;F178&amp;";"</f>
+        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `DefaultValue` VARCHAR(500);</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7690,31 +8009,31 @@
         <v>0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="G179" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>IF(D179="ID","",I179)</f>
+        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `ISInner` TINYINT;</v>
       </c>
       <c r="H179" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B179&amp;"` CHANGE COLUMN `"&amp;D179&amp;"` `"&amp;D179&amp;"` "&amp;F179&amp;" COMMENT '"&amp;E179&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `ISInner` `ISInner` TINYINT COMMENT '是否系统内置' ;</v>
       </c>
       <c r="I179" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B179&amp;"` ADD COLUMN `"&amp;D179&amp;"` "&amp;F179&amp;";"</f>
+        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `ISInner` TINYINT;</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7722,31 +8041,31 @@
         <v>0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G180" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D180="ID","",I180)</f>
+        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H180" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
+        <f>"ALTER TABLE `"&amp;B180&amp;"` CHANGE COLUMN `"&amp;D180&amp;"` `"&amp;D180&amp;"` "&amp;F180&amp;" COMMENT '"&amp;E180&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
       </c>
       <c r="I180" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>"ALTER TABLE `"&amp;B180&amp;"` ADD COLUMN `"&amp;D180&amp;"` "&amp;F180&amp;";"</f>
+        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7754,31 +8073,31 @@
         <v>0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F181" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G181" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f>IF(D181="ID","",I181)</f>
+        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
       <c r="H181" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
+        <f>"ALTER TABLE `"&amp;B181&amp;"` CHANGE COLUMN `"&amp;D181&amp;"` `"&amp;D181&amp;"` "&amp;F181&amp;" COMMENT '"&amp;E181&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
       </c>
       <c r="I181" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B181&amp;"` ADD COLUMN `"&amp;D181&amp;"` "&amp;F181&amp;";"</f>
+        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7786,31 +8105,31 @@
         <v>0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="G182" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>IF(D182="ID","",I182)</f>
+        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H182" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
+        <f>"ALTER TABLE `"&amp;B182&amp;"` CHANGE COLUMN `"&amp;D182&amp;"` `"&amp;D182&amp;"` "&amp;F182&amp;" COMMENT '"&amp;E182&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
       </c>
       <c r="I182" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>"ALTER TABLE `"&amp;B182&amp;"` ADD COLUMN `"&amp;D182&amp;"` "&amp;F182&amp;";"</f>
+        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7818,31 +8137,31 @@
         <v>0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>317</v>
+        <v>41</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="G183" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f>IF(D183="ID","",I183)</f>
+        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `UpdateUser` CHAR(36);</v>
       </c>
       <c r="H183" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B183&amp;"` CHANGE COLUMN `"&amp;D183&amp;"` `"&amp;D183&amp;"` "&amp;F183&amp;" COMMENT '"&amp;E183&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
       </c>
       <c r="I183" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
+        <f>"ALTER TABLE `"&amp;B183&amp;"` ADD COLUMN `"&amp;D183&amp;"` "&amp;F183&amp;";"</f>
+        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `UpdateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7850,31 +8169,31 @@
         <v>0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>265</v>
+        <v>43</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="G184" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `Rescode` VARCHAR(50);</v>
+        <f>IF(D184="ID","",I184)</f>
+        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
       <c r="H184" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `Rescode` `Rescode` VARCHAR(50) COMMENT '资源编码' ;</v>
+        <f>"ALTER TABLE `"&amp;B184&amp;"` CHANGE COLUMN `"&amp;D184&amp;"` `"&amp;D184&amp;"` "&amp;F184&amp;" COMMENT '"&amp;E184&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
       <c r="I184" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `Rescode` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B184&amp;"` ADD COLUMN `"&amp;D184&amp;"` "&amp;F184&amp;";"</f>
+        <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7882,31 +8201,31 @@
         <v>0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>268</v>
+        <v>3</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>269</v>
+        <v>3</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>25</v>
+        <v>316</v>
       </c>
       <c r="G185" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `Resname` VARCHAR(200);</v>
+        <f>IF(D185="ID","",I185)</f>
+        <v/>
       </c>
       <c r="H185" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `Resname` `Resname` VARCHAR(200) COMMENT '图标路径' ;</v>
+        <f>"ALTER TABLE `"&amp;B185&amp;"` CHANGE COLUMN `"&amp;D185&amp;"` `"&amp;D185&amp;"` "&amp;F185&amp;" COMMENT '"&amp;E185&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="I185" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `Resname` VARCHAR(200);</v>
+        <f>"ALTER TABLE `"&amp;B185&amp;"` ADD COLUMN `"&amp;D185&amp;"` "&amp;F185&amp;";"</f>
+        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7914,31 +8233,31 @@
         <v>0</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="D186" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="G186" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `Icon` VARCHAR(100);</v>
+        <f>IF(D186="ID","",I186)</f>
+        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `Rescode` VARCHAR(50);</v>
       </c>
       <c r="H186" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `Icon` `Icon` VARCHAR(100) COMMENT '资源名称' ;</v>
+        <f>"ALTER TABLE `"&amp;B186&amp;"` CHANGE COLUMN `"&amp;D186&amp;"` `"&amp;D186&amp;"` "&amp;F186&amp;" COMMENT '"&amp;E186&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `Rescode` `Rescode` VARCHAR(50) COMMENT '资源编码' ;</v>
       </c>
       <c r="I186" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `Icon` VARCHAR(100);</v>
+        <f>"ALTER TABLE `"&amp;B186&amp;"` ADD COLUMN `"&amp;D186&amp;"` "&amp;F186&amp;";"</f>
+        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `Rescode` VARCHAR(50);</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7946,31 +8265,31 @@
         <v>0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G187" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `ResUrl` VARCHAR(200);</v>
+        <f>IF(D187="ID","",I187)</f>
+        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `Resname` VARCHAR(200);</v>
       </c>
       <c r="H187" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `ResUrl` `ResUrl` VARCHAR(200) COMMENT 'URL地址' ;</v>
+        <f>"ALTER TABLE `"&amp;B187&amp;"` CHANGE COLUMN `"&amp;D187&amp;"` `"&amp;D187&amp;"` "&amp;F187&amp;" COMMENT '"&amp;E187&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `Resname` `Resname` VARCHAR(200) COMMENT '图标路径' ;</v>
       </c>
       <c r="I187" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `ResUrl` VARCHAR(200);</v>
+        <f>"ALTER TABLE `"&amp;B187&amp;"` ADD COLUMN `"&amp;D187&amp;"` "&amp;F187&amp;";"</f>
+        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `Resname` VARCHAR(200);</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7978,31 +8297,31 @@
         <v>0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="G188" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `ResType` VARCHAR(50);</v>
+        <f>IF(D188="ID","",I188)</f>
+        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `Icon` VARCHAR(100);</v>
       </c>
       <c r="H188" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `ResType` `ResType` VARCHAR(50) COMMENT '资源类型' ;</v>
+        <f>"ALTER TABLE `"&amp;B188&amp;"` CHANGE COLUMN `"&amp;D188&amp;"` `"&amp;D188&amp;"` "&amp;F188&amp;" COMMENT '"&amp;E188&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `Icon` `Icon` VARCHAR(100) COMMENT '资源名称' ;</v>
       </c>
       <c r="I188" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `ResType` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B188&amp;"` ADD COLUMN `"&amp;D188&amp;"` "&amp;F188&amp;";"</f>
+        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `Icon` VARCHAR(100);</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8010,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>282</v>
+        <v>25</v>
       </c>
       <c r="G189" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `OrderBY` SMALLINT;</v>
+        <f>IF(D189="ID","",I189)</f>
+        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `ResUrl` VARCHAR(200);</v>
       </c>
       <c r="H189" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `OrderBY` `OrderBY` SMALLINT COMMENT '顺序号' ;</v>
+        <f>"ALTER TABLE `"&amp;B189&amp;"` CHANGE COLUMN `"&amp;D189&amp;"` `"&amp;D189&amp;"` "&amp;F189&amp;" COMMENT '"&amp;E189&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `ResUrl` `ResUrl` VARCHAR(200) COMMENT 'URL地址' ;</v>
       </c>
       <c r="I189" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `OrderBY` SMALLINT;</v>
+        <f>"ALTER TABLE `"&amp;B189&amp;"` ADD COLUMN `"&amp;D189&amp;"` "&amp;F189&amp;";"</f>
+        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `ResUrl` VARCHAR(200);</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8042,31 +8361,31 @@
         <v>0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G190" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `ParentID` CHAR(36);</v>
+        <f>IF(D190="ID","",I190)</f>
+        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `ResType` VARCHAR(50);</v>
       </c>
       <c r="H190" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `ParentID` `ParentID` CHAR(36) COMMENT '父ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B190&amp;"` CHANGE COLUMN `"&amp;D190&amp;"` `"&amp;D190&amp;"` "&amp;F190&amp;" COMMENT '"&amp;E190&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `ResType` `ResType` VARCHAR(50) COMMENT '资源类型' ;</v>
       </c>
       <c r="I190" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `ParentID` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B190&amp;"` ADD COLUMN `"&amp;D190&amp;"` "&amp;F190&amp;";"</f>
+        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `ResType` VARCHAR(50);</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8074,31 +8393,31 @@
         <v>0</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G191" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `Enabled` SMALLINT;</v>
+        <f>IF(D191="ID","",I191)</f>
+        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `OrderBY` SMALLINT;</v>
       </c>
       <c r="H191" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `Enabled` `Enabled` SMALLINT COMMENT '是否禁用' ;</v>
+        <f>"ALTER TABLE `"&amp;B191&amp;"` CHANGE COLUMN `"&amp;D191&amp;"` `"&amp;D191&amp;"` "&amp;F191&amp;" COMMENT '"&amp;E191&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `OrderBY` `OrderBY` SMALLINT COMMENT '顺序号' ;</v>
       </c>
       <c r="I191" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `Enabled` SMALLINT;</v>
+        <f>"ALTER TABLE `"&amp;B191&amp;"` ADD COLUMN `"&amp;D191&amp;"` "&amp;F191&amp;";"</f>
+        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `OrderBY` SMALLINT;</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8106,31 +8425,31 @@
         <v>0</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>42</v>
+        <v>282</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>43</v>
+        <v>283</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F192" s="5" t="s">
-        <v>45</v>
+        <v>284</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="G192" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>IF(D192="ID","",I192)</f>
+        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `ParentID` CHAR(36);</v>
       </c>
       <c r="H192" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
+        <f>"ALTER TABLE `"&amp;B192&amp;"` CHANGE COLUMN `"&amp;D192&amp;"` `"&amp;D192&amp;"` "&amp;F192&amp;" COMMENT '"&amp;E192&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `ParentID` `ParentID` CHAR(36) COMMENT '父ID' ;</v>
       </c>
       <c r="I192" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `Description` VARCHAR(500);</v>
+        <f>"ALTER TABLE `"&amp;B192&amp;"` ADD COLUMN `"&amp;D192&amp;"` "&amp;F192&amp;";"</f>
+        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `ParentID` CHAR(36);</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8138,31 +8457,31 @@
         <v>0</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>2</v>
+        <v>285</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>3</v>
+        <v>286</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>3</v>
+        <v>287</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="G193" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f>IF(D193="ID","",I193)</f>
+        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `Enabled` SMALLINT;</v>
       </c>
       <c r="H193" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
+        <f>"ALTER TABLE `"&amp;B193&amp;"` CHANGE COLUMN `"&amp;D193&amp;"` `"&amp;D193&amp;"` "&amp;F193&amp;" COMMENT '"&amp;E193&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `Enabled` `Enabled` SMALLINT COMMENT '是否禁用' ;</v>
       </c>
       <c r="I193" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
+        <f>"ALTER TABLE `"&amp;B193&amp;"` ADD COLUMN `"&amp;D193&amp;"` "&amp;F193&amp;";"</f>
+        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `Enabled` SMALLINT;</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8170,31 +8489,31 @@
         <v>0</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>290</v>
+        <v>42</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>291</v>
+        <v>43</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="G194" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `LoginName` VARCHAR(50);</v>
+        <f>IF(D194="ID","",I194)</f>
+        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
       <c r="H194" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `LoginName` `LoginName` VARCHAR(50) COMMENT '登陆名' ;</v>
+        <f>"ALTER TABLE `"&amp;B194&amp;"` CHANGE COLUMN `"&amp;D194&amp;"` `"&amp;D194&amp;"` "&amp;F194&amp;" COMMENT '"&amp;E194&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
       <c r="I194" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `LoginName` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B194&amp;"` ADD COLUMN `"&amp;D194&amp;"` "&amp;F194&amp;";"</f>
+        <v>ALTER TABLE `t_sys_resource` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8202,31 +8521,31 @@
         <v>0</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>152</v>
+        <v>2</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>11</v>
+        <v>316</v>
       </c>
       <c r="G195" s="8" t="str">
-        <f t="shared" ref="G195:G207" si="9">IF(D195="ID","",I195)</f>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `RealName` VARCHAR(50);</v>
+        <f>IF(D195="ID","",I195)</f>
+        <v/>
       </c>
       <c r="H195" t="str">
-        <f t="shared" ref="H195:H209" si="10">"ALTER TABLE `"&amp;B195&amp;"` CHANGE COLUMN `"&amp;D195&amp;"` `"&amp;D195&amp;"` "&amp;F195&amp;" COMMENT '"&amp;E195&amp;"' ;"</f>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `RealName` `RealName` VARCHAR(50) COMMENT '姓名' ;</v>
+        <f>"ALTER TABLE `"&amp;B195&amp;"` CHANGE COLUMN `"&amp;D195&amp;"` `"&amp;D195&amp;"` "&amp;F195&amp;" COMMENT '"&amp;E195&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `ID` `ID` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="I195" t="str">
-        <f t="shared" ref="I195:I209" si="11">"ALTER TABLE `"&amp;B195&amp;"` ADD COLUMN `"&amp;D195&amp;"` "&amp;F195&amp;";"</f>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `RealName` VARCHAR(50);</v>
+        <f>"ALTER TABLE `"&amp;B195&amp;"` ADD COLUMN `"&amp;D195&amp;"` "&amp;F195&amp;";"</f>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `ID` CHAR(36) NOT NULL;</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8234,31 +8553,31 @@
         <v>0</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="D196" s="1" t="s">
-        <v>71</v>
+        <v>290</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>72</v>
+        <v>291</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G196" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `OrganizationID` CHAR(36);</v>
+        <f>IF(D196="ID","",I196)</f>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `LoginName` VARCHAR(50);</v>
       </c>
       <c r="H196" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `OrganizationID` `OrganizationID` CHAR(36) COMMENT '所在部门' ;</v>
+        <f>"ALTER TABLE `"&amp;B196&amp;"` CHANGE COLUMN `"&amp;D196&amp;"` `"&amp;D196&amp;"` "&amp;F196&amp;" COMMENT '"&amp;E196&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `LoginName` `LoginName` VARCHAR(50) COMMENT '登陆名' ;</v>
       </c>
       <c r="I196" t="str">
-        <f t="shared" si="11"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `OrganizationID` CHAR(36);</v>
+        <f>"ALTER TABLE `"&amp;B196&amp;"` ADD COLUMN `"&amp;D196&amp;"` "&amp;F196&amp;";"</f>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `LoginName` VARCHAR(50);</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8266,31 +8585,31 @@
         <v>0</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>293</v>
+        <v>151</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>294</v>
+        <v>152</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>295</v>
+        <v>153</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G197" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `Password` VARCHAR(50);</v>
+        <f>IF(D197="ID","",I197)</f>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `RealName` VARCHAR(50);</v>
       </c>
       <c r="H197" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `Password` `Password` VARCHAR(50) COMMENT '密码' ;</v>
+        <f t="shared" ref="H197:H211" si="0">"ALTER TABLE `"&amp;B197&amp;"` CHANGE COLUMN `"&amp;D197&amp;"` `"&amp;D197&amp;"` "&amp;F197&amp;" COMMENT '"&amp;E197&amp;"' ;"</f>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `RealName` `RealName` VARCHAR(50) COMMENT '姓名' ;</v>
       </c>
       <c r="I197" t="str">
-        <f t="shared" si="11"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `Password` VARCHAR(50);</v>
+        <f t="shared" ref="I197:I211" si="1">"ALTER TABLE `"&amp;B197&amp;"` ADD COLUMN `"&amp;D197&amp;"` "&amp;F197&amp;";"</f>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `RealName` VARCHAR(50);</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8298,31 +8617,31 @@
         <v>0</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>296</v>
+        <v>70</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>297</v>
+        <v>71</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>298</v>
+        <v>72</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G198" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `LastLoginIP` VARCHAR(50);</v>
+        <f>IF(D198="ID","",I198)</f>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `OrganizationID` CHAR(36);</v>
       </c>
       <c r="H198" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `LastLoginIP` `LastLoginIP` VARCHAR(50) COMMENT '最后登陆IP' ;</v>
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `OrganizationID` `OrganizationID` CHAR(36) COMMENT '所在部门' ;</v>
       </c>
       <c r="I198" t="str">
-        <f t="shared" si="11"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `LastLoginIP` VARCHAR(50);</v>
+        <f t="shared" si="1"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `OrganizationID` CHAR(36);</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8330,31 +8649,31 @@
         <v>0</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G199" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `LastLoginTime` DATETIME(0);</v>
+        <f>IF(D199="ID","",I199)</f>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `Password` VARCHAR(50);</v>
       </c>
       <c r="H199" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `LastLoginTime` `LastLoginTime` DATETIME(0) COMMENT '最后登陆时间' ;</v>
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `Password` `Password` VARCHAR(50) COMMENT '密码' ;</v>
       </c>
       <c r="I199" t="str">
-        <f t="shared" si="11"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `LastLoginTime` DATETIME(0);</v>
+        <f t="shared" si="1"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `Password` VARCHAR(50);</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8362,31 +8681,31 @@
         <v>0</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="G200" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `Fails` SMALLINT;</v>
+        <f>IF(D200="ID","",I200)</f>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `LastLoginIP` VARCHAR(50);</v>
       </c>
       <c r="H200" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `Fails` `Fails` SMALLINT COMMENT '连续登录失败次数' ;</v>
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `LastLoginIP` `LastLoginIP` VARCHAR(50) COMMENT '最后登陆IP' ;</v>
       </c>
       <c r="I200" t="str">
-        <f t="shared" si="11"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `Fails` SMALLINT;</v>
+        <f t="shared" si="1"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `LastLoginIP` VARCHAR(50);</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8394,31 +8713,31 @@
         <v>0</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>282</v>
+        <v>69</v>
       </c>
       <c r="G201" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `Logined` SMALLINT;</v>
+        <f>IF(D201="ID","",I201)</f>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `LastLoginTime` DATETIME(0);</v>
       </c>
       <c r="H201" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `Logined` `Logined` SMALLINT COMMENT '登陆总次数' ;</v>
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `LastLoginTime` `LastLoginTime` DATETIME(0) COMMENT '最后登陆时间' ;</v>
       </c>
       <c r="I201" t="str">
-        <f t="shared" si="11"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `Logined` SMALLINT;</v>
+        <f t="shared" si="1"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `LastLoginTime` DATETIME(0);</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8426,31 +8745,31 @@
         <v>0</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
       <c r="G202" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `Position` VARCHAR(50);</v>
+        <f>IF(D202="ID","",I202)</f>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `Fails` SMALLINT;</v>
       </c>
       <c r="H202" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `Position` `Position` VARCHAR(50) COMMENT '职务' ;</v>
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `Fails` `Fails` SMALLINT COMMENT '连续登录失败次数' ;</v>
       </c>
       <c r="I202" t="str">
-        <f t="shared" si="11"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `Position` VARCHAR(50);</v>
+        <f t="shared" si="1"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `Fails` SMALLINT;</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8458,31 +8777,31 @@
         <v>0</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>213</v>
+        <v>281</v>
       </c>
       <c r="G203" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `Enabled` TINYINT;</v>
+        <f>IF(D203="ID","",I203)</f>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `Logined` SMALLINT;</v>
       </c>
       <c r="H203" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `Enabled` `Enabled` TINYINT COMMENT '是否禁用' ;</v>
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `Logined` `Logined` SMALLINT COMMENT '登陆总次数' ;</v>
       </c>
       <c r="I203" t="str">
-        <f t="shared" si="11"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `Enabled` TINYINT;</v>
+        <f t="shared" si="1"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `Logined` SMALLINT;</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8490,31 +8809,31 @@
         <v>0</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="G204" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `OrderBY` TINYINT;</v>
+        <f>IF(D204="ID","",I204)</f>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `Position` VARCHAR(50);</v>
       </c>
       <c r="H204" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `OrderBY` `OrderBY` TINYINT COMMENT '顺序号' ;</v>
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `Position` `Position` VARCHAR(50) COMMENT '职务' ;</v>
       </c>
       <c r="I204" t="str">
-        <f t="shared" si="11"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `OrderBY` TINYINT;</v>
+        <f t="shared" si="1"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `Position` VARCHAR(50);</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8522,31 +8841,31 @@
         <v>0</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>30</v>
+        <v>285</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>31</v>
+        <v>286</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F205" s="3" t="s">
-        <v>29</v>
+        <v>287</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="G205" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D205="ID","",I205)</f>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `Enabled` TINYINT;</v>
       </c>
       <c r="H205" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `Enabled` `Enabled` TINYINT COMMENT '是否禁用' ;</v>
       </c>
       <c r="I205" t="str">
-        <f t="shared" si="11"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f t="shared" si="1"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `Enabled` TINYINT;</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8554,31 +8873,31 @@
         <v>0</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>33</v>
+        <v>278</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>34</v>
+        <v>279</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>4</v>
+        <v>280</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="G206" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f>IF(D206="ID","",I206)</f>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `OrderBY` TINYINT;</v>
       </c>
       <c r="H206" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `OrderBY` `OrderBY` TINYINT COMMENT '顺序号' ;</v>
       </c>
       <c r="I206" t="str">
-        <f t="shared" si="11"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `CreateUser` CHAR(36);</v>
+        <f t="shared" si="1"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `OrderBY` TINYINT;</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8586,31 +8905,31 @@
         <v>0</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G207" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f>IF(D207="ID","",I207)</f>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="H207" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `CreateTime` `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
       </c>
       <c r="I207" t="str">
-        <f t="shared" si="11"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+        <f t="shared" si="1"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `CreateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8618,31 +8937,31 @@
         <v>0</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G208" s="8" t="str">
         <f>IF(D208="ID","",I208)</f>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
       <c r="H208" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `CreateUser` `CreateUser` CHAR(36) COMMENT '创建用户' ;</v>
       </c>
       <c r="I208" t="str">
-        <f t="shared" si="11"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `UpdateUser` CHAR(36);</v>
+        <f t="shared" si="1"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `CreateUser` CHAR(36);</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8650,31 +8969,543 @@
         <v>0</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G209" s="8" t="str">
         <f>IF(D209="ID","",I209)</f>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+      <c r="H209" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `UpdateTime` `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
+      </c>
+      <c r="I209" t="str">
+        <f t="shared" si="1"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `UpdateTime` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G210" s="8" t="str">
+        <f>IF(D210="ID","",I210)</f>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `UpdateUser` CHAR(36);</v>
+      </c>
+      <c r="H210" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `UpdateUser` `UpdateUser` CHAR(36) COMMENT '修改用户' ;</v>
+      </c>
+      <c r="I210" t="str">
+        <f t="shared" si="1"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `UpdateUser` CHAR(36);</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G211" s="8" t="str">
+        <f>IF(D211="ID","",I211)</f>
         <v>ALTER TABLE `t_sys_user` ADD COLUMN `Description` VARCHAR(500);</v>
       </c>
-      <c r="H209" t="str">
-        <f t="shared" si="10"/>
+      <c r="H211" t="str">
+        <f t="shared" si="0"/>
         <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `Description` `Description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
-      <c r="I209" t="str">
-        <f t="shared" si="11"/>
+      <c r="I211" t="str">
+        <f t="shared" si="1"/>
         <v>ALTER TABLE `t_sys_user` ADD COLUMN `Description` VARCHAR(500);</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B212" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E212" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="F212" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B213" t="s">
+        <v>377</v>
+      </c>
+      <c r="C213" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E213" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F213" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B214" t="s">
+        <v>377</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E214" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F214" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B215" t="s">
+        <v>377</v>
+      </c>
+      <c r="C215" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E215" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="F215" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B216" t="s">
+        <v>377</v>
+      </c>
+      <c r="C216" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="E216" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F216" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B217" t="s">
+        <v>377</v>
+      </c>
+      <c r="C217" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E217" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F217" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B218" t="s">
+        <v>377</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="E218" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F218" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B219" t="s">
+        <v>377</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="E219" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="F219" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B220" t="s">
+        <v>377</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E220" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F220" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B221" t="s">
+        <v>377</v>
+      </c>
+      <c r="C221" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E221" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="F221" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B222" t="s">
+        <v>377</v>
+      </c>
+      <c r="C222" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E222" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F222" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B223" t="s">
+        <v>377</v>
+      </c>
+      <c r="C223" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="E223" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="F223" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B224" t="s">
+        <v>377</v>
+      </c>
+      <c r="C224" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E224" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="F224" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B225" t="s">
+        <v>377</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E225" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="F225" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B226" t="s">
+        <v>377</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="E226" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="F226" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B227" t="s">
+        <v>377</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E227" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F227" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B228" t="s">
+        <v>377</v>
+      </c>
+      <c r="C228" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="E228" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F228" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B229" t="s">
+        <v>377</v>
+      </c>
+      <c r="C229" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="E229" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="F229" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B230" t="s">
+        <v>377</v>
+      </c>
+      <c r="C230" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="E230" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="F230" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B231" t="s">
+        <v>377</v>
+      </c>
+      <c r="C231" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="E231" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="F231" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B232" t="s">
+        <v>377</v>
+      </c>
+      <c r="C232" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="E232" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F232" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B233" t="s">
+        <v>377</v>
+      </c>
+      <c r="C233" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="E233" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F233" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B234" t="s">
+        <v>377</v>
+      </c>
+      <c r="C234" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="E234" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="F234" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B235" t="s">
+        <v>377</v>
+      </c>
+      <c r="C235" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E235" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="F235" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B236" t="s">
+        <v>377</v>
+      </c>
+      <c r="C236" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="E236" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F236" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B237" t="s">
+        <v>377</v>
+      </c>
+      <c r="C237" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="E237" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="F237" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B238" t="s">
+        <v>377</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E238" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="F238" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B239" t="s">
+        <v>377</v>
+      </c>
+      <c r="C239" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E239" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="F239" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B240" t="s">
+        <v>377</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="E240" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="F240" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B241" t="s">
+        <v>377</v>
+      </c>
+      <c r="C241" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E241" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="F241" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B242" t="s">
+        <v>377</v>
+      </c>
+      <c r="C242" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E242" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F242" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B243" t="s">
+        <v>377</v>
+      </c>
+      <c r="C243" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="E243" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="F243" s="11" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -8685,20 +9516,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -8730,7 +9562,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -8739,7 +9571,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -8748,7 +9580,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -8757,7 +9589,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -8766,7 +9598,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -8775,7 +9607,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -8784,7 +9616,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -8793,7 +9625,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -8802,7 +9634,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C13" t="str">
         <f>"CREATE TABLE "&amp;A13&amp;"(ID CHAR(36) NOT NULL, PRIMARY KEY (ID));"</f>
@@ -8811,7 +9643,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -8820,7 +9652,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -8829,7 +9661,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -8838,11 +9670,20 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C17" t="str">
         <f>"CREATE TABLE "&amp;A17&amp;"(ID CHAR(36) NOT NULL, PRIMARY KEY (ID));"</f>
         <v>CREATE TABLE t_sys_user(ID CHAR(36) NOT NULL, PRIMARY KEY (ID));</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C18" t="str">
+        <f>"CREATE TABLE "&amp;A18&amp;"(ID CHAR(36) NOT NULL, PRIMARY KEY (ID));"</f>
+        <v>CREATE TABLE t_project_summary(ID CHAR(36) NOT NULL, PRIMARY KEY (ID));</v>
       </c>
     </row>
   </sheetData>

--- a/04_设计文档/all_field_new.xlsx
+++ b/04_设计文档/all_field_new.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cqiyi\git\hply\04_设计文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table1!$A$1:$E$211</definedName>
     <definedName name="a00">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="290">
   <si>
     <t>hplydb</t>
   </si>
@@ -892,6 +898,42 @@
   </si>
   <si>
     <t>列名</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_t01</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>field_t02</t>
+  </si>
+  <si>
+    <t>field_t03</t>
+  </si>
+  <si>
+    <t>field_t04</t>
+  </si>
+  <si>
+    <t>field_t05</t>
+  </si>
+  <si>
+    <t>field_t06</t>
+  </si>
+  <si>
+    <t>field_t07</t>
+  </si>
+  <si>
+    <t>field_t08</t>
+  </si>
+  <si>
+    <t>field_t09</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1612,24 +1654,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1644,15 +1686,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1661,12 +1703,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1708,7 +1753,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1743,7 +1788,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1954,9 +1999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J243"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="B264" sqref="B264"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2011,7 +2054,7 @@
         <v>ALTER TABLE `t_arrears` CHANGE COLUMN `id` `id` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="H2" t="str">
-        <f>"ALTER TABLE `"&amp;B2&amp;"` ADD COLUMN `"&amp;C2&amp;"` "&amp;E2&amp;";"</f>
+        <f t="shared" ref="H2:H40" si="2">"ALTER TABLE `"&amp;B2&amp;"` ADD COLUMN `"&amp;C2&amp;"` "&amp;E2&amp;";"</f>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `id` CHAR(36) NOT NULL;</v>
       </c>
     </row>
@@ -2040,7 +2083,7 @@
         <v>ALTER TABLE `t_arrears` CHANGE COLUMN `project_id` `project_id` CHAR(36) COMMENT '项目ID' ;</v>
       </c>
       <c r="H3" t="str">
-        <f>"ALTER TABLE `"&amp;B3&amp;"` ADD COLUMN `"&amp;C3&amp;"` "&amp;E3&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `project_id` CHAR(36);</v>
       </c>
     </row>
@@ -2069,7 +2112,7 @@
         <v>ALTER TABLE `t_arrears` CHANGE COLUMN `arrears_type` `arrears_type` VARCHAR(50) COMMENT '欠款分类' ;</v>
       </c>
       <c r="H4" t="str">
-        <f>"ALTER TABLE `"&amp;B4&amp;"` ADD COLUMN `"&amp;C4&amp;"` "&amp;E4&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `arrears_type` VARCHAR(50);</v>
       </c>
     </row>
@@ -2098,7 +2141,7 @@
         <v>ALTER TABLE `t_arrears` CHANGE COLUMN `pay_type` `pay_type` VARCHAR(50) COMMENT '支付方式' ;</v>
       </c>
       <c r="H5" t="str">
-        <f>"ALTER TABLE `"&amp;B5&amp;"` ADD COLUMN `"&amp;C5&amp;"` "&amp;E5&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `pay_type` VARCHAR(50);</v>
       </c>
     </row>
@@ -2127,7 +2170,7 @@
         <v>ALTER TABLE `t_arrears` CHANGE COLUMN `amount` `amount` DECIMAL(20,4) COMMENT '金额' ;</v>
       </c>
       <c r="H6" t="str">
-        <f>"ALTER TABLE `"&amp;B6&amp;"` ADD COLUMN `"&amp;C6&amp;"` "&amp;E6&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -2156,7 +2199,7 @@
         <v>ALTER TABLE `t_arrears` CHANGE COLUMN `interest_amount` `interest_amount` DECIMAL(20,4) COMMENT '利息额' ;</v>
       </c>
       <c r="H7" t="str">
-        <f>"ALTER TABLE `"&amp;B7&amp;"` ADD COLUMN `"&amp;C7&amp;"` "&amp;E7&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `interest_amount` DECIMAL(20,4);</v>
       </c>
       <c r="J7" s="16"/>
@@ -2186,7 +2229,7 @@
         <v>ALTER TABLE `t_arrears` CHANGE COLUMN `interest_rate` `interest_rate` DECIMAL(20,4) COMMENT '利率' ;</v>
       </c>
       <c r="H8" t="str">
-        <f>"ALTER TABLE `"&amp;B8&amp;"` ADD COLUMN `"&amp;C8&amp;"` "&amp;E8&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `interest_rate` DECIMAL(20,4);</v>
       </c>
       <c r="J8" s="16"/>
@@ -2216,7 +2259,7 @@
         <v>ALTER TABLE `t_arrears` CHANGE COLUMN `bank_account` `bank_account` VARCHAR(50) COMMENT '银行账号' ;</v>
       </c>
       <c r="H9" t="str">
-        <f>"ALTER TABLE `"&amp;B9&amp;"` ADD COLUMN `"&amp;C9&amp;"` "&amp;E9&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `bank_account` VARCHAR(50);</v>
       </c>
     </row>
@@ -2245,7 +2288,7 @@
         <v>ALTER TABLE `t_arrears` CHANGE COLUMN `bank_name` `bank_name` VARCHAR(200) COMMENT '开户行名称' ;</v>
       </c>
       <c r="H10" t="str">
-        <f>"ALTER TABLE `"&amp;B10&amp;"` ADD COLUMN `"&amp;C10&amp;"` "&amp;E10&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `bank_name` VARCHAR(200);</v>
       </c>
     </row>
@@ -2274,7 +2317,7 @@
         <v>ALTER TABLE `t_arrears` CHANGE COLUMN `trice` `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '登记时间' ;</v>
       </c>
       <c r="H11" t="str">
-        <f>"ALTER TABLE `"&amp;B11&amp;"` ADD COLUMN `"&amp;C11&amp;"` "&amp;E11&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
@@ -2303,7 +2346,7 @@
         <v>ALTER TABLE `t_arrears` CHANGE COLUMN `create_time` `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
       </c>
       <c r="H12" t="str">
-        <f>"ALTER TABLE `"&amp;B12&amp;"` ADD COLUMN `"&amp;C12&amp;"` "&amp;E12&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
@@ -2332,7 +2375,7 @@
         <v>ALTER TABLE `t_arrears` CHANGE COLUMN `create_user` `create_user` CHAR(36) COMMENT '创建用户' ;</v>
       </c>
       <c r="H13" t="str">
-        <f>"ALTER TABLE `"&amp;B13&amp;"` ADD COLUMN `"&amp;C13&amp;"` "&amp;E13&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `create_user` CHAR(36);</v>
       </c>
     </row>
@@ -2361,7 +2404,7 @@
         <v>ALTER TABLE `t_arrears` CHANGE COLUMN `update_time` `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
       </c>
       <c r="H14" t="str">
-        <f>"ALTER TABLE `"&amp;B14&amp;"` ADD COLUMN `"&amp;C14&amp;"` "&amp;E14&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
@@ -2390,7 +2433,7 @@
         <v>ALTER TABLE `t_arrears` CHANGE COLUMN `update_user` `update_user` CHAR(36) COMMENT '修改用户' ;</v>
       </c>
       <c r="H15" t="str">
-        <f>"ALTER TABLE `"&amp;B15&amp;"` ADD COLUMN `"&amp;C15&amp;"` "&amp;E15&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `update_user` CHAR(36);</v>
       </c>
     </row>
@@ -2419,7 +2462,7 @@
         <v>ALTER TABLE `t_arrears` CHANGE COLUMN `description` `description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
       <c r="H16" t="str">
-        <f>"ALTER TABLE `"&amp;B16&amp;"` ADD COLUMN `"&amp;C16&amp;"` "&amp;E16&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_arrears` ADD COLUMN `description` VARCHAR(500);</v>
       </c>
     </row>
@@ -2448,7 +2491,7 @@
         <v>ALTER TABLE `t_chop` CHANGE COLUMN `id` `id` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="H17" t="str">
-        <f>"ALTER TABLE `"&amp;B17&amp;"` ADD COLUMN `"&amp;C17&amp;"` "&amp;E17&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_chop` ADD COLUMN `id` CHAR(36) NOT NULL;</v>
       </c>
     </row>
@@ -2477,7 +2520,7 @@
         <v>ALTER TABLE `t_chop` CHANGE COLUMN `chop_code` `chop_code` VARCHAR(50) COMMENT '编号' ;</v>
       </c>
       <c r="H18" t="str">
-        <f>"ALTER TABLE `"&amp;B18&amp;"` ADD COLUMN `"&amp;C18&amp;"` "&amp;E18&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_chop` ADD COLUMN `chop_code` VARCHAR(50);</v>
       </c>
     </row>
@@ -2506,7 +2549,7 @@
         <v>ALTER TABLE `t_chop` CHANGE COLUMN `project_id` `project_id` CHAR(36) COMMENT '项目ID' ;</v>
       </c>
       <c r="H19" t="str">
-        <f>"ALTER TABLE `"&amp;B19&amp;"` ADD COLUMN `"&amp;C19&amp;"` "&amp;E19&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_chop` ADD COLUMN `project_id` CHAR(36);</v>
       </c>
     </row>
@@ -2535,7 +2578,7 @@
         <v>ALTER TABLE `t_chop` CHANGE COLUMN `project_code` `project_code` VARCHAR(50) COMMENT '项目编号' ;</v>
       </c>
       <c r="H20" t="str">
-        <f>"ALTER TABLE `"&amp;B20&amp;"` ADD COLUMN `"&amp;C20&amp;"` "&amp;E20&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_chop` ADD COLUMN `project_code` VARCHAR(50);</v>
       </c>
     </row>
@@ -2564,7 +2607,7 @@
         <v>ALTER TABLE `t_chop` CHANGE COLUMN `project_name` `project_name` VARCHAR(200) COMMENT '项目名称' ;</v>
       </c>
       <c r="H21" t="str">
-        <f>"ALTER TABLE `"&amp;B21&amp;"` ADD COLUMN `"&amp;C21&amp;"` "&amp;E21&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_chop` ADD COLUMN `project_name` VARCHAR(200);</v>
       </c>
     </row>
@@ -2593,7 +2636,7 @@
         <v>ALTER TABLE `t_chop` CHANGE COLUMN `manager` `manager` VARCHAR(20) COMMENT '项目经理' ;</v>
       </c>
       <c r="H22" t="str">
-        <f>"ALTER TABLE `"&amp;B22&amp;"` ADD COLUMN `"&amp;C22&amp;"` "&amp;E22&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_chop` ADD COLUMN `manager` VARCHAR(20);</v>
       </c>
     </row>
@@ -2622,7 +2665,7 @@
         <v>ALTER TABLE `t_chop` CHANGE COLUMN `content` `content` VARCHAR(500) COMMENT '主要内容' ;</v>
       </c>
       <c r="H23" t="str">
-        <f>"ALTER TABLE `"&amp;B23&amp;"` ADD COLUMN `"&amp;C23&amp;"` "&amp;E23&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_chop` ADD COLUMN `content` VARCHAR(500);</v>
       </c>
     </row>
@@ -2651,7 +2694,7 @@
         <v>ALTER TABLE `t_chop` CHANGE COLUMN `apply_user` `apply_user` CHAR(36) COMMENT '申请人' ;</v>
       </c>
       <c r="H24" t="str">
-        <f>"ALTER TABLE `"&amp;B24&amp;"` ADD COLUMN `"&amp;C24&amp;"` "&amp;E24&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_chop` ADD COLUMN `apply_user` CHAR(36);</v>
       </c>
     </row>
@@ -2680,7 +2723,7 @@
         <v>ALTER TABLE `t_chop` CHANGE COLUMN `apply_time` `apply_time` DATETIME(0) COMMENT '申请时间' ;</v>
       </c>
       <c r="H25" t="str">
-        <f>"ALTER TABLE `"&amp;B25&amp;"` ADD COLUMN `"&amp;C25&amp;"` "&amp;E25&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_chop` ADD COLUMN `apply_time` DATETIME(0);</v>
       </c>
     </row>
@@ -2709,7 +2752,7 @@
         <v>ALTER TABLE `t_chop` CHANGE COLUMN `organization_id` `organization_id` CHAR(36) COMMENT '所在部门' ;</v>
       </c>
       <c r="H26" t="str">
-        <f>"ALTER TABLE `"&amp;B26&amp;"` ADD COLUMN `"&amp;C26&amp;"` "&amp;E26&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_chop` ADD COLUMN `organization_id` CHAR(36);</v>
       </c>
     </row>
@@ -2738,7 +2781,7 @@
         <v>ALTER TABLE `t_chop` CHANGE COLUMN `step1_idea` `step1_idea` VARCHAR(200) COMMENT '事业部/项目部审核意见' ;</v>
       </c>
       <c r="H27" t="str">
-        <f>"ALTER TABLE `"&amp;B27&amp;"` ADD COLUMN `"&amp;C27&amp;"` "&amp;E27&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_chop` ADD COLUMN `step1_idea` VARCHAR(200);</v>
       </c>
     </row>
@@ -2767,7 +2810,7 @@
         <v>ALTER TABLE `t_chop` CHANGE COLUMN `step1_user` `step1_user` CHAR(36) COMMENT '事业部/项目部审核人' ;</v>
       </c>
       <c r="H28" t="str">
-        <f>"ALTER TABLE `"&amp;B28&amp;"` ADD COLUMN `"&amp;C28&amp;"` "&amp;E28&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_chop` ADD COLUMN `step1_user` CHAR(36);</v>
       </c>
     </row>
@@ -2796,7 +2839,7 @@
         <v>ALTER TABLE `t_chop` CHANGE COLUMN `step1_time` `step1_time` DATETIME(0) COMMENT '事业部/项目部审核时间' ;</v>
       </c>
       <c r="H29" t="str">
-        <f>"ALTER TABLE `"&amp;B29&amp;"` ADD COLUMN `"&amp;C29&amp;"` "&amp;E29&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_chop` ADD COLUMN `step1_time` DATETIME(0);</v>
       </c>
     </row>
@@ -2825,7 +2868,7 @@
         <v>ALTER TABLE `t_chop` CHANGE COLUMN `step2_idea` `step2_idea` VARCHAR(200) COMMENT '财务部审核意见' ;</v>
       </c>
       <c r="H30" t="str">
-        <f>"ALTER TABLE `"&amp;B30&amp;"` ADD COLUMN `"&amp;C30&amp;"` "&amp;E30&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_chop` ADD COLUMN `step2_idea` VARCHAR(200);</v>
       </c>
     </row>
@@ -2854,7 +2897,7 @@
         <v>ALTER TABLE `t_chop` CHANGE COLUMN `step2_user` `step2_user` CHAR(36) COMMENT '财务部审核人' ;</v>
       </c>
       <c r="H31" t="str">
-        <f>"ALTER TABLE `"&amp;B31&amp;"` ADD COLUMN `"&amp;C31&amp;"` "&amp;E31&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_chop` ADD COLUMN `step2_user` CHAR(36);</v>
       </c>
     </row>
@@ -2883,7 +2926,7 @@
         <v>ALTER TABLE `t_chop` CHANGE COLUMN `step2_time` `step2_time` DATETIME(0) COMMENT '财务部审核时间' ;</v>
       </c>
       <c r="H32" t="str">
-        <f>"ALTER TABLE `"&amp;B32&amp;"` ADD COLUMN `"&amp;C32&amp;"` "&amp;E32&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_chop` ADD COLUMN `step2_time` DATETIME(0);</v>
       </c>
     </row>
@@ -2912,7 +2955,7 @@
         <v>ALTER TABLE `t_chop` CHANGE COLUMN `step3_idea` `step3_idea` VARCHAR(200) COMMENT '经办人办理结果' ;</v>
       </c>
       <c r="H33" t="str">
-        <f>"ALTER TABLE `"&amp;B33&amp;"` ADD COLUMN `"&amp;C33&amp;"` "&amp;E33&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_chop` ADD COLUMN `step3_idea` VARCHAR(200);</v>
       </c>
     </row>
@@ -2941,7 +2984,7 @@
         <v>ALTER TABLE `t_chop` CHANGE COLUMN `step3_user` `step3_user` CHAR(36) COMMENT '经办人' ;</v>
       </c>
       <c r="H34" t="str">
-        <f>"ALTER TABLE `"&amp;B34&amp;"` ADD COLUMN `"&amp;C34&amp;"` "&amp;E34&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_chop` ADD COLUMN `step3_user` CHAR(36);</v>
       </c>
     </row>
@@ -2970,7 +3013,7 @@
         <v>ALTER TABLE `t_chop` CHANGE COLUMN `step3_time` `step3_time` DATETIME(0) COMMENT '经办时间' ;</v>
       </c>
       <c r="H35" t="str">
-        <f>"ALTER TABLE `"&amp;B35&amp;"` ADD COLUMN `"&amp;C35&amp;"` "&amp;E35&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_chop` ADD COLUMN `step3_time` DATETIME(0);</v>
       </c>
     </row>
@@ -2999,7 +3042,7 @@
         <v>ALTER TABLE `t_chop` CHANGE COLUMN `step_status` `step_status` VARCHAR(20) COMMENT '流程状态' ;</v>
       </c>
       <c r="H36" t="str">
-        <f>"ALTER TABLE `"&amp;B36&amp;"` ADD COLUMN `"&amp;C36&amp;"` "&amp;E36&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_chop` ADD COLUMN `step_status` VARCHAR(20);</v>
       </c>
     </row>
@@ -3028,7 +3071,7 @@
         <v>ALTER TABLE `t_collections` CHANGE COLUMN `id` `id` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="H37" t="str">
-        <f>"ALTER TABLE `"&amp;B37&amp;"` ADD COLUMN `"&amp;C37&amp;"` "&amp;E37&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_collections` ADD COLUMN `id` CHAR(36) NOT NULL;</v>
       </c>
     </row>
@@ -3057,7 +3100,7 @@
         <v>ALTER TABLE `t_collections` CHANGE COLUMN `project_id` `project_id` CHAR(36) COMMENT '项目ID' ;</v>
       </c>
       <c r="H38" t="str">
-        <f>"ALTER TABLE `"&amp;B38&amp;"` ADD COLUMN `"&amp;C38&amp;"` "&amp;E38&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_collections` ADD COLUMN `project_id` CHAR(36);</v>
       </c>
     </row>
@@ -3086,7 +3129,7 @@
         <v>ALTER TABLE `t_collections` CHANGE COLUMN `ticket_code` `ticket_code` VARCHAR(50) COMMENT '凭证号' ;</v>
       </c>
       <c r="H39" t="str">
-        <f>"ALTER TABLE `"&amp;B39&amp;"` ADD COLUMN `"&amp;C39&amp;"` "&amp;E39&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_collections` ADD COLUMN `ticket_code` VARCHAR(50);</v>
       </c>
     </row>
@@ -3115,7 +3158,7 @@
         <v>ALTER TABLE `t_collections` CHANGE COLUMN `source_of` `source_of` VARCHAR(50) COMMENT '款项来源' ;</v>
       </c>
       <c r="H40" t="str">
-        <f>"ALTER TABLE `"&amp;B40&amp;"` ADD COLUMN `"&amp;C40&amp;"` "&amp;E40&amp;";"</f>
+        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_collections` ADD COLUMN `source_of` VARCHAR(50);</v>
       </c>
     </row>
@@ -3144,7 +3187,7 @@
         <v>ALTER TABLE `t_collections` CHANGE COLUMN `payment_type` `payment_type` VARCHAR(50) COMMENT '收款方式' ;</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" ref="H41:H104" si="2">"ALTER TABLE `"&amp;B41&amp;"` ADD COLUMN `"&amp;C41&amp;"` "&amp;E41&amp;";"</f>
+        <f t="shared" ref="H41:H104" si="3">"ALTER TABLE `"&amp;B41&amp;"` ADD COLUMN `"&amp;C41&amp;"` "&amp;E41&amp;";"</f>
         <v>ALTER TABLE `t_collections` ADD COLUMN `payment_type` VARCHAR(50);</v>
       </c>
     </row>
@@ -3173,7 +3216,7 @@
         <v>ALTER TABLE `t_collections` CHANGE COLUMN `amount` `amount` DECIMAL(20,4) COMMENT '收款金额' ;</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_collections` ADD COLUMN `amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -3202,7 +3245,7 @@
         <v>ALTER TABLE `t_collections` CHANGE COLUMN `bank_account` `bank_account` VARCHAR(50) COMMENT '银行账号' ;</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_collections` ADD COLUMN `bank_account` VARCHAR(50);</v>
       </c>
     </row>
@@ -3231,7 +3274,7 @@
         <v>ALTER TABLE `t_collections` CHANGE COLUMN `bank_name` `bank_name` VARCHAR(200) COMMENT '开户行名称' ;</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_collections` ADD COLUMN `bank_name` VARCHAR(200);</v>
       </c>
     </row>
@@ -3260,7 +3303,7 @@
         <v>ALTER TABLE `t_collections` CHANGE COLUMN `trice` `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '收款时间' ;</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_collections` ADD COLUMN `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
@@ -3289,7 +3332,7 @@
         <v>ALTER TABLE `t_collections` CHANGE COLUMN `create_time` `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_collections` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
@@ -3318,7 +3361,7 @@
         <v>ALTER TABLE `t_collections` CHANGE COLUMN `create_user` `create_user` CHAR(36) COMMENT '创建用户' ;</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_collections` ADD COLUMN `create_user` CHAR(36);</v>
       </c>
     </row>
@@ -3347,7 +3390,7 @@
         <v>ALTER TABLE `t_collections` CHANGE COLUMN `update_time` `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_collections` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
@@ -3376,7 +3419,7 @@
         <v>ALTER TABLE `t_collections` CHANGE COLUMN `update_user` `update_user` CHAR(36) COMMENT '修改用户' ;</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_collections` ADD COLUMN `update_user` CHAR(36);</v>
       </c>
     </row>
@@ -3405,7 +3448,7 @@
         <v>ALTER TABLE `t_collections` CHANGE COLUMN `description` `description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_collections` ADD COLUMN `description` VARCHAR(500);</v>
       </c>
     </row>
@@ -3434,7 +3477,7 @@
         <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `id` `id` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_contract_change` ADD COLUMN `id` CHAR(36) NOT NULL;</v>
       </c>
     </row>
@@ -3463,7 +3506,7 @@
         <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `project_id` `project_id` CHAR(36) COMMENT '项目ID' ;</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_contract_change` ADD COLUMN `project_id` CHAR(36);</v>
       </c>
     </row>
@@ -3492,7 +3535,7 @@
         <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `csa_code` `csa_code` VARCHAR(50) COMMENT '增补协议编号' ;</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_contract_change` ADD COLUMN `csa_code` VARCHAR(50);</v>
       </c>
     </row>
@@ -3521,7 +3564,7 @@
         <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `management_rate` `management_rate` DECIMAL(20,4) COMMENT '管理费率' ;</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_contract_change` ADD COLUMN `management_rate` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -3550,7 +3593,7 @@
         <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `change_amount` `change_amount` DECIMAL(20,4) COMMENT '增减金额' ;</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_contract_change` ADD COLUMN `change_amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -3579,7 +3622,7 @@
         <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `trice` `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '增补时间' ;</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_contract_change` ADD COLUMN `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
@@ -3608,7 +3651,7 @@
         <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `create_time` `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_contract_change` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
@@ -3637,7 +3680,7 @@
         <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `create_user` `create_user` CHAR(36) COMMENT '创建用户' ;</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_contract_change` ADD COLUMN `create_user` CHAR(36);</v>
       </c>
     </row>
@@ -3666,7 +3709,7 @@
         <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `update_time` `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_contract_change` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
@@ -3695,7 +3738,7 @@
         <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `update_user` `update_user` CHAR(36) COMMENT '修改用户' ;</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_contract_change` ADD COLUMN `update_user` CHAR(36);</v>
       </c>
     </row>
@@ -3724,7 +3767,7 @@
         <v>ALTER TABLE `t_contract_change` CHANGE COLUMN `description` `description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_contract_change` ADD COLUMN `description` VARCHAR(500);</v>
       </c>
     </row>
@@ -3753,7 +3796,7 @@
         <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `id` `id` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_customer_billing` ADD COLUMN `id` CHAR(36) NOT NULL;</v>
       </c>
     </row>
@@ -3782,7 +3825,7 @@
         <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `project_id` `project_id` CHAR(36) COMMENT '项目ID' ;</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_customer_billing` ADD COLUMN `project_id` CHAR(36);</v>
       </c>
     </row>
@@ -3811,7 +3854,7 @@
         <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `invoice_code` `invoice_code` VARCHAR(50) COMMENT '发票票号' ;</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_customer_billing` ADD COLUMN `invoice_code` VARCHAR(50);</v>
       </c>
     </row>
@@ -3840,7 +3883,7 @@
         <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `invoice_type` `invoice_type` VARCHAR(50) COMMENT '发票类别' ;</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_customer_billing` ADD COLUMN `invoice_type` VARCHAR(50);</v>
       </c>
     </row>
@@ -3861,15 +3904,15 @@
         <v>14</v>
       </c>
       <c r="F66" s="8" t="str">
-        <f t="shared" ref="F66:F129" si="3">IF(C66="ID","",H66)</f>
+        <f t="shared" ref="F66:F129" si="4">IF(C66="ID","",H66)</f>
         <v>ALTER TABLE `t_customer_billing` ADD COLUMN `amount` DECIMAL(20,4);</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" ref="G66:G129" si="4">"ALTER TABLE `"&amp;B66&amp;"` CHANGE COLUMN `"&amp;C66&amp;"` `"&amp;C66&amp;"` "&amp;E66&amp;" COMMENT '"&amp;D66&amp;"' ;"</f>
+        <f t="shared" ref="G66:G129" si="5">"ALTER TABLE `"&amp;B66&amp;"` CHANGE COLUMN `"&amp;C66&amp;"` `"&amp;C66&amp;"` "&amp;E66&amp;" COMMENT '"&amp;D66&amp;"' ;"</f>
         <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `amount` `amount` DECIMAL(20,4) COMMENT '发票金额' ;</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ALTER TABLE `t_customer_billing` ADD COLUMN `amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -3890,17 +3933,17 @@
         <v>22</v>
       </c>
       <c r="F67" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `trice` `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '开票时间' ;</v>
+      </c>
+      <c r="H67" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_customer_billing` ADD COLUMN `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
-      <c r="G67" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `trice` `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '开票时间' ;</v>
-      </c>
-      <c r="H67" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
-      </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
@@ -3919,17 +3962,17 @@
         <v>22</v>
       </c>
       <c r="F68" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `create_time` `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
+      </c>
+      <c r="H68" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_customer_billing` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
-      <c r="G68" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `create_time` `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
-      </c>
-      <c r="H68" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
-      </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
@@ -3948,17 +3991,17 @@
         <v>4</v>
       </c>
       <c r="F69" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `create_user` CHAR(36);</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `create_user` `create_user` CHAR(36) COMMENT '创建用户' ;</v>
+      </c>
+      <c r="H69" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_customer_billing` ADD COLUMN `create_user` CHAR(36);</v>
       </c>
-      <c r="G69" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `create_user` `create_user` CHAR(36) COMMENT '创建用户' ;</v>
-      </c>
-      <c r="H69" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `create_user` CHAR(36);</v>
-      </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
@@ -3977,17 +4020,17 @@
         <v>22</v>
       </c>
       <c r="F70" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `update_time` `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
+      </c>
+      <c r="H70" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_customer_billing` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
-      <c r="G70" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `update_time` `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
-      </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
@@ -4006,17 +4049,17 @@
         <v>4</v>
       </c>
       <c r="F71" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `update_user` CHAR(36);</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `update_user` `update_user` CHAR(36) COMMENT '修改用户' ;</v>
+      </c>
+      <c r="H71" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_customer_billing` ADD COLUMN `update_user` CHAR(36);</v>
       </c>
-      <c r="G71" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `update_user` `update_user` CHAR(36) COMMENT '修改用户' ;</v>
-      </c>
-      <c r="H71" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `update_user` CHAR(36);</v>
-      </c>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
@@ -4035,17 +4078,17 @@
         <v>33</v>
       </c>
       <c r="F72" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `description` VARCHAR(500);</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `description` `description` VARCHAR(500) COMMENT '备注' ;</v>
+      </c>
+      <c r="H72" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_customer_billing` ADD COLUMN `description` VARCHAR(500);</v>
       </c>
-      <c r="G72" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_customer_billing` CHANGE COLUMN `description` `description` VARCHAR(500) COMMENT '备注' ;</v>
-      </c>
-      <c r="H72" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_customer_billing` ADD COLUMN `description` VARCHAR(500);</v>
-      </c>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
@@ -4064,15 +4107,15 @@
         <v>224</v>
       </c>
       <c r="F73" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `id` `id` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
+      </c>
+      <c r="H73" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G73" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `id` `id` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
-      </c>
-      <c r="H73" t="str">
-        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_information` ADD COLUMN `id` CHAR(36) NOT NULL;</v>
       </c>
     </row>
@@ -4093,17 +4136,17 @@
         <v>4</v>
       </c>
       <c r="F74" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_information` ADD COLUMN `organization_id` CHAR(36);</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `organization_id` `organization_id` CHAR(36) COMMENT '所在部门' ;</v>
+      </c>
+      <c r="H74" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_information` ADD COLUMN `organization_id` CHAR(36);</v>
       </c>
-      <c r="G74" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `organization_id` `organization_id` CHAR(36) COMMENT '所在部门' ;</v>
-      </c>
-      <c r="H74" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `organization_id` CHAR(36);</v>
-      </c>
     </row>
     <row r="75" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
@@ -4122,17 +4165,17 @@
         <v>19</v>
       </c>
       <c r="F75" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_information` ADD COLUMN `project_name` VARCHAR(200);</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `project_name` `project_name` VARCHAR(200) COMMENT '项目名称' ;</v>
+      </c>
+      <c r="H75" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_information` ADD COLUMN `project_name` VARCHAR(200);</v>
       </c>
-      <c r="G75" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `project_name` `project_name` VARCHAR(200) COMMENT '项目名称' ;</v>
-      </c>
-      <c r="H75" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `project_name` VARCHAR(200);</v>
-      </c>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
@@ -4151,17 +4194,17 @@
         <v>19</v>
       </c>
       <c r="F76" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_information` ADD COLUMN `address` VARCHAR(200);</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `address` `address` VARCHAR(200) COMMENT '地址' ;</v>
+      </c>
+      <c r="H76" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_information` ADD COLUMN `address` VARCHAR(200);</v>
       </c>
-      <c r="G76" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `address` `address` VARCHAR(200) COMMENT '地址' ;</v>
-      </c>
-      <c r="H76" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `address` VARCHAR(200);</v>
-      </c>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
@@ -4180,17 +4223,17 @@
         <v>19</v>
       </c>
       <c r="F77" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_information` ADD COLUMN `developer` VARCHAR(200);</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `developer` `developer` VARCHAR(200) COMMENT '开发商' ;</v>
+      </c>
+      <c r="H77" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_information` ADD COLUMN `developer` VARCHAR(200);</v>
       </c>
-      <c r="G77" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `developer` `developer` VARCHAR(200) COMMENT '开发商' ;</v>
-      </c>
-      <c r="H77" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `developer` VARCHAR(200);</v>
-      </c>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
@@ -4209,17 +4252,17 @@
         <v>19</v>
       </c>
       <c r="F78" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_information` ADD COLUMN `epc_corporation` VARCHAR(200);</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `epc_corporation` `epc_corporation` VARCHAR(200) COMMENT '总包单位' ;</v>
+      </c>
+      <c r="H78" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_information` ADD COLUMN `epc_corporation` VARCHAR(200);</v>
       </c>
-      <c r="G78" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `epc_corporation` `epc_corporation` VARCHAR(200) COMMENT '总包单位' ;</v>
-      </c>
-      <c r="H78" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `epc_corporation` VARCHAR(200);</v>
-      </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
@@ -4238,17 +4281,17 @@
         <v>105</v>
       </c>
       <c r="F79" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_information` ADD COLUMN `variety` VARCHAR(100);</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `variety` `variety` VARCHAR(100) COMMENT '品种' ;</v>
+      </c>
+      <c r="H79" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_information` ADD COLUMN `variety` VARCHAR(100);</v>
       </c>
-      <c r="G79" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `variety` `variety` VARCHAR(100) COMMENT '品种' ;</v>
-      </c>
-      <c r="H79" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `variety` VARCHAR(100);</v>
-      </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
@@ -4267,17 +4310,17 @@
         <v>43</v>
       </c>
       <c r="F80" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_information` ADD COLUMN `total_area` VARCHAR(20);</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `total_area` `total_area` VARCHAR(20) COMMENT '总面积' ;</v>
+      </c>
+      <c r="H80" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_information` ADD COLUMN `total_area` VARCHAR(20);</v>
       </c>
-      <c r="G80" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `total_area` `total_area` VARCHAR(20) COMMENT '总面积' ;</v>
-      </c>
-      <c r="H80" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `total_area` VARCHAR(20);</v>
-      </c>
     </row>
     <row r="81" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
@@ -4296,17 +4339,17 @@
         <v>43</v>
       </c>
       <c r="F81" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_information` ADD COLUMN `real_name` VARCHAR(20);</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `real_name` `real_name` VARCHAR(20) COMMENT '姓名' ;</v>
+      </c>
+      <c r="H81" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_information` ADD COLUMN `real_name` VARCHAR(20);</v>
       </c>
-      <c r="G81" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `real_name` `real_name` VARCHAR(20) COMMENT '姓名' ;</v>
-      </c>
-      <c r="H81" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `real_name` VARCHAR(20);</v>
-      </c>
     </row>
     <row r="82" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
@@ -4325,17 +4368,17 @@
         <v>43</v>
       </c>
       <c r="F82" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_information` ADD COLUMN `identification` VARCHAR(20);</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `identification` `identification` VARCHAR(20) COMMENT '身份证号' ;</v>
+      </c>
+      <c r="H82" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_information` ADD COLUMN `identification` VARCHAR(20);</v>
       </c>
-      <c r="G82" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `identification` `identification` VARCHAR(20) COMMENT '身份证号' ;</v>
-      </c>
-      <c r="H82" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `identification` VARCHAR(20);</v>
-      </c>
     </row>
     <row r="83" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
@@ -4354,17 +4397,17 @@
         <v>105</v>
       </c>
       <c r="F83" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_information` ADD COLUMN `contact` VARCHAR(100);</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `contact` `contact` VARCHAR(100) COMMENT '联系方式' ;</v>
+      </c>
+      <c r="H83" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_information` ADD COLUMN `contact` VARCHAR(100);</v>
       </c>
-      <c r="G83" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `contact` `contact` VARCHAR(100) COMMENT '联系方式' ;</v>
-      </c>
-      <c r="H83" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `contact` VARCHAR(100);</v>
-      </c>
     </row>
     <row r="84" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
@@ -4383,17 +4426,17 @@
         <v>4</v>
       </c>
       <c r="F84" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_information` ADD COLUMN `subscriber` CHAR(36);</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `subscriber` `subscriber` CHAR(36) COMMENT '登记人' ;</v>
+      </c>
+      <c r="H84" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_information` ADD COLUMN `subscriber` CHAR(36);</v>
       </c>
-      <c r="G84" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `subscriber` `subscriber` CHAR(36) COMMENT '登记人' ;</v>
-      </c>
-      <c r="H84" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `subscriber` CHAR(36);</v>
-      </c>
     </row>
     <row r="85" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
@@ -4412,17 +4455,17 @@
         <v>22</v>
       </c>
       <c r="F85" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_information` ADD COLUMN `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `trice` `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '登记时间' ;</v>
+      </c>
+      <c r="H85" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_information` ADD COLUMN `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
-      <c r="G85" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `trice` `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '登记时间' ;</v>
-      </c>
-      <c r="H85" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
-      </c>
     </row>
     <row r="86" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
@@ -4441,17 +4484,17 @@
         <v>22</v>
       </c>
       <c r="F86" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_information` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `create_time` `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
+      </c>
+      <c r="H86" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_information` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
-      <c r="G86" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `create_time` `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
-      </c>
-      <c r="H86" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
-      </c>
     </row>
     <row r="87" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
@@ -4470,17 +4513,17 @@
         <v>4</v>
       </c>
       <c r="F87" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_information` ADD COLUMN `create_user` CHAR(36);</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `create_user` `create_user` CHAR(36) COMMENT '创建用户' ;</v>
+      </c>
+      <c r="H87" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_information` ADD COLUMN `create_user` CHAR(36);</v>
       </c>
-      <c r="G87" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `create_user` `create_user` CHAR(36) COMMENT '创建用户' ;</v>
-      </c>
-      <c r="H87" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `create_user` CHAR(36);</v>
-      </c>
     </row>
     <row r="88" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
@@ -4499,17 +4542,17 @@
         <v>22</v>
       </c>
       <c r="F88" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_information` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `update_time` `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
+      </c>
+      <c r="H88" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_information` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
-      <c r="G88" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `update_time` `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
-      </c>
-      <c r="H88" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
-      </c>
     </row>
     <row r="89" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
@@ -4528,17 +4571,17 @@
         <v>4</v>
       </c>
       <c r="F89" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_information` ADD COLUMN `update_user` CHAR(36);</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `update_user` `update_user` CHAR(36) COMMENT '修改用户' ;</v>
+      </c>
+      <c r="H89" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_information` ADD COLUMN `update_user` CHAR(36);</v>
       </c>
-      <c r="G89" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `update_user` `update_user` CHAR(36) COMMENT '修改用户' ;</v>
-      </c>
-      <c r="H89" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `update_user` CHAR(36);</v>
-      </c>
     </row>
     <row r="90" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
@@ -4557,17 +4600,17 @@
         <v>33</v>
       </c>
       <c r="F90" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_information` ADD COLUMN `description` VARCHAR(500);</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_information` CHANGE COLUMN `description` `description` VARCHAR(500) COMMENT '备注' ;</v>
+      </c>
+      <c r="H90" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_information` ADD COLUMN `description` VARCHAR(500);</v>
       </c>
-      <c r="G90" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_information` CHANGE COLUMN `description` `description` VARCHAR(500) COMMENT '备注' ;</v>
-      </c>
-      <c r="H90" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_information` ADD COLUMN `description` VARCHAR(500);</v>
-      </c>
     </row>
     <row r="91" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
@@ -4586,15 +4629,15 @@
         <v>224</v>
       </c>
       <c r="F91" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `id` `id` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
+      </c>
+      <c r="H91" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G91" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `id` `id` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
-      </c>
-      <c r="H91" t="str">
-        <f t="shared" si="2"/>
         <v>ALTER TABLE `t_party_billing` ADD COLUMN `id` CHAR(36) NOT NULL;</v>
       </c>
     </row>
@@ -4615,17 +4658,17 @@
         <v>4</v>
       </c>
       <c r="F92" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `project_id` CHAR(36);</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `project_id` `project_id` CHAR(36) COMMENT '项目ID' ;</v>
+      </c>
+      <c r="H92" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_party_billing` ADD COLUMN `project_id` CHAR(36);</v>
       </c>
-      <c r="G92" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `project_id` `project_id` CHAR(36) COMMENT '项目ID' ;</v>
-      </c>
-      <c r="H92" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `project_id` CHAR(36);</v>
-      </c>
     </row>
     <row r="93" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -4644,17 +4687,17 @@
         <v>9</v>
       </c>
       <c r="F93" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `invoice_code` VARCHAR(50);</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `invoice_code` `invoice_code` VARCHAR(50) COMMENT '发票票号' ;</v>
+      </c>
+      <c r="H93" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_party_billing` ADD COLUMN `invoice_code` VARCHAR(50);</v>
       </c>
-      <c r="G93" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `invoice_code` `invoice_code` VARCHAR(50) COMMENT '发票票号' ;</v>
-      </c>
-      <c r="H93" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `invoice_code` VARCHAR(50);</v>
-      </c>
     </row>
     <row r="94" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
@@ -4673,17 +4716,17 @@
         <v>14</v>
       </c>
       <c r="F94" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `amount` DECIMAL(20,4);</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `amount` `amount` DECIMAL(20,4) COMMENT '发票金额' ;</v>
+      </c>
+      <c r="H94" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_party_billing` ADD COLUMN `amount` DECIMAL(20,4);</v>
       </c>
-      <c r="G94" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `amount` `amount` DECIMAL(20,4) COMMENT '发票金额' ;</v>
-      </c>
-      <c r="H94" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `amount` DECIMAL(20,4);</v>
-      </c>
     </row>
     <row r="95" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
@@ -4702,17 +4745,17 @@
         <v>22</v>
       </c>
       <c r="F95" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `trice` `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '开票时间' ;</v>
+      </c>
+      <c r="H95" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_party_billing` ADD COLUMN `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
-      <c r="G95" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `trice` `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '开票时间' ;</v>
-      </c>
-      <c r="H95" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
-      </c>
     </row>
     <row r="96" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
@@ -4731,17 +4774,17 @@
         <v>14</v>
       </c>
       <c r="F96" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `tax_rate` DECIMAL(20,4);</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `tax_rate` `tax_rate` DECIMAL(20,4) COMMENT '税率' ;</v>
+      </c>
+      <c r="H96" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_party_billing` ADD COLUMN `tax_rate` DECIMAL(20,4);</v>
       </c>
-      <c r="G96" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `tax_rate` `tax_rate` DECIMAL(20,4) COMMENT '税率' ;</v>
-      </c>
-      <c r="H96" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `tax_rate` DECIMAL(20,4);</v>
-      </c>
     </row>
     <row r="97" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
@@ -4760,17 +4803,17 @@
         <v>14</v>
       </c>
       <c r="F97" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `tax_amount` DECIMAL(20,4);</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `tax_amount` `tax_amount` DECIMAL(20,4) COMMENT '应收税金' ;</v>
+      </c>
+      <c r="H97" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_party_billing` ADD COLUMN `tax_amount` DECIMAL(20,4);</v>
       </c>
-      <c r="G97" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `tax_amount` `tax_amount` DECIMAL(20,4) COMMENT '应收税金' ;</v>
-      </c>
-      <c r="H97" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `tax_amount` DECIMAL(20,4);</v>
-      </c>
     </row>
     <row r="98" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
@@ -4789,17 +4832,17 @@
         <v>105</v>
       </c>
       <c r="F98" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `step1_idea` VARCHAR(100);</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `step1_idea` `step1_idea` VARCHAR(100) COMMENT '审核意见' ;</v>
+      </c>
+      <c r="H98" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_party_billing` ADD COLUMN `step1_idea` VARCHAR(100);</v>
       </c>
-      <c r="G98" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `step1_idea` `step1_idea` VARCHAR(100) COMMENT '审核意见' ;</v>
-      </c>
-      <c r="H98" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `step1_idea` VARCHAR(100);</v>
-      </c>
     </row>
     <row r="99" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
@@ -4818,17 +4861,17 @@
         <v>4</v>
       </c>
       <c r="F99" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `step1_user` CHAR(36);</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `step1_user` `step1_user` CHAR(36) COMMENT '审核人' ;</v>
+      </c>
+      <c r="H99" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_party_billing` ADD COLUMN `step1_user` CHAR(36);</v>
       </c>
-      <c r="G99" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `step1_user` `step1_user` CHAR(36) COMMENT '审核人' ;</v>
-      </c>
-      <c r="H99" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `step1_user` CHAR(36);</v>
-      </c>
     </row>
     <row r="100" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
@@ -4847,17 +4890,17 @@
         <v>50</v>
       </c>
       <c r="F100" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `step1_time` DATETIME(0);</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `step1_time` `step1_time` DATETIME(0) COMMENT '审核时间' ;</v>
+      </c>
+      <c r="H100" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_party_billing` ADD COLUMN `step1_time` DATETIME(0);</v>
       </c>
-      <c r="G100" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `step1_time` `step1_time` DATETIME(0) COMMENT '审核时间' ;</v>
-      </c>
-      <c r="H100" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `step1_time` DATETIME(0);</v>
-      </c>
     </row>
     <row r="101" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
@@ -4876,17 +4919,17 @@
         <v>43</v>
       </c>
       <c r="F101" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `step_status` VARCHAR(20);</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `step_status` `step_status` VARCHAR(20) COMMENT '流程状态' ;</v>
+      </c>
+      <c r="H101" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_party_billing` ADD COLUMN `step_status` VARCHAR(20);</v>
       </c>
-      <c r="G101" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `step_status` `step_status` VARCHAR(20) COMMENT '流程状态' ;</v>
-      </c>
-      <c r="H101" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `step_status` VARCHAR(20);</v>
-      </c>
     </row>
     <row r="102" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
@@ -4905,17 +4948,17 @@
         <v>22</v>
       </c>
       <c r="F102" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `create_time` `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
+      </c>
+      <c r="H102" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_party_billing` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
-      <c r="G102" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `create_time` `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
-      </c>
-      <c r="H102" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
-      </c>
     </row>
     <row r="103" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
@@ -4934,17 +4977,17 @@
         <v>4</v>
       </c>
       <c r="F103" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `create_user` CHAR(36);</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `create_user` `create_user` CHAR(36) COMMENT '创建用户' ;</v>
+      </c>
+      <c r="H103" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_party_billing` ADD COLUMN `create_user` CHAR(36);</v>
       </c>
-      <c r="G103" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `create_user` `create_user` CHAR(36) COMMENT '创建用户' ;</v>
-      </c>
-      <c r="H103" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `create_user` CHAR(36);</v>
-      </c>
     </row>
     <row r="104" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
@@ -4963,17 +5006,17 @@
         <v>22</v>
       </c>
       <c r="F104" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>ALTER TABLE `t_party_billing` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="5"/>
+        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `update_time` `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
+      </c>
+      <c r="H104" t="str">
         <f t="shared" si="3"/>
         <v>ALTER TABLE `t_party_billing` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
-      <c r="G104" t="str">
-        <f t="shared" si="4"/>
-        <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `update_time` `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
-      </c>
-      <c r="H104" t="str">
-        <f t="shared" si="2"/>
-        <v>ALTER TABLE `t_party_billing` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
-      </c>
     </row>
     <row r="105" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
@@ -4992,15 +5035,15 @@
         <v>4</v>
       </c>
       <c r="F105" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_party_billing` ADD COLUMN `update_user` CHAR(36);</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `update_user` `update_user` CHAR(36) COMMENT '修改用户' ;</v>
       </c>
       <c r="H105" t="str">
-        <f t="shared" ref="H105:H168" si="5">"ALTER TABLE `"&amp;B105&amp;"` ADD COLUMN `"&amp;C105&amp;"` "&amp;E105&amp;";"</f>
+        <f t="shared" ref="H105:H168" si="6">"ALTER TABLE `"&amp;B105&amp;"` ADD COLUMN `"&amp;C105&amp;"` "&amp;E105&amp;";"</f>
         <v>ALTER TABLE `t_party_billing` ADD COLUMN `update_user` CHAR(36);</v>
       </c>
     </row>
@@ -5021,15 +5064,15 @@
         <v>33</v>
       </c>
       <c r="F106" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_party_billing` ADD COLUMN `description` VARCHAR(500);</v>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_party_billing` CHANGE COLUMN `description` `description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
       <c r="H106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_party_billing` ADD COLUMN `description` VARCHAR(500);</v>
       </c>
     </row>
@@ -5050,15 +5093,15 @@
         <v>224</v>
       </c>
       <c r="F107" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment` CHANGE COLUMN `id` `id` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="H107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `id` CHAR(36) NOT NULL;</v>
       </c>
     </row>
@@ -5079,15 +5122,15 @@
         <v>4</v>
       </c>
       <c r="F108" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `project_id` CHAR(36);</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment` CHANGE COLUMN `project_id` `project_id` CHAR(36) COMMENT '项目ID' ;</v>
       </c>
       <c r="H108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `project_id` CHAR(36);</v>
       </c>
     </row>
@@ -5108,15 +5151,15 @@
         <v>9</v>
       </c>
       <c r="F109" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `ticket_code` VARCHAR(50);</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment` CHANGE COLUMN `ticket_code` `ticket_code` VARCHAR(50) COMMENT '凭证号' ;</v>
       </c>
       <c r="H109" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `ticket_code` VARCHAR(50);</v>
       </c>
     </row>
@@ -5137,15 +5180,15 @@
         <v>9</v>
       </c>
       <c r="F110" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `pay_type` VARCHAR(50);</v>
       </c>
       <c r="G110" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment` CHANGE COLUMN `pay_type` `pay_type` VARCHAR(50) COMMENT '支付方式' ;</v>
       </c>
       <c r="H110" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `pay_type` VARCHAR(50);</v>
       </c>
     </row>
@@ -5166,15 +5209,15 @@
         <v>4</v>
       </c>
       <c r="F111" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `payment_item_id` CHAR(36);</v>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment` CHANGE COLUMN `payment_item_id` `payment_item_id` CHAR(36) COMMENT '付款科目ID' ;</v>
       </c>
       <c r="H111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `payment_item_id` CHAR(36);</v>
       </c>
     </row>
@@ -5195,15 +5238,15 @@
         <v>14</v>
       </c>
       <c r="F112" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `amount` DECIMAL(20,4);</v>
       </c>
       <c r="G112" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment` CHANGE COLUMN `amount` `amount` DECIMAL(20,4) COMMENT '付款金额' ;</v>
       </c>
       <c r="H112" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -5224,15 +5267,15 @@
         <v>9</v>
       </c>
       <c r="F113" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `bank_account` VARCHAR(50);</v>
       </c>
       <c r="G113" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment` CHANGE COLUMN `bank_account` `bank_account` VARCHAR(50) COMMENT '银行账号' ;</v>
       </c>
       <c r="H113" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `bank_account` VARCHAR(50);</v>
       </c>
     </row>
@@ -5253,15 +5296,15 @@
         <v>19</v>
       </c>
       <c r="F114" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `bank_name` VARCHAR(200);</v>
       </c>
       <c r="G114" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment` CHANGE COLUMN `bank_name` `bank_name` VARCHAR(200) COMMENT '开户行名称' ;</v>
       </c>
       <c r="H114" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `bank_name` VARCHAR(200);</v>
       </c>
     </row>
@@ -5282,15 +5325,15 @@
         <v>22</v>
       </c>
       <c r="F115" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="G115" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment` CHANGE COLUMN `trice` `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '付款时间' ;</v>
       </c>
       <c r="H115" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
@@ -5311,15 +5354,15 @@
         <v>22</v>
       </c>
       <c r="F116" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="G116" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment` CHANGE COLUMN `create_time` `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
       </c>
       <c r="H116" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
@@ -5340,15 +5383,15 @@
         <v>4</v>
       </c>
       <c r="F117" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `create_user` CHAR(36);</v>
       </c>
       <c r="G117" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment` CHANGE COLUMN `create_user` `create_user` CHAR(36) COMMENT '创建用户' ;</v>
       </c>
       <c r="H117" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `create_user` CHAR(36);</v>
       </c>
     </row>
@@ -5369,15 +5412,15 @@
         <v>22</v>
       </c>
       <c r="F118" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="G118" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment` CHANGE COLUMN `update_time` `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
       </c>
       <c r="H118" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
@@ -5398,15 +5441,15 @@
         <v>4</v>
       </c>
       <c r="F119" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `update_user` CHAR(36);</v>
       </c>
       <c r="G119" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment` CHANGE COLUMN `update_user` `update_user` CHAR(36) COMMENT '修改用户' ;</v>
       </c>
       <c r="H119" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `update_user` CHAR(36);</v>
       </c>
     </row>
@@ -5427,15 +5470,15 @@
         <v>33</v>
       </c>
       <c r="F120" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `description` VARCHAR(500);</v>
       </c>
       <c r="G120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment` CHANGE COLUMN `description` `description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
       <c r="H120" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment` ADD COLUMN `description` VARCHAR(500);</v>
       </c>
     </row>
@@ -5456,15 +5499,15 @@
         <v>224</v>
       </c>
       <c r="F121" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `id` `id` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="H121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment_item` ADD COLUMN `id` CHAR(36) NOT NULL;</v>
       </c>
     </row>
@@ -5485,15 +5528,15 @@
         <v>9</v>
       </c>
       <c r="F122" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_payment_item` ADD COLUMN `item_name` VARCHAR(50);</v>
       </c>
       <c r="G122" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `item_name` `item_name` VARCHAR(50) COMMENT '付款科目名称' ;</v>
       </c>
       <c r="H122" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment_item` ADD COLUMN `item_name` VARCHAR(50);</v>
       </c>
     </row>
@@ -5514,15 +5557,15 @@
         <v>14</v>
       </c>
       <c r="F123" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_payment_item` ADD COLUMN `reimbursement_cap` DECIMAL(20,4);</v>
       </c>
       <c r="G123" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `reimbursement_cap` `reimbursement_cap` DECIMAL(20,4) COMMENT '报销比例上限' ;</v>
       </c>
       <c r="H123" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment_item` ADD COLUMN `reimbursement_cap` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -5543,15 +5586,15 @@
         <v>22</v>
       </c>
       <c r="F124" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_payment_item` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="G124" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `create_time` `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
       </c>
       <c r="H124" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment_item` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
@@ -5572,15 +5615,15 @@
         <v>4</v>
       </c>
       <c r="F125" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_payment_item` ADD COLUMN `create_user` CHAR(36);</v>
       </c>
       <c r="G125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `create_user` `create_user` CHAR(36) COMMENT '创建用户' ;</v>
       </c>
       <c r="H125" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment_item` ADD COLUMN `create_user` CHAR(36);</v>
       </c>
     </row>
@@ -5601,15 +5644,15 @@
         <v>22</v>
       </c>
       <c r="F126" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_payment_item` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="G126" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `update_time` `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
       </c>
       <c r="H126" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment_item` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
@@ -5630,15 +5673,15 @@
         <v>4</v>
       </c>
       <c r="F127" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_payment_item` ADD COLUMN `update_user` CHAR(36);</v>
       </c>
       <c r="G127" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `update_user` `update_user` CHAR(36) COMMENT '修改用户' ;</v>
       </c>
       <c r="H127" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment_item` ADD COLUMN `update_user` CHAR(36);</v>
       </c>
     </row>
@@ -5659,15 +5702,15 @@
         <v>33</v>
       </c>
       <c r="F128" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ALTER TABLE `t_payment_item` ADD COLUMN `description` VARCHAR(500);</v>
       </c>
       <c r="G128" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_payment_item` CHANGE COLUMN `description` `description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
       <c r="H128" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_payment_item` ADD COLUMN `description` VARCHAR(500);</v>
       </c>
     </row>
@@ -5688,15 +5731,15 @@
         <v>224</v>
       </c>
       <c r="F129" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_profile` CHANGE COLUMN `id` `id` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="H129" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_profile` ADD COLUMN `id` CHAR(36) NOT NULL;</v>
       </c>
     </row>
@@ -5717,15 +5760,15 @@
         <v>4</v>
       </c>
       <c r="F130" s="8" t="str">
-        <f t="shared" ref="F130:F193" si="6">IF(C130="ID","",H130)</f>
+        <f t="shared" ref="F130:F193" si="7">IF(C130="ID","",H130)</f>
         <v>ALTER TABLE `t_profile` ADD COLUMN `project_id` CHAR(36);</v>
       </c>
       <c r="G130" t="str">
-        <f t="shared" ref="G130:G193" si="7">"ALTER TABLE `"&amp;B130&amp;"` CHANGE COLUMN `"&amp;C130&amp;"` `"&amp;C130&amp;"` "&amp;E130&amp;" COMMENT '"&amp;D130&amp;"' ;"</f>
+        <f t="shared" ref="G130:G193" si="8">"ALTER TABLE `"&amp;B130&amp;"` CHANGE COLUMN `"&amp;C130&amp;"` `"&amp;C130&amp;"` "&amp;E130&amp;" COMMENT '"&amp;D130&amp;"' ;"</f>
         <v>ALTER TABLE `t_profile` CHANGE COLUMN `project_id` `project_id` CHAR(36) COMMENT '项目ID' ;</v>
       </c>
       <c r="H130" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ALTER TABLE `t_profile` ADD COLUMN `project_id` CHAR(36);</v>
       </c>
     </row>
@@ -5746,17 +5789,17 @@
         <v>14</v>
       </c>
       <c r="F131" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `expected_value` DECIMAL(20,4);</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_profile` CHANGE COLUMN `expected_value` `expected_value` DECIMAL(20,4) COMMENT '预计用量' ;</v>
+      </c>
+      <c r="H131" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_profile` ADD COLUMN `expected_value` DECIMAL(20,4);</v>
       </c>
-      <c r="G131" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_profile` CHANGE COLUMN `expected_value` `expected_value` DECIMAL(20,4) COMMENT '预计用量' ;</v>
-      </c>
-      <c r="H131" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `expected_value` DECIMAL(20,4);</v>
-      </c>
     </row>
     <row r="132" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
@@ -5775,17 +5818,17 @@
         <v>105</v>
       </c>
       <c r="F132" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `profile_point` VARCHAR(100);</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_profile` CHANGE COLUMN `profile_point` `profile_point` VARCHAR(100) COMMENT '型材点' ;</v>
+      </c>
+      <c r="H132" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_profile` ADD COLUMN `profile_point` VARCHAR(100);</v>
       </c>
-      <c r="G132" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_profile` CHANGE COLUMN `profile_point` `profile_point` VARCHAR(100) COMMENT '型材点' ;</v>
-      </c>
-      <c r="H132" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `profile_point` VARCHAR(100);</v>
-      </c>
     </row>
     <row r="133" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
@@ -5804,17 +5847,17 @@
         <v>22</v>
       </c>
       <c r="F133" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_profile` CHANGE COLUMN `trice` `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '登记时间' ;</v>
+      </c>
+      <c r="H133" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_profile` ADD COLUMN `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
-      <c r="G133" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_profile` CHANGE COLUMN `trice` `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '登记时间' ;</v>
-      </c>
-      <c r="H133" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
-      </c>
     </row>
     <row r="134" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
@@ -5833,17 +5876,17 @@
         <v>22</v>
       </c>
       <c r="F134" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_profile` CHANGE COLUMN `create_time` `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
+      </c>
+      <c r="H134" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_profile` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
-      <c r="G134" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_profile` CHANGE COLUMN `create_time` `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
-      </c>
-      <c r="H134" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
-      </c>
     </row>
     <row r="135" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
@@ -5862,17 +5905,17 @@
         <v>4</v>
       </c>
       <c r="F135" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `create_user` CHAR(36);</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_profile` CHANGE COLUMN `create_user` `create_user` CHAR(36) COMMENT '创建用户' ;</v>
+      </c>
+      <c r="H135" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_profile` ADD COLUMN `create_user` CHAR(36);</v>
       </c>
-      <c r="G135" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_profile` CHANGE COLUMN `create_user` `create_user` CHAR(36) COMMENT '创建用户' ;</v>
-      </c>
-      <c r="H135" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `create_user` CHAR(36);</v>
-      </c>
     </row>
     <row r="136" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
@@ -5891,17 +5934,17 @@
         <v>22</v>
       </c>
       <c r="F136" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_profile` CHANGE COLUMN `update_time` `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
+      </c>
+      <c r="H136" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_profile` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
-      <c r="G136" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_profile` CHANGE COLUMN `update_time` `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
-      </c>
-      <c r="H136" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
-      </c>
     </row>
     <row r="137" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
@@ -5920,17 +5963,17 @@
         <v>4</v>
       </c>
       <c r="F137" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `update_user` CHAR(36);</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_profile` CHANGE COLUMN `update_user` `update_user` CHAR(36) COMMENT '修改用户' ;</v>
+      </c>
+      <c r="H137" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_profile` ADD COLUMN `update_user` CHAR(36);</v>
       </c>
-      <c r="G137" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_profile` CHANGE COLUMN `update_user` `update_user` CHAR(36) COMMENT '修改用户' ;</v>
-      </c>
-      <c r="H137" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `update_user` CHAR(36);</v>
-      </c>
     </row>
     <row r="138" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
@@ -5949,17 +5992,17 @@
         <v>33</v>
       </c>
       <c r="F138" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_profile` ADD COLUMN `description` VARCHAR(500);</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_profile` CHANGE COLUMN `description` `description` VARCHAR(500) COMMENT '备注' ;</v>
+      </c>
+      <c r="H138" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_profile` ADD COLUMN `description` VARCHAR(500);</v>
       </c>
-      <c r="G138" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_profile` CHANGE COLUMN `description` `description` VARCHAR(500) COMMENT '备注' ;</v>
-      </c>
-      <c r="H138" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_profile` ADD COLUMN `description` VARCHAR(500);</v>
-      </c>
     </row>
     <row r="139" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
@@ -5978,15 +6021,15 @@
         <v>224</v>
       </c>
       <c r="F139" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `id` `id` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
+      </c>
+      <c r="H139" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G139" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `id` `id` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
-      </c>
-      <c r="H139" t="str">
-        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `id` CHAR(36) NOT NULL;</v>
       </c>
     </row>
@@ -6007,17 +6050,17 @@
         <v>9</v>
       </c>
       <c r="F140" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `project_code` VARCHAR(50);</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `project_code` `project_code` VARCHAR(50) COMMENT '项目编号' ;</v>
+      </c>
+      <c r="H140" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `project_code` VARCHAR(50);</v>
       </c>
-      <c r="G140" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `project_code` `project_code` VARCHAR(50) COMMENT '项目编号' ;</v>
-      </c>
-      <c r="H140" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `project_code` VARCHAR(50);</v>
-      </c>
     </row>
     <row r="141" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
@@ -6036,17 +6079,17 @@
         <v>105</v>
       </c>
       <c r="F141" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `project_name` VARCHAR(100);</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `project_name` `project_name` VARCHAR(100) COMMENT '项目名称' ;</v>
+      </c>
+      <c r="H141" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `project_name` VARCHAR(100);</v>
       </c>
-      <c r="G141" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `project_name` `project_name` VARCHAR(100) COMMENT '项目名称' ;</v>
-      </c>
-      <c r="H141" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `project_name` VARCHAR(100);</v>
-      </c>
     </row>
     <row r="142" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
@@ -6065,17 +6108,17 @@
         <v>4</v>
       </c>
       <c r="F142" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `organization_id` CHAR(36);</v>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `organization_id` `organization_id` CHAR(36) COMMENT '所在部门' ;</v>
+      </c>
+      <c r="H142" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `organization_id` CHAR(36);</v>
       </c>
-      <c r="G142" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `organization_id` `organization_id` CHAR(36) COMMENT '所在部门' ;</v>
-      </c>
-      <c r="H142" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `organization_id` CHAR(36);</v>
-      </c>
     </row>
     <row r="143" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
@@ -6094,17 +6137,17 @@
         <v>105</v>
       </c>
       <c r="F143" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `party_name` VARCHAR(100);</v>
+      </c>
+      <c r="G143" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `party_name` `party_name` VARCHAR(100) COMMENT '甲方名称' ;</v>
+      </c>
+      <c r="H143" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `party_name` VARCHAR(100);</v>
       </c>
-      <c r="G143" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `party_name` `party_name` VARCHAR(100) COMMENT '甲方名称' ;</v>
-      </c>
-      <c r="H143" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `party_name` VARCHAR(100);</v>
-      </c>
     </row>
     <row r="144" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
@@ -6123,17 +6166,17 @@
         <v>19</v>
       </c>
       <c r="F144" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `party_address` VARCHAR(200);</v>
+      </c>
+      <c r="G144" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `party_address` `party_address` VARCHAR(200) COMMENT '甲方地址' ;</v>
+      </c>
+      <c r="H144" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `party_address` VARCHAR(200);</v>
       </c>
-      <c r="G144" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `party_address` `party_address` VARCHAR(200) COMMENT '甲方地址' ;</v>
-      </c>
-      <c r="H144" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `party_address` VARCHAR(200);</v>
-      </c>
     </row>
     <row r="145" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
@@ -6152,17 +6195,17 @@
         <v>9</v>
       </c>
       <c r="F145" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `manager` VARCHAR(50);</v>
+      </c>
+      <c r="G145" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `manager` `manager` VARCHAR(50) COMMENT '项目经理' ;</v>
+      </c>
+      <c r="H145" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `manager` VARCHAR(50);</v>
       </c>
-      <c r="G145" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `manager` `manager` VARCHAR(50) COMMENT '项目经理' ;</v>
-      </c>
-      <c r="H145" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `manager` VARCHAR(50);</v>
-      </c>
     </row>
     <row r="146" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
@@ -6181,17 +6224,17 @@
         <v>9</v>
       </c>
       <c r="F146" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `contract_code` VARCHAR(50);</v>
+      </c>
+      <c r="G146" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `contract_code` `contract_code` VARCHAR(50) COMMENT '合同号' ;</v>
+      </c>
+      <c r="H146" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `contract_code` VARCHAR(50);</v>
       </c>
-      <c r="G146" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `contract_code` `contract_code` VARCHAR(50) COMMENT '合同号' ;</v>
-      </c>
-      <c r="H146" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `contract_code` VARCHAR(50);</v>
-      </c>
     </row>
     <row r="147" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
@@ -6210,17 +6253,17 @@
         <v>105</v>
       </c>
       <c r="F147" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `cooperation` VARCHAR(100);</v>
+      </c>
+      <c r="G147" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `cooperation` `cooperation` VARCHAR(100) COMMENT '合作单位' ;</v>
+      </c>
+      <c r="H147" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `cooperation` VARCHAR(100);</v>
       </c>
-      <c r="G147" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `cooperation` `cooperation` VARCHAR(100) COMMENT '合作单位' ;</v>
-      </c>
-      <c r="H147" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `cooperation` VARCHAR(100);</v>
-      </c>
     </row>
     <row r="148" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
@@ -6239,17 +6282,17 @@
         <v>9</v>
       </c>
       <c r="F148" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `legal_assignee` VARCHAR(50);</v>
+      </c>
+      <c r="G148" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `legal_assignee` `legal_assignee` VARCHAR(50) COMMENT '法人代表' ;</v>
+      </c>
+      <c r="H148" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `legal_assignee` VARCHAR(50);</v>
       </c>
-      <c r="G148" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `legal_assignee` `legal_assignee` VARCHAR(50) COMMENT '法人代表' ;</v>
-      </c>
-      <c r="H148" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `legal_assignee` VARCHAR(50);</v>
-      </c>
     </row>
     <row r="149" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
@@ -6268,17 +6311,17 @@
         <v>152</v>
       </c>
       <c r="F149" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `is_withholding_offsite` TINYINT;</v>
+      </c>
+      <c r="G149" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `is_withholding_offsite` `is_withholding_offsite` TINYINT COMMENT '异地代扣代缴' ;</v>
+      </c>
+      <c r="H149" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `is_withholding_offsite` TINYINT;</v>
       </c>
-      <c r="G149" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `is_withholding_offsite` `is_withholding_offsite` TINYINT COMMENT '异地代扣代缴' ;</v>
-      </c>
-      <c r="H149" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `is_withholding_offsite` TINYINT;</v>
-      </c>
     </row>
     <row r="150" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
@@ -6297,17 +6340,17 @@
         <v>14</v>
       </c>
       <c r="F150" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `management_rate` DECIMAL(20,4);</v>
+      </c>
+      <c r="G150" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `management_rate` `management_rate` DECIMAL(20,4) COMMENT '管理费率' ;</v>
+      </c>
+      <c r="H150" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `management_rate` DECIMAL(20,4);</v>
       </c>
-      <c r="G150" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `management_rate` `management_rate` DECIMAL(20,4) COMMENT '管理费率' ;</v>
-      </c>
-      <c r="H150" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `management_rate` DECIMAL(20,4);</v>
-      </c>
     </row>
     <row r="151" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
@@ -6326,17 +6369,17 @@
         <v>14</v>
       </c>
       <c r="F151" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `tax_rate` DECIMAL(20,4);</v>
+      </c>
+      <c r="G151" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `tax_rate` `tax_rate` DECIMAL(20,4) COMMENT '税金比率' ;</v>
+      </c>
+      <c r="H151" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `tax_rate` DECIMAL(20,4);</v>
       </c>
-      <c r="G151" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `tax_rate` `tax_rate` DECIMAL(20,4) COMMENT '税金比率' ;</v>
-      </c>
-      <c r="H151" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `tax_rate` DECIMAL(20,4);</v>
-      </c>
     </row>
     <row r="152" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
@@ -6355,17 +6398,17 @@
         <v>14</v>
       </c>
       <c r="F152" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `contract_amount` DECIMAL(20,4);</v>
+      </c>
+      <c r="G152" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `contract_amount` `contract_amount` DECIMAL(20,4) COMMENT '合同金额' ;</v>
+      </c>
+      <c r="H152" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `contract_amount` DECIMAL(20,4);</v>
       </c>
-      <c r="G152" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `contract_amount` `contract_amount` DECIMAL(20,4) COMMENT '合同金额' ;</v>
-      </c>
-      <c r="H152" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `contract_amount` DECIMAL(20,4);</v>
-      </c>
     </row>
     <row r="153" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
@@ -6384,17 +6427,17 @@
         <v>14</v>
       </c>
       <c r="F153" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `settlement_amount` DECIMAL(20,4);</v>
+      </c>
+      <c r="G153" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `settlement_amount` `settlement_amount` DECIMAL(20,4) COMMENT '结算金额' ;</v>
+      </c>
+      <c r="H153" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `settlement_amount` DECIMAL(20,4);</v>
       </c>
-      <c r="G153" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `settlement_amount` `settlement_amount` DECIMAL(20,4) COMMENT '结算金额' ;</v>
-      </c>
-      <c r="H153" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `settlement_amount` DECIMAL(20,4);</v>
-      </c>
     </row>
     <row r="154" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
@@ -6413,17 +6456,17 @@
         <v>50</v>
       </c>
       <c r="F154" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `duty_paid_time` DATETIME(0);</v>
+      </c>
+      <c r="G154" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `duty_paid_time` `duty_paid_time` DATETIME(0) COMMENT '印花税上交时间' ;</v>
+      </c>
+      <c r="H154" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `duty_paid_time` DATETIME(0);</v>
       </c>
-      <c r="G154" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `duty_paid_time` `duty_paid_time` DATETIME(0) COMMENT '印花税上交时间' ;</v>
-      </c>
-      <c r="H154" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `duty_paid_time` DATETIME(0);</v>
-      </c>
     </row>
     <row r="155" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
@@ -6442,17 +6485,17 @@
         <v>14</v>
       </c>
       <c r="F155" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `duty_paid_amount` DECIMAL(20,4);</v>
+      </c>
+      <c r="G155" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `duty_paid_amount` `duty_paid_amount` DECIMAL(20,4) COMMENT '印花税上交金额' ;</v>
+      </c>
+      <c r="H155" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `duty_paid_amount` DECIMAL(20,4);</v>
       </c>
-      <c r="G155" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `duty_paid_amount` `duty_paid_amount` DECIMAL(20,4) COMMENT '印花税上交金额' ;</v>
-      </c>
-      <c r="H155" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `duty_paid_amount` DECIMAL(20,4);</v>
-      </c>
     </row>
     <row r="156" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
@@ -6471,17 +6514,17 @@
         <v>9</v>
       </c>
       <c r="F156" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `duty_paid_code` VARCHAR(50);</v>
+      </c>
+      <c r="G156" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `duty_paid_code` `duty_paid_code` VARCHAR(50) COMMENT '印花税收据编号' ;</v>
+      </c>
+      <c r="H156" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `duty_paid_code` VARCHAR(50);</v>
       </c>
-      <c r="G156" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `duty_paid_code` `duty_paid_code` VARCHAR(50) COMMENT '印花税收据编号' ;</v>
-      </c>
-      <c r="H156" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `duty_paid_code` VARCHAR(50);</v>
-      </c>
     </row>
     <row r="157" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
@@ -6500,17 +6543,17 @@
         <v>14</v>
       </c>
       <c r="F157" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `capital_occupied` DECIMAL(20,4);</v>
+      </c>
+      <c r="G157" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `capital_occupied` `capital_occupied` DECIMAL(20,4) COMMENT '占用资金情况' ;</v>
+      </c>
+      <c r="H157" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `capital_occupied` DECIMAL(20,4);</v>
       </c>
-      <c r="G157" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `capital_occupied` `capital_occupied` DECIMAL(20,4) COMMENT '占用资金情况' ;</v>
-      </c>
-      <c r="H157" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `capital_occupied` DECIMAL(20,4);</v>
-      </c>
     </row>
     <row r="158" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
@@ -6529,17 +6572,17 @@
         <v>152</v>
       </c>
       <c r="F158" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `project_status` TINYINT;</v>
+      </c>
+      <c r="G158" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `project_status` `project_status` TINYINT COMMENT '项目状态' ;</v>
+      </c>
+      <c r="H158" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `project_status` TINYINT;</v>
       </c>
-      <c r="G158" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `project_status` `project_status` TINYINT COMMENT '项目状态' ;</v>
-      </c>
-      <c r="H158" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `project_status` TINYINT;</v>
-      </c>
     </row>
     <row r="159" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
@@ -6558,17 +6601,17 @@
         <v>22</v>
       </c>
       <c r="F159" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+      <c r="G159" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `trice` `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '登记时间' ;</v>
+      </c>
+      <c r="H159" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
-      <c r="G159" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `trice` `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '登记时间' ;</v>
-      </c>
-      <c r="H159" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `trice` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
-      </c>
     </row>
     <row r="160" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
@@ -6587,17 +6630,17 @@
         <v>22</v>
       </c>
       <c r="F160" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+      <c r="G160" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `create_time` `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
+      </c>
+      <c r="H160" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
-      <c r="G160" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `create_time` `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
-      </c>
-      <c r="H160" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
-      </c>
     </row>
     <row r="161" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
@@ -6616,17 +6659,17 @@
         <v>4</v>
       </c>
       <c r="F161" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `create_user` CHAR(36);</v>
+      </c>
+      <c r="G161" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `create_user` `create_user` CHAR(36) COMMENT '创建用户' ;</v>
+      </c>
+      <c r="H161" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `create_user` CHAR(36);</v>
       </c>
-      <c r="G161" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `create_user` `create_user` CHAR(36) COMMENT '创建用户' ;</v>
-      </c>
-      <c r="H161" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `create_user` CHAR(36);</v>
-      </c>
     </row>
     <row r="162" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
@@ -6645,17 +6688,17 @@
         <v>22</v>
       </c>
       <c r="F162" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+      <c r="G162" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `update_time` `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
+      </c>
+      <c r="H162" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
-      <c r="G162" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `update_time` `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
-      </c>
-      <c r="H162" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
-      </c>
     </row>
     <row r="163" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
@@ -6674,17 +6717,17 @@
         <v>4</v>
       </c>
       <c r="F163" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `update_user` CHAR(36);</v>
+      </c>
+      <c r="G163" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `update_user` `update_user` CHAR(36) COMMENT '修改用户' ;</v>
+      </c>
+      <c r="H163" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `update_user` CHAR(36);</v>
       </c>
-      <c r="G163" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `update_user` `update_user` CHAR(36) COMMENT '修改用户' ;</v>
-      </c>
-      <c r="H163" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `update_user` CHAR(36);</v>
-      </c>
     </row>
     <row r="164" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
@@ -6703,17 +6746,17 @@
         <v>33</v>
       </c>
       <c r="F164" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_project` ADD COLUMN `description` VARCHAR(500);</v>
+      </c>
+      <c r="G164" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_project` CHANGE COLUMN `description` `description` VARCHAR(500) COMMENT '备注' ;</v>
+      </c>
+      <c r="H164" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_project` ADD COLUMN `description` VARCHAR(500);</v>
       </c>
-      <c r="G164" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_project` CHANGE COLUMN `description` `description` VARCHAR(500) COMMENT '备注' ;</v>
-      </c>
-      <c r="H164" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_project` ADD COLUMN `description` VARCHAR(500);</v>
-      </c>
     </row>
     <row r="165" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
@@ -6732,15 +6775,15 @@
         <v>224</v>
       </c>
       <c r="F165" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G165" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_sys_authorization` CHANGE COLUMN `id` `id` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
+      </c>
+      <c r="H165" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G165" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_authorization` CHANGE COLUMN `id` `id` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
-      </c>
-      <c r="H165" t="str">
-        <f t="shared" si="5"/>
         <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `id` CHAR(36) NOT NULL;</v>
       </c>
     </row>
@@ -6761,17 +6804,17 @@
         <v>4</v>
       </c>
       <c r="F166" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `resource_id` CHAR(36);</v>
+      </c>
+      <c r="G166" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_sys_authorization` CHANGE COLUMN `resource_id` `resource_id` CHAR(36) COMMENT '资源ID' ;</v>
+      </c>
+      <c r="H166" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `resource_id` CHAR(36);</v>
       </c>
-      <c r="G166" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_authorization` CHANGE COLUMN `resource_id` `resource_id` CHAR(36) COMMENT '资源ID' ;</v>
-      </c>
-      <c r="H166" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `resource_id` CHAR(36);</v>
-      </c>
     </row>
     <row r="167" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
@@ -6790,17 +6833,17 @@
         <v>4</v>
       </c>
       <c r="F167" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `user_id` CHAR(36);</v>
+      </c>
+      <c r="G167" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_sys_authorization` CHANGE COLUMN `user_id` `user_id` CHAR(36) COMMENT '用户ID' ;</v>
+      </c>
+      <c r="H167" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `user_id` CHAR(36);</v>
       </c>
-      <c r="G167" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_authorization` CHANGE COLUMN `user_id` `user_id` CHAR(36) COMMENT '用户ID' ;</v>
-      </c>
-      <c r="H167" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `user_id` CHAR(36);</v>
-      </c>
     </row>
     <row r="168" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
@@ -6819,17 +6862,17 @@
         <v>22</v>
       </c>
       <c r="F168" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+      <c r="G168" t="str">
+        <f t="shared" si="8"/>
+        <v>ALTER TABLE `t_sys_authorization` CHANGE COLUMN `create_time` `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
+      </c>
+      <c r="H168" t="str">
         <f t="shared" si="6"/>
         <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
-      <c r="G168" t="str">
-        <f t="shared" si="7"/>
-        <v>ALTER TABLE `t_sys_authorization` CHANGE COLUMN `create_time` `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
-      </c>
-      <c r="H168" t="str">
-        <f t="shared" si="5"/>
-        <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
-      </c>
     </row>
     <row r="169" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
@@ -6848,15 +6891,15 @@
         <v>4</v>
       </c>
       <c r="F169" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `create_user` CHAR(36);</v>
       </c>
       <c r="G169" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_authorization` CHANGE COLUMN `create_user` `create_user` CHAR(36) COMMENT '创建用户' ;</v>
       </c>
       <c r="H169" t="str">
-        <f t="shared" ref="H169:H232" si="8">"ALTER TABLE `"&amp;B169&amp;"` ADD COLUMN `"&amp;C169&amp;"` "&amp;E169&amp;";"</f>
+        <f t="shared" ref="H169:H232" si="9">"ALTER TABLE `"&amp;B169&amp;"` ADD COLUMN `"&amp;C169&amp;"` "&amp;E169&amp;";"</f>
         <v>ALTER TABLE `t_sys_authorization` ADD COLUMN `create_user` CHAR(36);</v>
       </c>
     </row>
@@ -6877,15 +6920,15 @@
         <v>224</v>
       </c>
       <c r="F170" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G170" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_organization` CHANGE COLUMN `id` `id` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="H170" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_organization` ADD COLUMN `id` CHAR(36) NOT NULL;</v>
       </c>
     </row>
@@ -6906,15 +6949,15 @@
         <v>9</v>
       </c>
       <c r="F171" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_organization` ADD COLUMN `organization_name` VARCHAR(50);</v>
       </c>
       <c r="G171" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_organization` CHANGE COLUMN `organization_name` `organization_name` VARCHAR(50) COMMENT '机构名称' ;</v>
       </c>
       <c r="H171" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_organization` ADD COLUMN `organization_name` VARCHAR(50);</v>
       </c>
     </row>
@@ -6935,15 +6978,15 @@
         <v>22</v>
       </c>
       <c r="F172" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_organization` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="G172" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_organization` CHANGE COLUMN `create_time` `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
       </c>
       <c r="H172" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_organization` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
@@ -6964,15 +7007,15 @@
         <v>33</v>
       </c>
       <c r="F173" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_organization` ADD COLUMN `description` VARCHAR(500);</v>
       </c>
       <c r="G173" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_organization` CHANGE COLUMN `description` `description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
       <c r="H173" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_organization` ADD COLUMN `description` VARCHAR(500);</v>
       </c>
     </row>
@@ -6993,15 +7036,15 @@
         <v>224</v>
       </c>
       <c r="F174" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G174" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `id` `id` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="H174" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `id` CHAR(36) NOT NULL;</v>
       </c>
     </row>
@@ -7022,15 +7065,15 @@
         <v>105</v>
       </c>
       <c r="F175" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `en_name` VARCHAR(100);</v>
       </c>
       <c r="G175" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `en_name` `en_name` VARCHAR(100) COMMENT '参数英文名称' ;</v>
       </c>
       <c r="H175" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `en_name` VARCHAR(100);</v>
       </c>
     </row>
@@ -7051,15 +7094,15 @@
         <v>105</v>
       </c>
       <c r="F176" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `cn_name` VARCHAR(100);</v>
       </c>
       <c r="G176" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `cn_name` `cn_name` VARCHAR(100) COMMENT '参数中文名称' ;</v>
       </c>
       <c r="H176" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `cn_name` VARCHAR(100);</v>
       </c>
     </row>
@@ -7080,15 +7123,15 @@
         <v>33</v>
       </c>
       <c r="F177" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `param_value` VARCHAR(500);</v>
       </c>
       <c r="G177" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `param_value` `param_value` VARCHAR(500) COMMENT '参数值' ;</v>
       </c>
       <c r="H177" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `param_value` VARCHAR(500);</v>
       </c>
     </row>
@@ -7109,15 +7152,15 @@
         <v>33</v>
       </c>
       <c r="F178" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `default_value` VARCHAR(500);</v>
       </c>
       <c r="G178" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `default_value` `default_value` VARCHAR(500) COMMENT '默认值' ;</v>
       </c>
       <c r="H178" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `default_value` VARCHAR(500);</v>
       </c>
     </row>
@@ -7138,15 +7181,15 @@
         <v>152</v>
       </c>
       <c r="F179" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `is_inner` TINYINT;</v>
       </c>
       <c r="G179" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `is_inner` `is_inner` TINYINT COMMENT '是否系统内置' ;</v>
       </c>
       <c r="H179" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `is_inner` TINYINT;</v>
       </c>
     </row>
@@ -7167,15 +7210,15 @@
         <v>22</v>
       </c>
       <c r="F180" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="G180" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `create_time` `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
       </c>
       <c r="H180" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
@@ -7196,15 +7239,15 @@
         <v>4</v>
       </c>
       <c r="F181" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `create_user` CHAR(36);</v>
       </c>
       <c r="G181" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `create_user` `create_user` CHAR(36) COMMENT '创建用户' ;</v>
       </c>
       <c r="H181" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `create_user` CHAR(36);</v>
       </c>
     </row>
@@ -7225,15 +7268,15 @@
         <v>22</v>
       </c>
       <c r="F182" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
       <c r="G182" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `update_time` `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
       </c>
       <c r="H182" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
     </row>
@@ -7254,15 +7297,15 @@
         <v>4</v>
       </c>
       <c r="F183" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `update_user` CHAR(36);</v>
       </c>
       <c r="G183" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `update_user` `update_user` CHAR(36) COMMENT '修改用户' ;</v>
       </c>
       <c r="H183" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `update_user` CHAR(36);</v>
       </c>
     </row>
@@ -7283,15 +7326,15 @@
         <v>33</v>
       </c>
       <c r="F184" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `description` VARCHAR(500);</v>
       </c>
       <c r="G184" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_parameter` CHANGE COLUMN `description` `description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
       <c r="H184" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_parameter` ADD COLUMN `description` VARCHAR(500);</v>
       </c>
     </row>
@@ -7312,15 +7355,15 @@
         <v>224</v>
       </c>
       <c r="F185" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G185" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `id` `id` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
       </c>
       <c r="H185" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_resource` ADD COLUMN `id` CHAR(36) NOT NULL;</v>
       </c>
     </row>
@@ -7341,15 +7384,15 @@
         <v>9</v>
       </c>
       <c r="F186" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_resource` ADD COLUMN `rescode` VARCHAR(50);</v>
       </c>
       <c r="G186" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `rescode` `rescode` VARCHAR(50) COMMENT '资源编码' ;</v>
       </c>
       <c r="H186" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_resource` ADD COLUMN `rescode` VARCHAR(50);</v>
       </c>
     </row>
@@ -7370,15 +7413,15 @@
         <v>19</v>
       </c>
       <c r="F187" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_resource` ADD COLUMN `resname` VARCHAR(200);</v>
       </c>
       <c r="G187" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `resname` `resname` VARCHAR(200) COMMENT '图标路径' ;</v>
       </c>
       <c r="H187" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_resource` ADD COLUMN `resname` VARCHAR(200);</v>
       </c>
     </row>
@@ -7399,15 +7442,15 @@
         <v>105</v>
       </c>
       <c r="F188" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_resource` ADD COLUMN `icon` VARCHAR(100);</v>
       </c>
       <c r="G188" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `icon` `icon` VARCHAR(100) COMMENT '资源名称' ;</v>
       </c>
       <c r="H188" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_resource` ADD COLUMN `icon` VARCHAR(100);</v>
       </c>
     </row>
@@ -7428,15 +7471,15 @@
         <v>19</v>
       </c>
       <c r="F189" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_resource` ADD COLUMN `res_url` VARCHAR(200);</v>
       </c>
       <c r="G189" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `res_url` `res_url` VARCHAR(200) COMMENT 'URL地址' ;</v>
       </c>
       <c r="H189" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_resource` ADD COLUMN `res_url` VARCHAR(200);</v>
       </c>
     </row>
@@ -7457,15 +7500,15 @@
         <v>9</v>
       </c>
       <c r="F190" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_resource` ADD COLUMN `res_type` VARCHAR(50);</v>
       </c>
       <c r="G190" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `res_type` `res_type` VARCHAR(50) COMMENT '资源类型' ;</v>
       </c>
       <c r="H190" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_resource` ADD COLUMN `res_type` VARCHAR(50);</v>
       </c>
     </row>
@@ -7486,15 +7529,15 @@
         <v>200</v>
       </c>
       <c r="F191" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_resource` ADD COLUMN `order_by` SMALLINT;</v>
       </c>
       <c r="G191" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `order_by` `order_by` SMALLINT COMMENT '顺序号' ;</v>
       </c>
       <c r="H191" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_resource` ADD COLUMN `order_by` SMALLINT;</v>
       </c>
     </row>
@@ -7515,15 +7558,15 @@
         <v>4</v>
       </c>
       <c r="F192" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_resource` ADD COLUMN `parent_id` CHAR(36);</v>
       </c>
       <c r="G192" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `parent_id` `parent_id` CHAR(36) COMMENT '父ID' ;</v>
       </c>
       <c r="H192" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_resource` ADD COLUMN `parent_id` CHAR(36);</v>
       </c>
     </row>
@@ -7544,15 +7587,15 @@
         <v>200</v>
       </c>
       <c r="F193" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ALTER TABLE `t_sys_resource` ADD COLUMN `enabled` SMALLINT;</v>
       </c>
       <c r="G193" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `enabled` `enabled` SMALLINT COMMENT '是否禁用' ;</v>
       </c>
       <c r="H193" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_resource` ADD COLUMN `enabled` SMALLINT;</v>
       </c>
     </row>
@@ -7573,15 +7616,15 @@
         <v>33</v>
       </c>
       <c r="F194" s="8" t="str">
-        <f t="shared" ref="F194:F243" si="9">IF(C194="ID","",H194)</f>
+        <f t="shared" ref="F194:F243" si="10">IF(C194="ID","",H194)</f>
         <v>ALTER TABLE `t_sys_resource` ADD COLUMN `description` VARCHAR(500);</v>
       </c>
       <c r="G194" t="str">
-        <f t="shared" ref="G194:G243" si="10">"ALTER TABLE `"&amp;B194&amp;"` CHANGE COLUMN `"&amp;C194&amp;"` `"&amp;C194&amp;"` "&amp;E194&amp;" COMMENT '"&amp;D194&amp;"' ;"</f>
+        <f t="shared" ref="G194:G243" si="11">"ALTER TABLE `"&amp;B194&amp;"` CHANGE COLUMN `"&amp;C194&amp;"` `"&amp;C194&amp;"` "&amp;E194&amp;" COMMENT '"&amp;D194&amp;"' ;"</f>
         <v>ALTER TABLE `t_sys_resource` CHANGE COLUMN `description` `description` VARCHAR(500) COMMENT '备注' ;</v>
       </c>
       <c r="H194" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_resource` ADD COLUMN `description` VARCHAR(500);</v>
       </c>
     </row>
@@ -7602,15 +7645,15 @@
         <v>224</v>
       </c>
       <c r="F195" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G195" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `id` `id` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
+      </c>
+      <c r="H195" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G195" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `id` `id` CHAR(36) NOT NULL COMMENT 'ID' ;</v>
-      </c>
-      <c r="H195" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_user` ADD COLUMN `id` CHAR(36) NOT NULL;</v>
       </c>
     </row>
@@ -7631,17 +7674,17 @@
         <v>9</v>
       </c>
       <c r="F196" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `login_name` VARCHAR(50);</v>
+      </c>
+      <c r="G196" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `login_name` `login_name` VARCHAR(50) COMMENT '登陆名' ;</v>
+      </c>
+      <c r="H196" t="str">
         <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_user` ADD COLUMN `login_name` VARCHAR(50);</v>
       </c>
-      <c r="G196" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `login_name` `login_name` VARCHAR(50) COMMENT '登陆名' ;</v>
-      </c>
-      <c r="H196" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `login_name` VARCHAR(50);</v>
-      </c>
     </row>
     <row r="197" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
@@ -7660,17 +7703,17 @@
         <v>9</v>
       </c>
       <c r="F197" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `real_name` VARCHAR(50);</v>
+      </c>
+      <c r="G197" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `real_name` `real_name` VARCHAR(50) COMMENT '姓名' ;</v>
+      </c>
+      <c r="H197" t="str">
         <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_user` ADD COLUMN `real_name` VARCHAR(50);</v>
       </c>
-      <c r="G197" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `real_name` `real_name` VARCHAR(50) COMMENT '姓名' ;</v>
-      </c>
-      <c r="H197" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `real_name` VARCHAR(50);</v>
-      </c>
     </row>
     <row r="198" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
@@ -7689,17 +7732,17 @@
         <v>4</v>
       </c>
       <c r="F198" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `organization_id` CHAR(36);</v>
+      </c>
+      <c r="G198" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `organization_id` `organization_id` CHAR(36) COMMENT '所在部门' ;</v>
+      </c>
+      <c r="H198" t="str">
         <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_user` ADD COLUMN `organization_id` CHAR(36);</v>
       </c>
-      <c r="G198" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `organization_id` `organization_id` CHAR(36) COMMENT '所在部门' ;</v>
-      </c>
-      <c r="H198" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `organization_id` CHAR(36);</v>
-      </c>
     </row>
     <row r="199" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
@@ -7718,17 +7761,17 @@
         <v>9</v>
       </c>
       <c r="F199" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `password` VARCHAR(50);</v>
+      </c>
+      <c r="G199" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `password` `password` VARCHAR(50) COMMENT '密码' ;</v>
+      </c>
+      <c r="H199" t="str">
         <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_user` ADD COLUMN `password` VARCHAR(50);</v>
       </c>
-      <c r="G199" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `password` `password` VARCHAR(50) COMMENT '密码' ;</v>
-      </c>
-      <c r="H199" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `password` VARCHAR(50);</v>
-      </c>
     </row>
     <row r="200" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
@@ -7747,17 +7790,17 @@
         <v>9</v>
       </c>
       <c r="F200" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `last_login_ip` VARCHAR(50);</v>
+      </c>
+      <c r="G200" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `last_login_ip` `last_login_ip` VARCHAR(50) COMMENT '最后登陆IP' ;</v>
+      </c>
+      <c r="H200" t="str">
         <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_user` ADD COLUMN `last_login_ip` VARCHAR(50);</v>
       </c>
-      <c r="G200" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `last_login_ip` `last_login_ip` VARCHAR(50) COMMENT '最后登陆IP' ;</v>
-      </c>
-      <c r="H200" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `last_login_ip` VARCHAR(50);</v>
-      </c>
     </row>
     <row r="201" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
@@ -7776,17 +7819,17 @@
         <v>50</v>
       </c>
       <c r="F201" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `last_login_time` DATETIME(0);</v>
+      </c>
+      <c r="G201" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `last_login_time` `last_login_time` DATETIME(0) COMMENT '最后登陆时间' ;</v>
+      </c>
+      <c r="H201" t="str">
         <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_user` ADD COLUMN `last_login_time` DATETIME(0);</v>
       </c>
-      <c r="G201" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `last_login_time` `last_login_time` DATETIME(0) COMMENT '最后登陆时间' ;</v>
-      </c>
-      <c r="H201" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `last_login_time` DATETIME(0);</v>
-      </c>
     </row>
     <row r="202" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
@@ -7805,17 +7848,17 @@
         <v>200</v>
       </c>
       <c r="F202" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `fails` SMALLINT;</v>
+      </c>
+      <c r="G202" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `fails` `fails` SMALLINT COMMENT '连续登录失败次数' ;</v>
+      </c>
+      <c r="H202" t="str">
         <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_user` ADD COLUMN `fails` SMALLINT;</v>
       </c>
-      <c r="G202" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `fails` `fails` SMALLINT COMMENT '连续登录失败次数' ;</v>
-      </c>
-      <c r="H202" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `fails` SMALLINT;</v>
-      </c>
     </row>
     <row r="203" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
@@ -7834,17 +7877,17 @@
         <v>200</v>
       </c>
       <c r="F203" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `logined` SMALLINT;</v>
+      </c>
+      <c r="G203" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `logined` `logined` SMALLINT COMMENT '登陆总次数' ;</v>
+      </c>
+      <c r="H203" t="str">
         <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_user` ADD COLUMN `logined` SMALLINT;</v>
       </c>
-      <c r="G203" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `logined` `logined` SMALLINT COMMENT '登陆总次数' ;</v>
-      </c>
-      <c r="H203" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `logined` SMALLINT;</v>
-      </c>
     </row>
     <row r="204" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
@@ -7863,17 +7906,17 @@
         <v>9</v>
       </c>
       <c r="F204" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `position` VARCHAR(50);</v>
+      </c>
+      <c r="G204" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `position` `position` VARCHAR(50) COMMENT '职务' ;</v>
+      </c>
+      <c r="H204" t="str">
         <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_user` ADD COLUMN `position` VARCHAR(50);</v>
       </c>
-      <c r="G204" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `position` `position` VARCHAR(50) COMMENT '职务' ;</v>
-      </c>
-      <c r="H204" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `position` VARCHAR(50);</v>
-      </c>
     </row>
     <row r="205" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
@@ -7892,17 +7935,17 @@
         <v>152</v>
       </c>
       <c r="F205" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `enabled` TINYINT;</v>
+      </c>
+      <c r="G205" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `enabled` `enabled` TINYINT COMMENT '是否禁用' ;</v>
+      </c>
+      <c r="H205" t="str">
         <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_user` ADD COLUMN `enabled` TINYINT;</v>
       </c>
-      <c r="G205" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `enabled` `enabled` TINYINT COMMENT '是否禁用' ;</v>
-      </c>
-      <c r="H205" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `enabled` TINYINT;</v>
-      </c>
     </row>
     <row r="206" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
@@ -7921,17 +7964,17 @@
         <v>152</v>
       </c>
       <c r="F206" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `order_by` TINYINT;</v>
+      </c>
+      <c r="G206" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `order_by` `order_by` TINYINT COMMENT '顺序号' ;</v>
+      </c>
+      <c r="H206" t="str">
         <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_user` ADD COLUMN `order_by` TINYINT;</v>
       </c>
-      <c r="G206" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `order_by` `order_by` TINYINT COMMENT '顺序号' ;</v>
-      </c>
-      <c r="H206" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `order_by` TINYINT;</v>
-      </c>
     </row>
     <row r="207" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
@@ -7950,17 +7993,17 @@
         <v>22</v>
       </c>
       <c r="F207" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+      <c r="G207" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `create_time` `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
+      </c>
+      <c r="H207" t="str">
         <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_user` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
-      <c r="G207" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `create_time` `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '创建时间' ;</v>
-      </c>
-      <c r="H207" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `create_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
-      </c>
     </row>
     <row r="208" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
@@ -7979,17 +8022,17 @@
         <v>4</v>
       </c>
       <c r="F208" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `create_user` CHAR(36);</v>
+      </c>
+      <c r="G208" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `create_user` `create_user` CHAR(36) COMMENT '创建用户' ;</v>
+      </c>
+      <c r="H208" t="str">
         <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_user` ADD COLUMN `create_user` CHAR(36);</v>
       </c>
-      <c r="G208" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `create_user` `create_user` CHAR(36) COMMENT '创建用户' ;</v>
-      </c>
-      <c r="H208" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `create_user` CHAR(36);</v>
-      </c>
     </row>
     <row r="209" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
@@ -8008,17 +8051,17 @@
         <v>22</v>
       </c>
       <c r="F209" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
+      </c>
+      <c r="G209" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `update_time` `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
+      </c>
+      <c r="H209" t="str">
         <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_user` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
       </c>
-      <c r="G209" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `update_time` `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP COMMENT '修改时间' ;</v>
-      </c>
-      <c r="H209" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `update_time` DATETIME(0) DEFAULT CURRENT_TIMESTAMP;</v>
-      </c>
     </row>
     <row r="210" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
@@ -8037,17 +8080,17 @@
         <v>4</v>
       </c>
       <c r="F210" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `update_user` CHAR(36);</v>
+      </c>
+      <c r="G210" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `update_user` `update_user` CHAR(36) COMMENT '修改用户' ;</v>
+      </c>
+      <c r="H210" t="str">
         <f t="shared" si="9"/>
         <v>ALTER TABLE `t_sys_user` ADD COLUMN `update_user` CHAR(36);</v>
       </c>
-      <c r="G210" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `update_user` `update_user` CHAR(36) COMMENT '修改用户' ;</v>
-      </c>
-      <c r="H210" t="str">
-        <f t="shared" si="8"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `update_user` CHAR(36);</v>
-      </c>
     </row>
     <row r="211" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
@@ -8066,15 +8109,15 @@
         <v>33</v>
       </c>
       <c r="F211" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_sys_user` ADD COLUMN `description` VARCHAR(500);</v>
+      </c>
+      <c r="G211" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `description` `description` VARCHAR(500) COMMENT '备注' ;</v>
+      </c>
+      <c r="H211" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_sys_user` ADD COLUMN `description` VARCHAR(500);</v>
-      </c>
-      <c r="G211" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_sys_user` CHANGE COLUMN `description` `description` VARCHAR(500) COMMENT '备注' ;</v>
-      </c>
-      <c r="H211" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_sys_user` ADD COLUMN `description` VARCHAR(500);</v>
       </c>
     </row>
@@ -8092,15 +8135,15 @@
         <v>4</v>
       </c>
       <c r="F212" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G212" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `id` `id` CHAR(36) COMMENT 'ID' ;</v>
+      </c>
+      <c r="H212" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G212" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `id` `id` CHAR(36) COMMENT 'ID' ;</v>
-      </c>
-      <c r="H212" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `id` CHAR(36);</v>
       </c>
     </row>
@@ -8118,15 +8161,15 @@
         <v>257</v>
       </c>
       <c r="F213" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_project_summary` ADD COLUMN `trice` DATETIME;</v>
+      </c>
+      <c r="G213" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `trice` `trice` DATETIME COMMENT '时间' ;</v>
+      </c>
+      <c r="H213" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_project_summary` ADD COLUMN `trice` DATETIME;</v>
-      </c>
-      <c r="G213" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `trice` `trice` DATETIME COMMENT '时间' ;</v>
-      </c>
-      <c r="H213" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `trice` DATETIME;</v>
       </c>
     </row>
@@ -8144,15 +8187,15 @@
         <v>33</v>
       </c>
       <c r="F214" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_project_summary` ADD COLUMN `description` VARCHAR(500);</v>
+      </c>
+      <c r="G214" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `description` `description` VARCHAR(500) COMMENT '摘要' ;</v>
+      </c>
+      <c r="H214" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_project_summary` ADD COLUMN `description` VARCHAR(500);</v>
-      </c>
-      <c r="G214" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `description` `description` VARCHAR(500) COMMENT '摘要' ;</v>
-      </c>
-      <c r="H214" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `description` VARCHAR(500);</v>
       </c>
     </row>
@@ -8170,15 +8213,15 @@
         <v>4</v>
       </c>
       <c r="F215" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_project_summary` ADD COLUMN `project_id` CHAR(36);</v>
+      </c>
+      <c r="G215" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `project_id` `project_id` CHAR(36) COMMENT '项目ID' ;</v>
+      </c>
+      <c r="H215" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_project_summary` ADD COLUMN `project_id` CHAR(36);</v>
-      </c>
-      <c r="G215" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `project_id` `project_id` CHAR(36) COMMENT '项目ID' ;</v>
-      </c>
-      <c r="H215" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `project_id` CHAR(36);</v>
       </c>
     </row>
@@ -8196,15 +8239,15 @@
         <v>4</v>
       </c>
       <c r="F216" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_project_summary` ADD COLUMN `organization_id` CHAR(36);</v>
+      </c>
+      <c r="G216" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `organization_id` `organization_id` CHAR(36) COMMENT '所在部门' ;</v>
+      </c>
+      <c r="H216" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_project_summary` ADD COLUMN `organization_id` CHAR(36);</v>
-      </c>
-      <c r="G216" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `organization_id` `organization_id` CHAR(36) COMMENT '所在部门' ;</v>
-      </c>
-      <c r="H216" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `organization_id` CHAR(36);</v>
       </c>
     </row>
@@ -8222,15 +8265,15 @@
         <v>9</v>
       </c>
       <c r="F217" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_project_summary` ADD COLUMN `project_code` VARCHAR(50);</v>
+      </c>
+      <c r="G217" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `project_code` `project_code` VARCHAR(50) COMMENT '项目编号' ;</v>
+      </c>
+      <c r="H217" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_project_summary` ADD COLUMN `project_code` VARCHAR(50);</v>
-      </c>
-      <c r="G217" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `project_code` `project_code` VARCHAR(50) COMMENT '项目编号' ;</v>
-      </c>
-      <c r="H217" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `project_code` VARCHAR(50);</v>
       </c>
     </row>
@@ -8248,15 +8291,15 @@
         <v>105</v>
       </c>
       <c r="F218" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_project_summary` ADD COLUMN `project_name` VARCHAR(100);</v>
+      </c>
+      <c r="G218" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `project_name` `project_name` VARCHAR(100) COMMENT '项目名称' ;</v>
+      </c>
+      <c r="H218" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_project_summary` ADD COLUMN `project_name` VARCHAR(100);</v>
-      </c>
-      <c r="G218" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `project_name` `project_name` VARCHAR(100) COMMENT '项目名称' ;</v>
-      </c>
-      <c r="H218" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `project_name` VARCHAR(100);</v>
       </c>
     </row>
@@ -8274,15 +8317,15 @@
         <v>14</v>
       </c>
       <c r="F219" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_project_summary` ADD COLUMN `contract_amount` DECIMAL(20,4);</v>
+      </c>
+      <c r="G219" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `contract_amount` `contract_amount` DECIMAL(20,4) COMMENT '合同金额' ;</v>
+      </c>
+      <c r="H219" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_project_summary` ADD COLUMN `contract_amount` DECIMAL(20,4);</v>
-      </c>
-      <c r="G219" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `contract_amount` `contract_amount` DECIMAL(20,4) COMMENT '合同金额' ;</v>
-      </c>
-      <c r="H219" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `contract_amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8300,15 +8343,15 @@
         <v>14</v>
       </c>
       <c r="F220" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_project_summary` ADD COLUMN `change_amount` DECIMAL(20,4);</v>
+      </c>
+      <c r="G220" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `change_amount` `change_amount` DECIMAL(20,4) COMMENT '合同调增额' ;</v>
+      </c>
+      <c r="H220" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_project_summary` ADD COLUMN `change_amount` DECIMAL(20,4);</v>
-      </c>
-      <c r="G220" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `change_amount` `change_amount` DECIMAL(20,4) COMMENT '合同调增额' ;</v>
-      </c>
-      <c r="H220" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `change_amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8326,15 +8369,15 @@
         <v>14</v>
       </c>
       <c r="F221" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_project_summary` ADD COLUMN `settlement_amount` DECIMAL(20,4);</v>
+      </c>
+      <c r="G221" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `settlement_amount` `settlement_amount` DECIMAL(20,4) COMMENT '合同结算额' ;</v>
+      </c>
+      <c r="H221" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_project_summary` ADD COLUMN `settlement_amount` DECIMAL(20,4);</v>
-      </c>
-      <c r="G221" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `settlement_amount` `settlement_amount` DECIMAL(20,4) COMMENT '合同结算额' ;</v>
-      </c>
-      <c r="H221" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `settlement_amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8352,15 +8395,15 @@
         <v>14</v>
       </c>
       <c r="F222" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_project_summary` ADD COLUMN `management_rate` DECIMAL(20,4);</v>
+      </c>
+      <c r="G222" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `management_rate` `management_rate` DECIMAL(20,4) COMMENT '比率' ;</v>
+      </c>
+      <c r="H222" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_project_summary` ADD COLUMN `management_rate` DECIMAL(20,4);</v>
-      </c>
-      <c r="G222" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `management_rate` `management_rate` DECIMAL(20,4) COMMENT '比率' ;</v>
-      </c>
-      <c r="H222" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `management_rate` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8378,15 +8421,15 @@
         <v>14</v>
       </c>
       <c r="F223" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_project_summary` ADD COLUMN `management_plan_amount` DECIMAL(20,4);</v>
+      </c>
+      <c r="G223" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `management_plan_amount` `management_plan_amount` DECIMAL(20,4) COMMENT '应收管理费' ;</v>
+      </c>
+      <c r="H223" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_project_summary` ADD COLUMN `management_plan_amount` DECIMAL(20,4);</v>
-      </c>
-      <c r="G223" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `management_plan_amount` `management_plan_amount` DECIMAL(20,4) COMMENT '应收管理费' ;</v>
-      </c>
-      <c r="H223" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `management_plan_amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8404,15 +8447,15 @@
         <v>14</v>
       </c>
       <c r="F224" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_project_summary` ADD COLUMN `management_real_amount` DECIMAL(20,4);</v>
+      </c>
+      <c r="G224" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `management_real_amount` `management_real_amount` DECIMAL(20,4) COMMENT '实收管理费' ;</v>
+      </c>
+      <c r="H224" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_project_summary` ADD COLUMN `management_real_amount` DECIMAL(20,4);</v>
-      </c>
-      <c r="G224" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `management_real_amount` `management_real_amount` DECIMAL(20,4) COMMENT '实收管理费' ;</v>
-      </c>
-      <c r="H224" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `management_real_amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8430,15 +8473,15 @@
         <v>14</v>
       </c>
       <c r="F225" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_project_summary` ADD COLUMN `management_total_amount` DECIMAL(20,4);</v>
+      </c>
+      <c r="G225" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `management_total_amount` `management_total_amount` DECIMAL(20,4) COMMENT '累计收管理费' ;</v>
+      </c>
+      <c r="H225" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_project_summary` ADD COLUMN `management_total_amount` DECIMAL(20,4);</v>
-      </c>
-      <c r="G225" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `management_total_amount` `management_total_amount` DECIMAL(20,4) COMMENT '累计收管理费' ;</v>
-      </c>
-      <c r="H225" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `management_total_amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8456,15 +8499,15 @@
         <v>14</v>
       </c>
       <c r="F226" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_project_summary` ADD COLUMN `management_owe_amount` DECIMAL(20,4);</v>
+      </c>
+      <c r="G226" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `management_owe_amount` `management_owe_amount` DECIMAL(20,4) COMMENT '尚欠管理费' ;</v>
+      </c>
+      <c r="H226" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_project_summary` ADD COLUMN `management_owe_amount` DECIMAL(20,4);</v>
-      </c>
-      <c r="G226" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `management_owe_amount` `management_owe_amount` DECIMAL(20,4) COMMENT '尚欠管理费' ;</v>
-      </c>
-      <c r="H226" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `management_owe_amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8482,15 +8525,15 @@
         <v>14</v>
       </c>
       <c r="F227" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_project_summary` ADD COLUMN `party_billing_amount` DECIMAL(20,4);</v>
+      </c>
+      <c r="G227" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `party_billing_amount` `party_billing_amount` DECIMAL(20,4) COMMENT '发票金额' ;</v>
+      </c>
+      <c r="H227" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_project_summary` ADD COLUMN `party_billing_amount` DECIMAL(20,4);</v>
-      </c>
-      <c r="G227" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `party_billing_amount` `party_billing_amount` DECIMAL(20,4) COMMENT '发票金额' ;</v>
-      </c>
-      <c r="H227" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `party_billing_amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8508,15 +8551,15 @@
         <v>14</v>
       </c>
       <c r="F228" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_project_summary` ADD COLUMN `party_billing_total_amount` DECIMAL(20,4);</v>
+      </c>
+      <c r="G228" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `party_billing_total_amount` `party_billing_total_amount` DECIMAL(20,4) COMMENT '累计开票' ;</v>
+      </c>
+      <c r="H228" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_project_summary` ADD COLUMN `party_billing_total_amount` DECIMAL(20,4);</v>
-      </c>
-      <c r="G228" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `party_billing_total_amount` `party_billing_total_amount` DECIMAL(20,4) COMMENT '累计开票' ;</v>
-      </c>
-      <c r="H228" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `party_billing_total_amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8534,15 +8577,15 @@
         <v>14</v>
       </c>
       <c r="F229" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_project_summary` ADD COLUMN `collections_amount` DECIMAL(20,4);</v>
+      </c>
+      <c r="G229" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `collections_amount` `collections_amount` DECIMAL(20,4) COMMENT '收款金额' ;</v>
+      </c>
+      <c r="H229" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_project_summary` ADD COLUMN `collections_amount` DECIMAL(20,4);</v>
-      </c>
-      <c r="G229" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `collections_amount` `collections_amount` DECIMAL(20,4) COMMENT '收款金额' ;</v>
-      </c>
-      <c r="H229" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `collections_amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8560,15 +8603,15 @@
         <v>14</v>
       </c>
       <c r="F230" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_project_summary` ADD COLUMN `collections_total_amount` DECIMAL(20,4);</v>
+      </c>
+      <c r="G230" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `collections_total_amount` `collections_total_amount` DECIMAL(20,4) COMMENT '累计收款' ;</v>
+      </c>
+      <c r="H230" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_project_summary` ADD COLUMN `collections_total_amount` DECIMAL(20,4);</v>
-      </c>
-      <c r="G230" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `collections_total_amount` `collections_total_amount` DECIMAL(20,4) COMMENT '累计收款' ;</v>
-      </c>
-      <c r="H230" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `collections_total_amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8586,15 +8629,15 @@
         <v>14</v>
       </c>
       <c r="F231" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_project_summary` ADD COLUMN `collections_rate` DECIMAL(20,4);</v>
+      </c>
+      <c r="G231" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `collections_rate` `collections_rate` DECIMAL(20,4) COMMENT '回收率' ;</v>
+      </c>
+      <c r="H231" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_project_summary` ADD COLUMN `collections_rate` DECIMAL(20,4);</v>
-      </c>
-      <c r="G231" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `collections_rate` `collections_rate` DECIMAL(20,4) COMMENT '回收率' ;</v>
-      </c>
-      <c r="H231" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `collections_rate` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8612,15 +8655,15 @@
         <v>14</v>
       </c>
       <c r="F232" t="str">
+        <f t="shared" si="10"/>
+        <v>ALTER TABLE `t_project_summary` ADD COLUMN `customer_billing_amount` DECIMAL(20,4);</v>
+      </c>
+      <c r="G232" t="str">
+        <f t="shared" si="11"/>
+        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `customer_billing_amount` `customer_billing_amount` DECIMAL(20,4) COMMENT '发票金额' ;</v>
+      </c>
+      <c r="H232" t="str">
         <f t="shared" si="9"/>
-        <v>ALTER TABLE `t_project_summary` ADD COLUMN `customer_billing_amount` DECIMAL(20,4);</v>
-      </c>
-      <c r="G232" t="str">
-        <f t="shared" si="10"/>
-        <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `customer_billing_amount` `customer_billing_amount` DECIMAL(20,4) COMMENT '发票金额' ;</v>
-      </c>
-      <c r="H232" t="str">
-        <f t="shared" si="8"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `customer_billing_amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8638,15 +8681,15 @@
         <v>14</v>
       </c>
       <c r="F233" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `customer_billing_total_amount` DECIMAL(20,4);</v>
       </c>
       <c r="G233" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `customer_billing_total_amount` `customer_billing_total_amount` DECIMAL(20,4) COMMENT '累计开票' ;</v>
       </c>
       <c r="H233" t="str">
-        <f t="shared" ref="H233:H243" si="11">"ALTER TABLE `"&amp;B233&amp;"` ADD COLUMN `"&amp;C233&amp;"` "&amp;E233&amp;";"</f>
+        <f t="shared" ref="H233:H243" si="12">"ALTER TABLE `"&amp;B233&amp;"` ADD COLUMN `"&amp;C233&amp;"` "&amp;E233&amp;";"</f>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `customer_billing_total_amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8664,15 +8707,15 @@
         <v>14</v>
       </c>
       <c r="F234" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `payment_amount` DECIMAL(20,4);</v>
       </c>
       <c r="G234" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `payment_amount` `payment_amount` DECIMAL(20,4) COMMENT '支付金额' ;</v>
       </c>
       <c r="H234" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `payment_amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8690,15 +8733,15 @@
         <v>14</v>
       </c>
       <c r="F235" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `payment_total_amount` DECIMAL(20,4);</v>
       </c>
       <c r="G235" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `payment_total_amount` `payment_total_amount` DECIMAL(20,4) COMMENT '累计' ;</v>
       </c>
       <c r="H235" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `payment_total_amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8716,15 +8759,15 @@
         <v>14</v>
       </c>
       <c r="F236" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `tax_rate` DECIMAL(20,4);</v>
       </c>
       <c r="G236" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `tax_rate` `tax_rate` DECIMAL(20,4) COMMENT '比率' ;</v>
       </c>
       <c r="H236" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `tax_rate` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8742,15 +8785,15 @@
         <v>14</v>
       </c>
       <c r="F237" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `tax_plan_amount` DECIMAL(20,4);</v>
       </c>
       <c r="G237" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `tax_plan_amount` `tax_plan_amount` DECIMAL(20,4) COMMENT '应缴税金' ;</v>
       </c>
       <c r="H237" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `tax_plan_amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8768,15 +8811,15 @@
         <v>14</v>
       </c>
       <c r="F238" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `tax_real_amount` DECIMAL(20,4);</v>
       </c>
       <c r="G238" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `tax_real_amount` `tax_real_amount` DECIMAL(20,4) COMMENT '已缴税金' ;</v>
       </c>
       <c r="H238" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `tax_real_amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8794,15 +8837,15 @@
         <v>14</v>
       </c>
       <c r="F239" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `tax_total_amount` DECIMAL(20,4);</v>
       </c>
       <c r="G239" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `tax_total_amount` `tax_total_amount` DECIMAL(20,4) COMMENT '累计已缴税金' ;</v>
       </c>
       <c r="H239" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `tax_total_amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8820,15 +8863,15 @@
         <v>14</v>
       </c>
       <c r="F240" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `tax_owe_amount` DECIMAL(20,4);</v>
       </c>
       <c r="G240" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `tax_owe_amount` `tax_owe_amount` DECIMAL(20,4) COMMENT '尚欠税金' ;</v>
       </c>
       <c r="H240" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `tax_owe_amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8846,15 +8889,15 @@
         <v>14</v>
       </c>
       <c r="F241" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `arrears_amount` DECIMAL(20,4);</v>
       </c>
       <c r="G241" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `arrears_amount` `arrears_amount` DECIMAL(20,4) COMMENT '金额' ;</v>
       </c>
       <c r="H241" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `arrears_amount` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8872,15 +8915,15 @@
         <v>14</v>
       </c>
       <c r="F242" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `expected_value` DECIMAL(20,4);</v>
       </c>
       <c r="G242" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `expected_value` `expected_value` DECIMAL(20,4) COMMENT '预计用量' ;</v>
       </c>
       <c r="H242" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `expected_value` DECIMAL(20,4);</v>
       </c>
     </row>
@@ -8898,30 +8941,132 @@
         <v>105</v>
       </c>
       <c r="F243" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `profile_point` VARCHAR(100);</v>
       </c>
       <c r="G243" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ALTER TABLE `t_project_summary` CHANGE COLUMN `profile_point` `profile_point` VARCHAR(100) COMMENT '型材点' ;</v>
       </c>
       <c r="H243" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ALTER TABLE `t_project_summary` ADD COLUMN `profile_point` VARCHAR(100);</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A2:A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
